--- a/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
+++ b/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4792AF06-8606-4C49-870A-4D09542C1D68}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782DAA4F-3E56-4DBA-BAF9-3478C09438A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="684" uniqueCount="436">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="444">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1343,17 +1343,42 @@
   </si>
   <si>
     <t>06/01-03/2022</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
+  </si>
+  <si>
+    <t>2023</t>
+  </si>
+  <si>
+    <t>10/9,12,13/2022</t>
+  </si>
+  <si>
+    <t>10/20,21,/2022</t>
+  </si>
+  <si>
+    <t>VL(4-0-0)</t>
+  </si>
+  <si>
+    <t>12/19,20,28,29/2022</t>
+  </si>
+  <si>
+    <t>11/7,11/2022</t>
+  </si>
+  <si>
+    <t>2/2,3/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="4">
+  <numFmts count="5">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
     <numFmt numFmtId="166" formatCode="###\-###\-###"/>
     <numFmt numFmtId="167" formatCode="&quot;CM&quot;\-#######"/>
+    <numFmt numFmtId="168" formatCode="#,##0.000"/>
   </numFmts>
   <fonts count="6" x14ac:knownFonts="1">
     <font>
@@ -1587,7 +1612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="77">
+  <cellXfs count="78">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1812,6 +1837,9 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3796,7 +3824,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K1164" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K1165" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+  <autoFilter ref="A8:K1165" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4174,12 +4203,11 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K1164"/>
+  <dimension ref="A2:K1165"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1944" topLeftCell="A517" activePane="bottomLeft"/>
-      <selection activeCell="N8" sqref="N8"/>
-      <selection pane="bottomLeft" activeCell="K496" sqref="K496"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="3576" topLeftCell="A601" activePane="bottomLeft"/>
+      <selection pane="bottomLeft" activeCell="F603" sqref="F603"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4340,7 +4368,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>5.0489999999999213</v>
+        <v>2.7989999999999213</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4350,7 +4378,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>116.875</v>
+        <v>114.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -4382,13 +4410,15 @@
         <v>34121</v>
       </c>
       <c r="B11" s="20"/>
-      <c r="C11" s="13"/>
+      <c r="C11" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D11" s="39"/>
       <c r="E11" s="9"/>
       <c r="F11" s="20"/>
-      <c r="G11" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G11" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H11" s="39"/>
       <c r="I11" s="9"/>
@@ -4486,7 +4516,7 @@
       <c r="D16" s="43"/>
       <c r="E16" s="9"/>
       <c r="F16" s="15"/>
-      <c r="G16" s="42">
+      <c r="G16" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
@@ -4771,7 +4801,10 @@
       </c>
       <c r="E30" s="60"/>
       <c r="F30" s="56"/>
-      <c r="G30" s="13"/>
+      <c r="G30" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H30" s="39"/>
       <c r="I30" s="9"/>
       <c r="J30" s="11"/>
@@ -5634,7 +5667,7 @@
         <v>35704</v>
       </c>
       <c r="B70" s="20" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="C70" s="13">
         <v>1.25</v>
@@ -9482,7 +9515,10 @@
       <c r="D245" s="39"/>
       <c r="E245" s="9"/>
       <c r="F245" s="20"/>
-      <c r="G245" s="13"/>
+      <c r="G245" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H245" s="39">
         <v>1</v>
       </c>
@@ -9501,7 +9537,10 @@
       <c r="D246" s="39"/>
       <c r="E246" s="9"/>
       <c r="F246" s="20"/>
-      <c r="G246" s="13"/>
+      <c r="G246" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H246" s="39">
         <v>2</v>
       </c>
@@ -9520,7 +9559,10 @@
       <c r="D247" s="39"/>
       <c r="E247" s="9"/>
       <c r="F247" s="20"/>
-      <c r="G247" s="13"/>
+      <c r="G247" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H247" s="39">
         <v>3</v>
       </c>
@@ -9539,7 +9581,10 @@
       <c r="D248" s="39"/>
       <c r="E248" s="9"/>
       <c r="F248" s="20"/>
-      <c r="G248" s="13"/>
+      <c r="G248" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H248" s="39">
         <v>3</v>
       </c>
@@ -10152,7 +10197,10 @@
       <c r="D275" s="39"/>
       <c r="E275" s="9"/>
       <c r="F275" s="20"/>
-      <c r="G275" s="13"/>
+      <c r="G275" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H275" s="39">
         <v>1</v>
       </c>
@@ -10171,7 +10219,10 @@
       <c r="D276" s="39"/>
       <c r="E276" s="9"/>
       <c r="F276" s="20"/>
-      <c r="G276" s="13"/>
+      <c r="G276" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H276" s="39">
         <v>2</v>
       </c>
@@ -10192,7 +10243,10 @@
       </c>
       <c r="E277" s="9"/>
       <c r="F277" s="20"/>
-      <c r="G277" s="13"/>
+      <c r="G277" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H277" s="39"/>
       <c r="I277" s="9"/>
       <c r="J277" s="11"/>
@@ -10259,7 +10313,10 @@
       </c>
       <c r="E280" s="9"/>
       <c r="F280" s="20"/>
-      <c r="G280" s="13"/>
+      <c r="G280" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H280" s="39"/>
       <c r="I280" s="9"/>
       <c r="J280" s="11"/>
@@ -10278,7 +10335,10 @@
       </c>
       <c r="E281" s="9"/>
       <c r="F281" s="20"/>
-      <c r="G281" s="13"/>
+      <c r="G281" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H281" s="39"/>
       <c r="I281" s="9"/>
       <c r="J281" s="11"/>
@@ -10371,7 +10431,10 @@
       <c r="D285" s="39"/>
       <c r="E285" s="9"/>
       <c r="F285" s="20"/>
-      <c r="G285" s="13"/>
+      <c r="G285" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H285" s="39">
         <v>4</v>
       </c>
@@ -10392,7 +10455,10 @@
       </c>
       <c r="E286" s="9"/>
       <c r="F286" s="20"/>
-      <c r="G286" s="13"/>
+      <c r="G286" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H286" s="39"/>
       <c r="I286" s="9"/>
       <c r="J286" s="11"/>
@@ -10411,7 +10477,10 @@
       </c>
       <c r="E287" s="9"/>
       <c r="F287" s="20"/>
-      <c r="G287" s="13"/>
+      <c r="G287" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H287" s="39"/>
       <c r="I287" s="9"/>
       <c r="J287" s="11"/>
@@ -10430,7 +10499,10 @@
       </c>
       <c r="E288" s="9"/>
       <c r="F288" s="20"/>
-      <c r="G288" s="13"/>
+      <c r="G288" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H288" s="39"/>
       <c r="I288" s="9"/>
       <c r="J288" s="11"/>
@@ -10449,7 +10521,10 @@
       <c r="F289" s="20">
         <v>21</v>
       </c>
-      <c r="G289" s="13"/>
+      <c r="G289" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H289" s="39"/>
       <c r="I289" s="9"/>
       <c r="J289" s="11"/>
@@ -10634,7 +10709,10 @@
       <c r="D298" s="39"/>
       <c r="E298" s="9"/>
       <c r="F298" s="20"/>
-      <c r="G298" s="13"/>
+      <c r="G298" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H298" s="39"/>
       <c r="I298" s="9"/>
       <c r="J298" s="11"/>
@@ -10651,7 +10729,10 @@
       <c r="D299" s="39"/>
       <c r="E299" s="9"/>
       <c r="F299" s="20"/>
-      <c r="G299" s="13"/>
+      <c r="G299" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H299" s="39">
         <v>1</v>
       </c>
@@ -10984,7 +11065,10 @@
       <c r="D314" s="39"/>
       <c r="E314" s="9"/>
       <c r="F314" s="20"/>
-      <c r="G314" s="13"/>
+      <c r="G314" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H314" s="39">
         <v>2</v>
       </c>
@@ -11003,7 +11087,10 @@
       <c r="D315" s="39"/>
       <c r="E315" s="9"/>
       <c r="F315" s="20"/>
-      <c r="G315" s="13"/>
+      <c r="G315" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H315" s="39">
         <v>3</v>
       </c>
@@ -11022,7 +11109,10 @@
       <c r="D316" s="39"/>
       <c r="E316" s="9"/>
       <c r="F316" s="20"/>
-      <c r="G316" s="13"/>
+      <c r="G316" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H316" s="39">
         <v>2</v>
       </c>
@@ -11043,7 +11133,10 @@
       </c>
       <c r="E317" s="9"/>
       <c r="F317" s="20"/>
-      <c r="G317" s="13"/>
+      <c r="G317" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H317" s="39"/>
       <c r="I317" s="9"/>
       <c r="J317" s="11"/>
@@ -11062,7 +11155,10 @@
       <c r="D318" s="39"/>
       <c r="E318" s="9"/>
       <c r="F318" s="20"/>
-      <c r="G318" s="13"/>
+      <c r="G318" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H318" s="39">
         <v>1</v>
       </c>
@@ -11081,7 +11177,10 @@
       <c r="D319" s="39"/>
       <c r="E319" s="9"/>
       <c r="F319" s="20"/>
-      <c r="G319" s="13"/>
+      <c r="G319" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H319" s="39"/>
       <c r="I319" s="9"/>
       <c r="J319" s="11">
@@ -11102,7 +11201,10 @@
       </c>
       <c r="E320" s="9"/>
       <c r="F320" s="20"/>
-      <c r="G320" s="13"/>
+      <c r="G320" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H320" s="39"/>
       <c r="I320" s="9"/>
       <c r="J320" s="11"/>
@@ -11123,7 +11225,10 @@
       </c>
       <c r="E321" s="9"/>
       <c r="F321" s="20"/>
-      <c r="G321" s="13"/>
+      <c r="G321" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H321" s="39">
         <v>1.5</v>
       </c>
@@ -11142,7 +11247,10 @@
       <c r="D322" s="39"/>
       <c r="E322" s="9"/>
       <c r="F322" s="20"/>
-      <c r="G322" s="13"/>
+      <c r="G322" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H322" s="39"/>
       <c r="I322" s="9"/>
       <c r="J322" s="11">
@@ -11163,7 +11271,10 @@
       </c>
       <c r="E323" s="9"/>
       <c r="F323" s="20"/>
-      <c r="G323" s="13"/>
+      <c r="G323" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H323" s="39"/>
       <c r="I323" s="9"/>
       <c r="J323" s="11"/>
@@ -11204,7 +11315,10 @@
       <c r="D325" s="39"/>
       <c r="E325" s="9"/>
       <c r="F325" s="20"/>
-      <c r="G325" s="13"/>
+      <c r="G325" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H325" s="39"/>
       <c r="I325" s="9"/>
       <c r="J325" s="11">
@@ -11225,7 +11339,10 @@
       </c>
       <c r="E326" s="9"/>
       <c r="F326" s="20"/>
-      <c r="G326" s="13"/>
+      <c r="G326" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H326" s="39"/>
       <c r="I326" s="9"/>
       <c r="J326" s="11"/>
@@ -11266,7 +11383,10 @@
       <c r="D328" s="39"/>
       <c r="E328" s="9"/>
       <c r="F328" s="20"/>
-      <c r="G328" s="13"/>
+      <c r="G328" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H328" s="39"/>
       <c r="I328" s="9"/>
       <c r="J328" s="11">
@@ -11287,7 +11407,10 @@
       </c>
       <c r="E329" s="9"/>
       <c r="F329" s="20"/>
-      <c r="G329" s="13"/>
+      <c r="G329" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H329" s="39"/>
       <c r="I329" s="9"/>
       <c r="J329" s="11"/>
@@ -11352,7 +11475,10 @@
       </c>
       <c r="E332" s="9"/>
       <c r="F332" s="20"/>
-      <c r="G332" s="13"/>
+      <c r="G332" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H332" s="39"/>
       <c r="I332" s="9"/>
       <c r="J332" s="11"/>
@@ -11393,7 +11519,10 @@
       <c r="D334" s="39"/>
       <c r="E334" s="9"/>
       <c r="F334" s="20"/>
-      <c r="G334" s="13"/>
+      <c r="G334" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H334" s="39"/>
       <c r="I334" s="9"/>
       <c r="J334" s="11">
@@ -11412,7 +11541,10 @@
       <c r="D335" s="39"/>
       <c r="E335" s="9"/>
       <c r="F335" s="20"/>
-      <c r="G335" s="13"/>
+      <c r="G335" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H335" s="39"/>
       <c r="I335" s="9"/>
       <c r="J335" s="11">
@@ -11431,7 +11563,10 @@
       <c r="D336" s="39"/>
       <c r="E336" s="9"/>
       <c r="F336" s="20"/>
-      <c r="G336" s="13"/>
+      <c r="G336" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H336" s="39"/>
       <c r="I336" s="9"/>
       <c r="J336" s="11"/>
@@ -11450,7 +11585,10 @@
       </c>
       <c r="E337" s="9"/>
       <c r="F337" s="20"/>
-      <c r="G337" s="13"/>
+      <c r="G337" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H337" s="39"/>
       <c r="I337" s="9"/>
       <c r="J337" s="11"/>
@@ -11495,7 +11633,10 @@
       </c>
       <c r="E339" s="9"/>
       <c r="F339" s="20"/>
-      <c r="G339" s="13"/>
+      <c r="G339" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H339" s="39"/>
       <c r="I339" s="9"/>
       <c r="J339" s="11"/>
@@ -11536,7 +11677,10 @@
       <c r="D341" s="39"/>
       <c r="E341" s="9"/>
       <c r="F341" s="20"/>
-      <c r="G341" s="13"/>
+      <c r="G341" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H341" s="39"/>
       <c r="I341" s="9"/>
       <c r="J341" s="11">
@@ -11557,7 +11701,10 @@
       </c>
       <c r="E342" s="9"/>
       <c r="F342" s="20"/>
-      <c r="G342" s="13"/>
+      <c r="G342" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H342" s="39"/>
       <c r="I342" s="9"/>
       <c r="J342" s="11"/>
@@ -11600,7 +11747,10 @@
       <c r="D344" s="39"/>
       <c r="E344" s="9"/>
       <c r="F344" s="20"/>
-      <c r="G344" s="13"/>
+      <c r="G344" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H344" s="39"/>
       <c r="I344" s="9"/>
       <c r="J344" s="11">
@@ -11619,7 +11769,10 @@
       <c r="D345" s="39"/>
       <c r="E345" s="9"/>
       <c r="F345" s="20"/>
-      <c r="G345" s="13"/>
+      <c r="G345" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H345" s="39">
         <v>1</v>
       </c>
@@ -11702,7 +11855,10 @@
       <c r="D349" s="39"/>
       <c r="E349" s="9"/>
       <c r="F349" s="20"/>
-      <c r="G349" s="13"/>
+      <c r="G349" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H349" s="39"/>
       <c r="I349" s="9"/>
       <c r="J349" s="11">
@@ -11721,7 +11877,10 @@
       <c r="D350" s="39"/>
       <c r="E350" s="9"/>
       <c r="F350" s="20"/>
-      <c r="G350" s="13"/>
+      <c r="G350" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H350" s="39"/>
       <c r="I350" s="9"/>
       <c r="J350" s="11">
@@ -11740,7 +11899,10 @@
       <c r="D351" s="39"/>
       <c r="E351" s="9"/>
       <c r="F351" s="20"/>
-      <c r="G351" s="13"/>
+      <c r="G351" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H351" s="39">
         <v>1</v>
       </c>
@@ -11761,7 +11923,10 @@
       </c>
       <c r="E352" s="9"/>
       <c r="F352" s="20"/>
-      <c r="G352" s="13"/>
+      <c r="G352" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H352" s="39"/>
       <c r="I352" s="9"/>
       <c r="J352" s="11"/>
@@ -12326,7 +12491,10 @@
       </c>
       <c r="E377" s="9"/>
       <c r="F377" s="20"/>
-      <c r="G377" s="13"/>
+      <c r="G377" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H377" s="39"/>
       <c r="I377" s="9"/>
       <c r="J377" s="11"/>
@@ -12343,7 +12511,10 @@
       <c r="D378" s="39"/>
       <c r="E378" s="9"/>
       <c r="F378" s="20"/>
-      <c r="G378" s="13"/>
+      <c r="G378" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H378" s="39"/>
       <c r="I378" s="9"/>
       <c r="J378" s="11">
@@ -12364,7 +12535,10 @@
       </c>
       <c r="E379" s="9"/>
       <c r="F379" s="20"/>
-      <c r="G379" s="13"/>
+      <c r="G379" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H379" s="39"/>
       <c r="I379" s="9"/>
       <c r="J379" s="11"/>
@@ -12709,7 +12883,10 @@
       <c r="D394" s="39"/>
       <c r="E394" s="9"/>
       <c r="F394" s="20"/>
-      <c r="G394" s="13"/>
+      <c r="G394" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H394" s="39"/>
       <c r="I394" s="9"/>
       <c r="J394" s="11"/>
@@ -12726,7 +12903,10 @@
       </c>
       <c r="E395" s="9"/>
       <c r="F395" s="20"/>
-      <c r="G395" s="13"/>
+      <c r="G395" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H395" s="39"/>
       <c r="I395" s="9"/>
       <c r="J395" s="11"/>
@@ -12767,7 +12947,10 @@
       <c r="D397" s="39"/>
       <c r="E397" s="9"/>
       <c r="F397" s="20"/>
-      <c r="G397" s="13"/>
+      <c r="G397" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H397" s="39"/>
       <c r="I397" s="9"/>
       <c r="J397" s="11"/>
@@ -12786,7 +12969,10 @@
       </c>
       <c r="E398" s="9"/>
       <c r="F398" s="20"/>
-      <c r="G398" s="13"/>
+      <c r="G398" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H398" s="39"/>
       <c r="I398" s="9"/>
       <c r="J398" s="11"/>
@@ -12877,7 +13063,10 @@
       <c r="D402" s="39"/>
       <c r="E402" s="9"/>
       <c r="F402" s="20"/>
-      <c r="G402" s="13"/>
+      <c r="G402" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H402" s="39">
         <v>3</v>
       </c>
@@ -12898,7 +13087,10 @@
       </c>
       <c r="E403" s="9"/>
       <c r="F403" s="20"/>
-      <c r="G403" s="13"/>
+      <c r="G403" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H403" s="39"/>
       <c r="I403" s="9"/>
       <c r="J403" s="11"/>
@@ -13123,7 +13315,10 @@
       <c r="D413" s="39"/>
       <c r="E413" s="9"/>
       <c r="F413" s="20"/>
-      <c r="G413" s="13"/>
+      <c r="G413" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H413" s="39">
         <v>3</v>
       </c>
@@ -13144,7 +13339,10 @@
       </c>
       <c r="E414" s="9"/>
       <c r="F414" s="20"/>
-      <c r="G414" s="13"/>
+      <c r="G414" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H414" s="39"/>
       <c r="I414" s="9"/>
       <c r="J414" s="11"/>
@@ -14083,7 +14281,10 @@
       <c r="D456" s="39"/>
       <c r="E456" s="9"/>
       <c r="F456" s="20"/>
-      <c r="G456" s="13"/>
+      <c r="G456" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H456" s="39"/>
       <c r="I456" s="9"/>
       <c r="J456" s="11"/>
@@ -15182,7 +15383,10 @@
       <c r="D506" s="39"/>
       <c r="E506" s="9"/>
       <c r="F506" s="20"/>
-      <c r="G506" s="13"/>
+      <c r="G506" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H506" s="39"/>
       <c r="I506" s="9"/>
       <c r="J506" s="11"/>
@@ -15199,7 +15403,10 @@
       <c r="D507" s="39"/>
       <c r="E507" s="9"/>
       <c r="F507" s="20"/>
-      <c r="G507" s="13"/>
+      <c r="G507" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H507" s="39"/>
       <c r="I507" s="9"/>
       <c r="J507" s="11"/>
@@ -15218,7 +15425,10 @@
       </c>
       <c r="E508" s="9"/>
       <c r="F508" s="20"/>
-      <c r="G508" s="13"/>
+      <c r="G508" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H508" s="39"/>
       <c r="I508" s="9"/>
       <c r="J508" s="11"/>
@@ -17118,7 +17328,9 @@
       <c r="A598" s="40">
         <v>44805</v>
       </c>
-      <c r="B598" s="20"/>
+      <c r="B598" s="20" t="s">
+        <v>110</v>
+      </c>
       <c r="C598" s="13">
         <v>1.25</v>
       </c>
@@ -17129,16 +17341,22 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H598" s="39"/>
+      <c r="H598" s="39">
+        <v>1</v>
+      </c>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20"/>
+      <c r="K598" s="49">
+        <v>44817</v>
+      </c>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A599" s="40">
         <v>44835</v>
       </c>
-      <c r="B599" s="20"/>
+      <c r="B599" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C599" s="13">
         <v>1.25</v>
       </c>
@@ -17149,36 +17367,44 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H599" s="39"/>
+      <c r="H599" s="39">
+        <v>3</v>
+      </c>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="20"/>
+      <c r="K599" s="20" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A600" s="40">
-        <v>44866</v>
-      </c>
-      <c r="B600" s="20"/>
-      <c r="C600" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D600" s="39"/>
+      <c r="A600" s="40"/>
+      <c r="B600" s="20" t="s">
+        <v>84</v>
+      </c>
+      <c r="C600" s="13"/>
+      <c r="D600" s="39">
+        <v>2</v>
+      </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
-      <c r="G600" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G600" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20"/>
+      <c r="K600" s="20" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A601" s="40">
-        <v>44896</v>
-      </c>
-      <c r="B601" s="20"/>
+        <v>44866</v>
+      </c>
+      <c r="B601" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C601" s="13">
         <v>1.25</v>
       </c>
@@ -17189,266 +17415,394 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H601" s="39"/>
+      <c r="H601" s="39">
+        <v>2</v>
+      </c>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
+      <c r="K601" s="20" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A602" s="40"/>
-      <c r="B602" s="20"/>
-      <c r="C602" s="13"/>
-      <c r="D602" s="39"/>
+      <c r="A602" s="40">
+        <v>44896</v>
+      </c>
+      <c r="B602" s="20" t="s">
+        <v>440</v>
+      </c>
+      <c r="C602" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D602" s="39">
+        <v>4</v>
+      </c>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
-      <c r="G602" s="13"/>
+      <c r="G602" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
       <c r="H602" s="39"/>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20"/>
+      <c r="K602" s="20" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A603" s="40"/>
+      <c r="A603" s="48" t="s">
+        <v>437</v>
+      </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
       <c r="D603" s="39"/>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13"/>
+      <c r="G603" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A604" s="40"/>
-      <c r="B604" s="20"/>
-      <c r="C604" s="13"/>
+      <c r="A604" s="40">
+        <v>44927</v>
+      </c>
+      <c r="B604" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="C604" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D604" s="39"/>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
-      <c r="G604" s="13"/>
-      <c r="H604" s="39"/>
+      <c r="G604" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H604" s="39">
+        <v>1</v>
+      </c>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20"/>
+      <c r="K604" s="49">
+        <v>44942</v>
+      </c>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A605" s="40"/>
-      <c r="B605" s="20"/>
-      <c r="C605" s="13"/>
+      <c r="A605" s="40">
+        <v>44958</v>
+      </c>
+      <c r="B605" s="20" t="s">
+        <v>82</v>
+      </c>
+      <c r="C605" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D605" s="39"/>
       <c r="E605" s="9"/>
       <c r="F605" s="20"/>
-      <c r="G605" s="13"/>
-      <c r="H605" s="39"/>
+      <c r="G605" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H605" s="39">
+        <v>2</v>
+      </c>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="20" t="s">
+        <v>443</v>
+      </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A606" s="40"/>
+      <c r="A606" s="40">
+        <v>44986</v>
+      </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13"/>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A607" s="40"/>
+      <c r="A607" s="40">
+        <v>45017</v>
+      </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
       <c r="D607" s="39"/>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13"/>
+      <c r="G607" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H607" s="39"/>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A608" s="40"/>
+      <c r="A608" s="40">
+        <v>45047</v>
+      </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
       <c r="E608" s="9"/>
       <c r="F608" s="20"/>
-      <c r="G608" s="13"/>
+      <c r="G608" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H608" s="39"/>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A609" s="40"/>
+      <c r="A609" s="40">
+        <v>45078</v>
+      </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
       <c r="E609" s="9"/>
       <c r="F609" s="20"/>
-      <c r="G609" s="13"/>
+      <c r="G609" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H609" s="39"/>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A610" s="40"/>
+      <c r="A610" s="40">
+        <v>45108</v>
+      </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
       <c r="E610" s="9"/>
       <c r="F610" s="20"/>
-      <c r="G610" s="13"/>
+      <c r="G610" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H610" s="39"/>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A611" s="40"/>
+      <c r="A611" s="40">
+        <v>45139</v>
+      </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
       <c r="D611" s="39"/>
       <c r="E611" s="9"/>
       <c r="F611" s="20"/>
-      <c r="G611" s="13"/>
+      <c r="G611" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H611" s="39"/>
       <c r="I611" s="9"/>
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A612" s="40"/>
+      <c r="A612" s="40">
+        <v>45170</v>
+      </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
       <c r="D612" s="39"/>
       <c r="E612" s="9"/>
       <c r="F612" s="20"/>
-      <c r="G612" s="13"/>
+      <c r="G612" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H612" s="39"/>
       <c r="I612" s="9"/>
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A613" s="40"/>
+      <c r="A613" s="40">
+        <v>45200</v>
+      </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
       <c r="D613" s="39"/>
       <c r="E613" s="9"/>
       <c r="F613" s="20"/>
-      <c r="G613" s="13"/>
+      <c r="G613" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H613" s="39"/>
       <c r="I613" s="9"/>
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A614" s="40"/>
+      <c r="A614" s="40">
+        <v>45231</v>
+      </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
       <c r="D614" s="39"/>
       <c r="E614" s="9"/>
       <c r="F614" s="20"/>
-      <c r="G614" s="13"/>
+      <c r="G614" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H614" s="39"/>
       <c r="I614" s="9"/>
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A615" s="40"/>
+      <c r="A615" s="40">
+        <v>45261</v>
+      </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
       <c r="D615" s="39"/>
       <c r="E615" s="9"/>
       <c r="F615" s="20"/>
-      <c r="G615" s="13"/>
+      <c r="G615" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H615" s="39"/>
       <c r="I615" s="9"/>
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A616" s="40"/>
+      <c r="A616" s="40">
+        <v>45292</v>
+      </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
       <c r="E616" s="9"/>
       <c r="F616" s="20"/>
-      <c r="G616" s="13"/>
+      <c r="G616" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H616" s="39"/>
       <c r="I616" s="9"/>
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A617" s="40"/>
+      <c r="A617" s="40">
+        <v>45323</v>
+      </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
       <c r="D617" s="39"/>
       <c r="E617" s="9"/>
       <c r="F617" s="20"/>
-      <c r="G617" s="13"/>
+      <c r="G617" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H617" s="39"/>
       <c r="I617" s="9"/>
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A618" s="40"/>
+      <c r="A618" s="40">
+        <v>45352</v>
+      </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="39"/>
       <c r="E618" s="9"/>
       <c r="F618" s="20"/>
-      <c r="G618" s="13"/>
+      <c r="G618" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H618" s="39"/>
       <c r="I618" s="9"/>
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A619" s="40"/>
+      <c r="A619" s="40">
+        <v>45383</v>
+      </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
       <c r="D619" s="39"/>
       <c r="E619" s="9"/>
       <c r="F619" s="20"/>
-      <c r="G619" s="13"/>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H619" s="39"/>
       <c r="I619" s="9"/>
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A620" s="40"/>
+      <c r="A620" s="40">
+        <v>45413</v>
+      </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
       <c r="D620" s="39"/>
       <c r="E620" s="9"/>
       <c r="F620" s="20"/>
-      <c r="G620" s="13"/>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H620" s="39"/>
       <c r="I620" s="9"/>
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A621" s="40"/>
+      <c r="A621" s="40">
+        <v>45444</v>
+      </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
       <c r="D621" s="39"/>
       <c r="E621" s="9"/>
       <c r="F621" s="20"/>
-      <c r="G621" s="13"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H621" s="39"/>
       <c r="I621" s="9"/>
       <c r="J621" s="11"/>
@@ -17461,7 +17815,10 @@
       <c r="D622" s="39"/>
       <c r="E622" s="9"/>
       <c r="F622" s="20"/>
-      <c r="G622" s="13"/>
+      <c r="G622" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H622" s="39"/>
       <c r="I622" s="9"/>
       <c r="J622" s="11"/>
@@ -17474,7 +17831,10 @@
       <c r="D623" s="39"/>
       <c r="E623" s="9"/>
       <c r="F623" s="20"/>
-      <c r="G623" s="13"/>
+      <c r="G623" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H623" s="39"/>
       <c r="I623" s="9"/>
       <c r="J623" s="11"/>
@@ -17487,7 +17847,10 @@
       <c r="D624" s="39"/>
       <c r="E624" s="9"/>
       <c r="F624" s="20"/>
-      <c r="G624" s="13"/>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H624" s="39"/>
       <c r="I624" s="9"/>
       <c r="J624" s="11"/>
@@ -17500,7 +17863,10 @@
       <c r="D625" s="39"/>
       <c r="E625" s="9"/>
       <c r="F625" s="20"/>
-      <c r="G625" s="13"/>
+      <c r="G625" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H625" s="39"/>
       <c r="I625" s="9"/>
       <c r="J625" s="11"/>
@@ -17513,7 +17879,10 @@
       <c r="D626" s="39"/>
       <c r="E626" s="9"/>
       <c r="F626" s="20"/>
-      <c r="G626" s="13"/>
+      <c r="G626" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H626" s="39"/>
       <c r="I626" s="9"/>
       <c r="J626" s="11"/>
@@ -17526,7 +17895,10 @@
       <c r="D627" s="39"/>
       <c r="E627" s="9"/>
       <c r="F627" s="20"/>
-      <c r="G627" s="13"/>
+      <c r="G627" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H627" s="39"/>
       <c r="I627" s="9"/>
       <c r="J627" s="11"/>
@@ -17539,7 +17911,10 @@
       <c r="D628" s="39"/>
       <c r="E628" s="9"/>
       <c r="F628" s="20"/>
-      <c r="G628" s="13"/>
+      <c r="G628" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H628" s="39"/>
       <c r="I628" s="9"/>
       <c r="J628" s="11"/>
@@ -17552,7 +17927,10 @@
       <c r="D629" s="39"/>
       <c r="E629" s="9"/>
       <c r="F629" s="20"/>
-      <c r="G629" s="13"/>
+      <c r="G629" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H629" s="39"/>
       <c r="I629" s="9"/>
       <c r="J629" s="11"/>
@@ -17565,7 +17943,10 @@
       <c r="D630" s="39"/>
       <c r="E630" s="9"/>
       <c r="F630" s="20"/>
-      <c r="G630" s="13"/>
+      <c r="G630" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H630" s="39"/>
       <c r="I630" s="9"/>
       <c r="J630" s="11"/>
@@ -17578,7 +17959,10 @@
       <c r="D631" s="39"/>
       <c r="E631" s="9"/>
       <c r="F631" s="20"/>
-      <c r="G631" s="13"/>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H631" s="39"/>
       <c r="I631" s="9"/>
       <c r="J631" s="11"/>
@@ -17591,7 +17975,10 @@
       <c r="D632" s="39"/>
       <c r="E632" s="9"/>
       <c r="F632" s="20"/>
-      <c r="G632" s="13"/>
+      <c r="G632" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H632" s="39"/>
       <c r="I632" s="9"/>
       <c r="J632" s="11"/>
@@ -17604,7 +17991,10 @@
       <c r="D633" s="39"/>
       <c r="E633" s="9"/>
       <c r="F633" s="20"/>
-      <c r="G633" s="13"/>
+      <c r="G633" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H633" s="39"/>
       <c r="I633" s="9"/>
       <c r="J633" s="11"/>
@@ -17617,7 +18007,10 @@
       <c r="D634" s="39"/>
       <c r="E634" s="9"/>
       <c r="F634" s="20"/>
-      <c r="G634" s="13"/>
+      <c r="G634" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H634" s="39"/>
       <c r="I634" s="9"/>
       <c r="J634" s="11"/>
@@ -17630,7 +18023,10 @@
       <c r="D635" s="39"/>
       <c r="E635" s="9"/>
       <c r="F635" s="20"/>
-      <c r="G635" s="13"/>
+      <c r="G635" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H635" s="39"/>
       <c r="I635" s="9"/>
       <c r="J635" s="11"/>
@@ -17643,7 +18039,10 @@
       <c r="D636" s="39"/>
       <c r="E636" s="9"/>
       <c r="F636" s="20"/>
-      <c r="G636" s="13"/>
+      <c r="G636" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H636" s="39"/>
       <c r="I636" s="9"/>
       <c r="J636" s="11"/>
@@ -17656,7 +18055,10 @@
       <c r="D637" s="39"/>
       <c r="E637" s="9"/>
       <c r="F637" s="20"/>
-      <c r="G637" s="13"/>
+      <c r="G637" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H637" s="39"/>
       <c r="I637" s="9"/>
       <c r="J637" s="11"/>
@@ -17669,7 +18071,10 @@
       <c r="D638" s="39"/>
       <c r="E638" s="9"/>
       <c r="F638" s="20"/>
-      <c r="G638" s="13"/>
+      <c r="G638" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H638" s="39"/>
       <c r="I638" s="9"/>
       <c r="J638" s="11"/>
@@ -17682,7 +18087,10 @@
       <c r="D639" s="39"/>
       <c r="E639" s="9"/>
       <c r="F639" s="20"/>
-      <c r="G639" s="13"/>
+      <c r="G639" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H639" s="39"/>
       <c r="I639" s="9"/>
       <c r="J639" s="11"/>
@@ -17695,7 +18103,10 @@
       <c r="D640" s="39"/>
       <c r="E640" s="9"/>
       <c r="F640" s="20"/>
-      <c r="G640" s="13"/>
+      <c r="G640" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H640" s="39"/>
       <c r="I640" s="9"/>
       <c r="J640" s="11"/>
@@ -17708,7 +18119,10 @@
       <c r="D641" s="39"/>
       <c r="E641" s="9"/>
       <c r="F641" s="20"/>
-      <c r="G641" s="13"/>
+      <c r="G641" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H641" s="39"/>
       <c r="I641" s="9"/>
       <c r="J641" s="11"/>
@@ -17721,7 +18135,10 @@
       <c r="D642" s="39"/>
       <c r="E642" s="9"/>
       <c r="F642" s="20"/>
-      <c r="G642" s="13"/>
+      <c r="G642" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H642" s="39"/>
       <c r="I642" s="9"/>
       <c r="J642" s="11"/>
@@ -17734,7 +18151,10 @@
       <c r="D643" s="39"/>
       <c r="E643" s="9"/>
       <c r="F643" s="20"/>
-      <c r="G643" s="13"/>
+      <c r="G643" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H643" s="39"/>
       <c r="I643" s="9"/>
       <c r="J643" s="11"/>
@@ -17747,7 +18167,10 @@
       <c r="D644" s="39"/>
       <c r="E644" s="9"/>
       <c r="F644" s="20"/>
-      <c r="G644" s="13"/>
+      <c r="G644" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H644" s="39"/>
       <c r="I644" s="9"/>
       <c r="J644" s="11"/>
@@ -17760,7 +18183,10 @@
       <c r="D645" s="39"/>
       <c r="E645" s="9"/>
       <c r="F645" s="20"/>
-      <c r="G645" s="13"/>
+      <c r="G645" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H645" s="39"/>
       <c r="I645" s="9"/>
       <c r="J645" s="11"/>
@@ -17773,7 +18199,10 @@
       <c r="D646" s="39"/>
       <c r="E646" s="9"/>
       <c r="F646" s="20"/>
-      <c r="G646" s="13"/>
+      <c r="G646" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H646" s="39"/>
       <c r="I646" s="9"/>
       <c r="J646" s="11"/>
@@ -17786,7 +18215,10 @@
       <c r="D647" s="39"/>
       <c r="E647" s="9"/>
       <c r="F647" s="20"/>
-      <c r="G647" s="13"/>
+      <c r="G647" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H647" s="39"/>
       <c r="I647" s="9"/>
       <c r="J647" s="11"/>
@@ -17799,7 +18231,10 @@
       <c r="D648" s="39"/>
       <c r="E648" s="9"/>
       <c r="F648" s="20"/>
-      <c r="G648" s="13"/>
+      <c r="G648" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H648" s="39"/>
       <c r="I648" s="9"/>
       <c r="J648" s="11"/>
@@ -17812,7 +18247,10 @@
       <c r="D649" s="39"/>
       <c r="E649" s="9"/>
       <c r="F649" s="20"/>
-      <c r="G649" s="13"/>
+      <c r="G649" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H649" s="39"/>
       <c r="I649" s="9"/>
       <c r="J649" s="11"/>
@@ -17825,7 +18263,10 @@
       <c r="D650" s="39"/>
       <c r="E650" s="9"/>
       <c r="F650" s="20"/>
-      <c r="G650" s="13"/>
+      <c r="G650" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H650" s="39"/>
       <c r="I650" s="9"/>
       <c r="J650" s="11"/>
@@ -17838,7 +18279,10 @@
       <c r="D651" s="39"/>
       <c r="E651" s="9"/>
       <c r="F651" s="20"/>
-      <c r="G651" s="13"/>
+      <c r="G651" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H651" s="39"/>
       <c r="I651" s="9"/>
       <c r="J651" s="11"/>
@@ -17851,7 +18295,10 @@
       <c r="D652" s="39"/>
       <c r="E652" s="9"/>
       <c r="F652" s="20"/>
-      <c r="G652" s="13"/>
+      <c r="G652" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H652" s="39"/>
       <c r="I652" s="9"/>
       <c r="J652" s="11"/>
@@ -17864,7 +18311,10 @@
       <c r="D653" s="39"/>
       <c r="E653" s="9"/>
       <c r="F653" s="20"/>
-      <c r="G653" s="13"/>
+      <c r="G653" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H653" s="39"/>
       <c r="I653" s="9"/>
       <c r="J653" s="11"/>
@@ -17877,7 +18327,10 @@
       <c r="D654" s="39"/>
       <c r="E654" s="9"/>
       <c r="F654" s="20"/>
-      <c r="G654" s="13"/>
+      <c r="G654" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H654" s="39"/>
       <c r="I654" s="9"/>
       <c r="J654" s="11"/>
@@ -17890,7 +18343,10 @@
       <c r="D655" s="39"/>
       <c r="E655" s="9"/>
       <c r="F655" s="20"/>
-      <c r="G655" s="13"/>
+      <c r="G655" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H655" s="39"/>
       <c r="I655" s="9"/>
       <c r="J655" s="11"/>
@@ -17903,7 +18359,10 @@
       <c r="D656" s="39"/>
       <c r="E656" s="9"/>
       <c r="F656" s="20"/>
-      <c r="G656" s="13"/>
+      <c r="G656" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H656" s="39"/>
       <c r="I656" s="9"/>
       <c r="J656" s="11"/>
@@ -17916,7 +18375,10 @@
       <c r="D657" s="39"/>
       <c r="E657" s="9"/>
       <c r="F657" s="20"/>
-      <c r="G657" s="13"/>
+      <c r="G657" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H657" s="39"/>
       <c r="I657" s="9"/>
       <c r="J657" s="11"/>
@@ -17929,7 +18391,10 @@
       <c r="D658" s="39"/>
       <c r="E658" s="9"/>
       <c r="F658" s="20"/>
-      <c r="G658" s="13"/>
+      <c r="G658" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H658" s="39"/>
       <c r="I658" s="9"/>
       <c r="J658" s="11"/>
@@ -17942,7 +18407,10 @@
       <c r="D659" s="39"/>
       <c r="E659" s="9"/>
       <c r="F659" s="20"/>
-      <c r="G659" s="13"/>
+      <c r="G659" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H659" s="39"/>
       <c r="I659" s="9"/>
       <c r="J659" s="11"/>
@@ -17955,7 +18423,10 @@
       <c r="D660" s="39"/>
       <c r="E660" s="9"/>
       <c r="F660" s="20"/>
-      <c r="G660" s="13"/>
+      <c r="G660" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H660" s="39"/>
       <c r="I660" s="9"/>
       <c r="J660" s="11"/>
@@ -17968,7 +18439,10 @@
       <c r="D661" s="39"/>
       <c r="E661" s="9"/>
       <c r="F661" s="20"/>
-      <c r="G661" s="13"/>
+      <c r="G661" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H661" s="39"/>
       <c r="I661" s="9"/>
       <c r="J661" s="11"/>
@@ -17981,7 +18455,10 @@
       <c r="D662" s="39"/>
       <c r="E662" s="9"/>
       <c r="F662" s="20"/>
-      <c r="G662" s="13"/>
+      <c r="G662" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H662" s="39"/>
       <c r="I662" s="9"/>
       <c r="J662" s="11"/>
@@ -17994,7 +18471,10 @@
       <c r="D663" s="39"/>
       <c r="E663" s="9"/>
       <c r="F663" s="20"/>
-      <c r="G663" s="13"/>
+      <c r="G663" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H663" s="39"/>
       <c r="I663" s="9"/>
       <c r="J663" s="11"/>
@@ -18007,7 +18487,10 @@
       <c r="D664" s="39"/>
       <c r="E664" s="9"/>
       <c r="F664" s="20"/>
-      <c r="G664" s="13"/>
+      <c r="G664" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H664" s="39"/>
       <c r="I664" s="9"/>
       <c r="J664" s="11"/>
@@ -18020,7 +18503,10 @@
       <c r="D665" s="39"/>
       <c r="E665" s="9"/>
       <c r="F665" s="20"/>
-      <c r="G665" s="13"/>
+      <c r="G665" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H665" s="39"/>
       <c r="I665" s="9"/>
       <c r="J665" s="11"/>
@@ -18033,7 +18519,10 @@
       <c r="D666" s="39"/>
       <c r="E666" s="9"/>
       <c r="F666" s="20"/>
-      <c r="G666" s="13"/>
+      <c r="G666" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H666" s="39"/>
       <c r="I666" s="9"/>
       <c r="J666" s="11"/>
@@ -18046,7 +18535,10 @@
       <c r="D667" s="39"/>
       <c r="E667" s="9"/>
       <c r="F667" s="20"/>
-      <c r="G667" s="13"/>
+      <c r="G667" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H667" s="39"/>
       <c r="I667" s="9"/>
       <c r="J667" s="11"/>
@@ -18059,7 +18551,10 @@
       <c r="D668" s="39"/>
       <c r="E668" s="9"/>
       <c r="F668" s="20"/>
-      <c r="G668" s="13"/>
+      <c r="G668" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H668" s="39"/>
       <c r="I668" s="9"/>
       <c r="J668" s="11"/>
@@ -18072,7 +18567,10 @@
       <c r="D669" s="39"/>
       <c r="E669" s="9"/>
       <c r="F669" s="20"/>
-      <c r="G669" s="13"/>
+      <c r="G669" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H669" s="39"/>
       <c r="I669" s="9"/>
       <c r="J669" s="11"/>
@@ -18085,7 +18583,10 @@
       <c r="D670" s="39"/>
       <c r="E670" s="9"/>
       <c r="F670" s="20"/>
-      <c r="G670" s="13"/>
+      <c r="G670" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H670" s="39"/>
       <c r="I670" s="9"/>
       <c r="J670" s="11"/>
@@ -18098,7 +18599,10 @@
       <c r="D671" s="39"/>
       <c r="E671" s="9"/>
       <c r="F671" s="20"/>
-      <c r="G671" s="13"/>
+      <c r="G671" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H671" s="39"/>
       <c r="I671" s="9"/>
       <c r="J671" s="11"/>
@@ -18111,7 +18615,10 @@
       <c r="D672" s="39"/>
       <c r="E672" s="9"/>
       <c r="F672" s="20"/>
-      <c r="G672" s="13"/>
+      <c r="G672" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H672" s="39"/>
       <c r="I672" s="9"/>
       <c r="J672" s="11"/>
@@ -18124,7 +18631,10 @@
       <c r="D673" s="39"/>
       <c r="E673" s="9"/>
       <c r="F673" s="20"/>
-      <c r="G673" s="13"/>
+      <c r="G673" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H673" s="39"/>
       <c r="I673" s="9"/>
       <c r="J673" s="11"/>
@@ -18137,7 +18647,10 @@
       <c r="D674" s="39"/>
       <c r="E674" s="9"/>
       <c r="F674" s="20"/>
-      <c r="G674" s="13"/>
+      <c r="G674" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H674" s="39"/>
       <c r="I674" s="9"/>
       <c r="J674" s="11"/>
@@ -18150,7 +18663,10 @@
       <c r="D675" s="39"/>
       <c r="E675" s="9"/>
       <c r="F675" s="20"/>
-      <c r="G675" s="13"/>
+      <c r="G675" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H675" s="39"/>
       <c r="I675" s="9"/>
       <c r="J675" s="11"/>
@@ -18163,7 +18679,10 @@
       <c r="D676" s="39"/>
       <c r="E676" s="9"/>
       <c r="F676" s="20"/>
-      <c r="G676" s="13"/>
+      <c r="G676" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H676" s="39"/>
       <c r="I676" s="9"/>
       <c r="J676" s="11"/>
@@ -18176,7 +18695,10 @@
       <c r="D677" s="39"/>
       <c r="E677" s="9"/>
       <c r="F677" s="20"/>
-      <c r="G677" s="13"/>
+      <c r="G677" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H677" s="39"/>
       <c r="I677" s="9"/>
       <c r="J677" s="11"/>
@@ -18189,7 +18711,10 @@
       <c r="D678" s="39"/>
       <c r="E678" s="9"/>
       <c r="F678" s="20"/>
-      <c r="G678" s="13"/>
+      <c r="G678" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H678" s="39"/>
       <c r="I678" s="9"/>
       <c r="J678" s="11"/>
@@ -18202,7 +18727,10 @@
       <c r="D679" s="39"/>
       <c r="E679" s="9"/>
       <c r="F679" s="20"/>
-      <c r="G679" s="13"/>
+      <c r="G679" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H679" s="39"/>
       <c r="I679" s="9"/>
       <c r="J679" s="11"/>
@@ -18215,7 +18743,10 @@
       <c r="D680" s="39"/>
       <c r="E680" s="9"/>
       <c r="F680" s="20"/>
-      <c r="G680" s="13"/>
+      <c r="G680" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H680" s="39"/>
       <c r="I680" s="9"/>
       <c r="J680" s="11"/>
@@ -18228,7 +18759,10 @@
       <c r="D681" s="39"/>
       <c r="E681" s="9"/>
       <c r="F681" s="20"/>
-      <c r="G681" s="13"/>
+      <c r="G681" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H681" s="39"/>
       <c r="I681" s="9"/>
       <c r="J681" s="11"/>
@@ -18241,7 +18775,10 @@
       <c r="D682" s="39"/>
       <c r="E682" s="9"/>
       <c r="F682" s="20"/>
-      <c r="G682" s="13"/>
+      <c r="G682" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H682" s="39"/>
       <c r="I682" s="9"/>
       <c r="J682" s="11"/>
@@ -18254,7 +18791,10 @@
       <c r="D683" s="39"/>
       <c r="E683" s="9"/>
       <c r="F683" s="20"/>
-      <c r="G683" s="13"/>
+      <c r="G683" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H683" s="39"/>
       <c r="I683" s="9"/>
       <c r="J683" s="11"/>
@@ -18267,7 +18807,10 @@
       <c r="D684" s="39"/>
       <c r="E684" s="9"/>
       <c r="F684" s="20"/>
-      <c r="G684" s="13"/>
+      <c r="G684" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H684" s="39"/>
       <c r="I684" s="9"/>
       <c r="J684" s="11"/>
@@ -18280,7 +18823,10 @@
       <c r="D685" s="39"/>
       <c r="E685" s="9"/>
       <c r="F685" s="20"/>
-      <c r="G685" s="13"/>
+      <c r="G685" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H685" s="39"/>
       <c r="I685" s="9"/>
       <c r="J685" s="11"/>
@@ -18293,7 +18839,10 @@
       <c r="D686" s="39"/>
       <c r="E686" s="9"/>
       <c r="F686" s="20"/>
-      <c r="G686" s="13"/>
+      <c r="G686" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H686" s="39"/>
       <c r="I686" s="9"/>
       <c r="J686" s="11"/>
@@ -18306,7 +18855,10 @@
       <c r="D687" s="39"/>
       <c r="E687" s="9"/>
       <c r="F687" s="20"/>
-      <c r="G687" s="13"/>
+      <c r="G687" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H687" s="39"/>
       <c r="I687" s="9"/>
       <c r="J687" s="11"/>
@@ -18319,7 +18871,10 @@
       <c r="D688" s="39"/>
       <c r="E688" s="9"/>
       <c r="F688" s="20"/>
-      <c r="G688" s="13"/>
+      <c r="G688" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H688" s="39"/>
       <c r="I688" s="9"/>
       <c r="J688" s="11"/>
@@ -18332,7 +18887,10 @@
       <c r="D689" s="39"/>
       <c r="E689" s="9"/>
       <c r="F689" s="20"/>
-      <c r="G689" s="13"/>
+      <c r="G689" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H689" s="39"/>
       <c r="I689" s="9"/>
       <c r="J689" s="11"/>
@@ -18345,7 +18903,10 @@
       <c r="D690" s="39"/>
       <c r="E690" s="9"/>
       <c r="F690" s="20"/>
-      <c r="G690" s="13"/>
+      <c r="G690" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H690" s="39"/>
       <c r="I690" s="9"/>
       <c r="J690" s="11"/>
@@ -18358,7 +18919,10 @@
       <c r="D691" s="39"/>
       <c r="E691" s="9"/>
       <c r="F691" s="20"/>
-      <c r="G691" s="13"/>
+      <c r="G691" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H691" s="39"/>
       <c r="I691" s="9"/>
       <c r="J691" s="11"/>
@@ -18371,7 +18935,10 @@
       <c r="D692" s="39"/>
       <c r="E692" s="9"/>
       <c r="F692" s="20"/>
-      <c r="G692" s="13"/>
+      <c r="G692" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H692" s="39"/>
       <c r="I692" s="9"/>
       <c r="J692" s="11"/>
@@ -18384,7 +18951,10 @@
       <c r="D693" s="39"/>
       <c r="E693" s="9"/>
       <c r="F693" s="20"/>
-      <c r="G693" s="13"/>
+      <c r="G693" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H693" s="39"/>
       <c r="I693" s="9"/>
       <c r="J693" s="11"/>
@@ -18397,7 +18967,10 @@
       <c r="D694" s="39"/>
       <c r="E694" s="9"/>
       <c r="F694" s="20"/>
-      <c r="G694" s="13"/>
+      <c r="G694" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H694" s="39"/>
       <c r="I694" s="9"/>
       <c r="J694" s="11"/>
@@ -18410,7 +18983,10 @@
       <c r="D695" s="39"/>
       <c r="E695" s="9"/>
       <c r="F695" s="20"/>
-      <c r="G695" s="13"/>
+      <c r="G695" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H695" s="39"/>
       <c r="I695" s="9"/>
       <c r="J695" s="11"/>
@@ -18423,7 +18999,10 @@
       <c r="D696" s="39"/>
       <c r="E696" s="9"/>
       <c r="F696" s="20"/>
-      <c r="G696" s="13"/>
+      <c r="G696" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H696" s="39"/>
       <c r="I696" s="9"/>
       <c r="J696" s="11"/>
@@ -18436,7 +19015,10 @@
       <c r="D697" s="39"/>
       <c r="E697" s="9"/>
       <c r="F697" s="20"/>
-      <c r="G697" s="13"/>
+      <c r="G697" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H697" s="39"/>
       <c r="I697" s="9"/>
       <c r="J697" s="11"/>
@@ -18449,7 +19031,10 @@
       <c r="D698" s="39"/>
       <c r="E698" s="9"/>
       <c r="F698" s="20"/>
-      <c r="G698" s="13"/>
+      <c r="G698" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H698" s="39"/>
       <c r="I698" s="9"/>
       <c r="J698" s="11"/>
@@ -18462,7 +19047,10 @@
       <c r="D699" s="39"/>
       <c r="E699" s="9"/>
       <c r="F699" s="20"/>
-      <c r="G699" s="13"/>
+      <c r="G699" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H699" s="39"/>
       <c r="I699" s="9"/>
       <c r="J699" s="11"/>
@@ -18475,7 +19063,10 @@
       <c r="D700" s="39"/>
       <c r="E700" s="9"/>
       <c r="F700" s="20"/>
-      <c r="G700" s="13"/>
+      <c r="G700" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H700" s="39"/>
       <c r="I700" s="9"/>
       <c r="J700" s="11"/>
@@ -18488,7 +19079,10 @@
       <c r="D701" s="39"/>
       <c r="E701" s="9"/>
       <c r="F701" s="20"/>
-      <c r="G701" s="13"/>
+      <c r="G701" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H701" s="39"/>
       <c r="I701" s="9"/>
       <c r="J701" s="11"/>
@@ -18501,7 +19095,10 @@
       <c r="D702" s="39"/>
       <c r="E702" s="9"/>
       <c r="F702" s="20"/>
-      <c r="G702" s="13"/>
+      <c r="G702" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H702" s="39"/>
       <c r="I702" s="9"/>
       <c r="J702" s="11"/>
@@ -18514,7 +19111,10 @@
       <c r="D703" s="39"/>
       <c r="E703" s="9"/>
       <c r="F703" s="20"/>
-      <c r="G703" s="13"/>
+      <c r="G703" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H703" s="39"/>
       <c r="I703" s="9"/>
       <c r="J703" s="11"/>
@@ -18527,7 +19127,10 @@
       <c r="D704" s="39"/>
       <c r="E704" s="9"/>
       <c r="F704" s="20"/>
-      <c r="G704" s="13"/>
+      <c r="G704" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H704" s="39"/>
       <c r="I704" s="9"/>
       <c r="J704" s="11"/>
@@ -18540,7 +19143,10 @@
       <c r="D705" s="39"/>
       <c r="E705" s="9"/>
       <c r="F705" s="20"/>
-      <c r="G705" s="13"/>
+      <c r="G705" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H705" s="39"/>
       <c r="I705" s="9"/>
       <c r="J705" s="11"/>
@@ -18553,7 +19159,10 @@
       <c r="D706" s="39"/>
       <c r="E706" s="9"/>
       <c r="F706" s="20"/>
-      <c r="G706" s="13"/>
+      <c r="G706" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H706" s="39"/>
       <c r="I706" s="9"/>
       <c r="J706" s="11"/>
@@ -18566,7 +19175,10 @@
       <c r="D707" s="39"/>
       <c r="E707" s="9"/>
       <c r="F707" s="20"/>
-      <c r="G707" s="13"/>
+      <c r="G707" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H707" s="39"/>
       <c r="I707" s="9"/>
       <c r="J707" s="11"/>
@@ -18579,7 +19191,10 @@
       <c r="D708" s="39"/>
       <c r="E708" s="9"/>
       <c r="F708" s="20"/>
-      <c r="G708" s="13"/>
+      <c r="G708" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H708" s="39"/>
       <c r="I708" s="9"/>
       <c r="J708" s="11"/>
@@ -18592,7 +19207,10 @@
       <c r="D709" s="39"/>
       <c r="E709" s="9"/>
       <c r="F709" s="20"/>
-      <c r="G709" s="13"/>
+      <c r="G709" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H709" s="39"/>
       <c r="I709" s="9"/>
       <c r="J709" s="11"/>
@@ -18605,7 +19223,10 @@
       <c r="D710" s="39"/>
       <c r="E710" s="9"/>
       <c r="F710" s="20"/>
-      <c r="G710" s="13"/>
+      <c r="G710" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H710" s="39"/>
       <c r="I710" s="9"/>
       <c r="J710" s="11"/>
@@ -18618,7 +19239,10 @@
       <c r="D711" s="39"/>
       <c r="E711" s="9"/>
       <c r="F711" s="20"/>
-      <c r="G711" s="13"/>
+      <c r="G711" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H711" s="39"/>
       <c r="I711" s="9"/>
       <c r="J711" s="11"/>
@@ -18631,7 +19255,10 @@
       <c r="D712" s="39"/>
       <c r="E712" s="9"/>
       <c r="F712" s="20"/>
-      <c r="G712" s="13"/>
+      <c r="G712" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H712" s="39"/>
       <c r="I712" s="9"/>
       <c r="J712" s="11"/>
@@ -18644,7 +19271,10 @@
       <c r="D713" s="39"/>
       <c r="E713" s="9"/>
       <c r="F713" s="20"/>
-      <c r="G713" s="13"/>
+      <c r="G713" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H713" s="39"/>
       <c r="I713" s="9"/>
       <c r="J713" s="11"/>
@@ -18657,7 +19287,10 @@
       <c r="D714" s="39"/>
       <c r="E714" s="9"/>
       <c r="F714" s="20"/>
-      <c r="G714" s="13"/>
+      <c r="G714" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H714" s="39"/>
       <c r="I714" s="9"/>
       <c r="J714" s="11"/>
@@ -18670,7 +19303,10 @@
       <c r="D715" s="39"/>
       <c r="E715" s="9"/>
       <c r="F715" s="20"/>
-      <c r="G715" s="13"/>
+      <c r="G715" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H715" s="39"/>
       <c r="I715" s="9"/>
       <c r="J715" s="11"/>
@@ -18683,7 +19319,10 @@
       <c r="D716" s="39"/>
       <c r="E716" s="9"/>
       <c r="F716" s="20"/>
-      <c r="G716" s="13"/>
+      <c r="G716" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H716" s="39"/>
       <c r="I716" s="9"/>
       <c r="J716" s="11"/>
@@ -18696,7 +19335,10 @@
       <c r="D717" s="39"/>
       <c r="E717" s="9"/>
       <c r="F717" s="20"/>
-      <c r="G717" s="13"/>
+      <c r="G717" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H717" s="39"/>
       <c r="I717" s="9"/>
       <c r="J717" s="11"/>
@@ -18709,7 +19351,10 @@
       <c r="D718" s="39"/>
       <c r="E718" s="9"/>
       <c r="F718" s="20"/>
-      <c r="G718" s="13"/>
+      <c r="G718" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H718" s="39"/>
       <c r="I718" s="9"/>
       <c r="J718" s="11"/>
@@ -18722,7 +19367,10 @@
       <c r="D719" s="39"/>
       <c r="E719" s="9"/>
       <c r="F719" s="20"/>
-      <c r="G719" s="13"/>
+      <c r="G719" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H719" s="39"/>
       <c r="I719" s="9"/>
       <c r="J719" s="11"/>
@@ -18735,7 +19383,10 @@
       <c r="D720" s="39"/>
       <c r="E720" s="9"/>
       <c r="F720" s="20"/>
-      <c r="G720" s="13"/>
+      <c r="G720" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H720" s="39"/>
       <c r="I720" s="9"/>
       <c r="J720" s="11"/>
@@ -18748,7 +19399,10 @@
       <c r="D721" s="39"/>
       <c r="E721" s="9"/>
       <c r="F721" s="20"/>
-      <c r="G721" s="13"/>
+      <c r="G721" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H721" s="39"/>
       <c r="I721" s="9"/>
       <c r="J721" s="11"/>
@@ -18761,7 +19415,10 @@
       <c r="D722" s="39"/>
       <c r="E722" s="9"/>
       <c r="F722" s="20"/>
-      <c r="G722" s="13"/>
+      <c r="G722" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H722" s="39"/>
       <c r="I722" s="9"/>
       <c r="J722" s="11"/>
@@ -18774,7 +19431,10 @@
       <c r="D723" s="39"/>
       <c r="E723" s="9"/>
       <c r="F723" s="20"/>
-      <c r="G723" s="13"/>
+      <c r="G723" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H723" s="39"/>
       <c r="I723" s="9"/>
       <c r="J723" s="11"/>
@@ -18787,7 +19447,10 @@
       <c r="D724" s="39"/>
       <c r="E724" s="9"/>
       <c r="F724" s="20"/>
-      <c r="G724" s="13"/>
+      <c r="G724" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H724" s="39"/>
       <c r="I724" s="9"/>
       <c r="J724" s="11"/>
@@ -18800,7 +19463,10 @@
       <c r="D725" s="39"/>
       <c r="E725" s="9"/>
       <c r="F725" s="20"/>
-      <c r="G725" s="13"/>
+      <c r="G725" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H725" s="39"/>
       <c r="I725" s="9"/>
       <c r="J725" s="11"/>
@@ -18813,7 +19479,10 @@
       <c r="D726" s="39"/>
       <c r="E726" s="9"/>
       <c r="F726" s="20"/>
-      <c r="G726" s="13"/>
+      <c r="G726" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H726" s="39"/>
       <c r="I726" s="9"/>
       <c r="J726" s="11"/>
@@ -18826,7 +19495,10 @@
       <c r="D727" s="39"/>
       <c r="E727" s="9"/>
       <c r="F727" s="20"/>
-      <c r="G727" s="13"/>
+      <c r="G727" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H727" s="39"/>
       <c r="I727" s="9"/>
       <c r="J727" s="11"/>
@@ -18839,7 +19511,10 @@
       <c r="D728" s="39"/>
       <c r="E728" s="9"/>
       <c r="F728" s="20"/>
-      <c r="G728" s="13"/>
+      <c r="G728" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H728" s="39"/>
       <c r="I728" s="9"/>
       <c r="J728" s="11"/>
@@ -18852,7 +19527,10 @@
       <c r="D729" s="39"/>
       <c r="E729" s="9"/>
       <c r="F729" s="20"/>
-      <c r="G729" s="13"/>
+      <c r="G729" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H729" s="39"/>
       <c r="I729" s="9"/>
       <c r="J729" s="11"/>
@@ -18865,7 +19543,10 @@
       <c r="D730" s="39"/>
       <c r="E730" s="9"/>
       <c r="F730" s="20"/>
-      <c r="G730" s="13"/>
+      <c r="G730" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H730" s="39"/>
       <c r="I730" s="9"/>
       <c r="J730" s="11"/>
@@ -18878,7 +19559,10 @@
       <c r="D731" s="39"/>
       <c r="E731" s="9"/>
       <c r="F731" s="20"/>
-      <c r="G731" s="13"/>
+      <c r="G731" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H731" s="39"/>
       <c r="I731" s="9"/>
       <c r="J731" s="11"/>
@@ -18891,7 +19575,10 @@
       <c r="D732" s="39"/>
       <c r="E732" s="9"/>
       <c r="F732" s="20"/>
-      <c r="G732" s="13"/>
+      <c r="G732" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H732" s="39"/>
       <c r="I732" s="9"/>
       <c r="J732" s="11"/>
@@ -18904,7 +19591,10 @@
       <c r="D733" s="39"/>
       <c r="E733" s="9"/>
       <c r="F733" s="20"/>
-      <c r="G733" s="13"/>
+      <c r="G733" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H733" s="39"/>
       <c r="I733" s="9"/>
       <c r="J733" s="11"/>
@@ -18917,7 +19607,10 @@
       <c r="D734" s="39"/>
       <c r="E734" s="9"/>
       <c r="F734" s="20"/>
-      <c r="G734" s="13"/>
+      <c r="G734" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H734" s="39"/>
       <c r="I734" s="9"/>
       <c r="J734" s="11"/>
@@ -18930,7 +19623,10 @@
       <c r="D735" s="39"/>
       <c r="E735" s="9"/>
       <c r="F735" s="20"/>
-      <c r="G735" s="13"/>
+      <c r="G735" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H735" s="39"/>
       <c r="I735" s="9"/>
       <c r="J735" s="11"/>
@@ -18943,7 +19639,10 @@
       <c r="D736" s="39"/>
       <c r="E736" s="9"/>
       <c r="F736" s="20"/>
-      <c r="G736" s="13"/>
+      <c r="G736" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H736" s="39"/>
       <c r="I736" s="9"/>
       <c r="J736" s="11"/>
@@ -18956,7 +19655,10 @@
       <c r="D737" s="39"/>
       <c r="E737" s="9"/>
       <c r="F737" s="20"/>
-      <c r="G737" s="13"/>
+      <c r="G737" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H737" s="39"/>
       <c r="I737" s="9"/>
       <c r="J737" s="11"/>
@@ -18969,7 +19671,10 @@
       <c r="D738" s="39"/>
       <c r="E738" s="9"/>
       <c r="F738" s="20"/>
-      <c r="G738" s="13"/>
+      <c r="G738" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H738" s="39"/>
       <c r="I738" s="9"/>
       <c r="J738" s="11"/>
@@ -18982,7 +19687,10 @@
       <c r="D739" s="39"/>
       <c r="E739" s="9"/>
       <c r="F739" s="20"/>
-      <c r="G739" s="13"/>
+      <c r="G739" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H739" s="39"/>
       <c r="I739" s="9"/>
       <c r="J739" s="11"/>
@@ -18995,7 +19703,10 @@
       <c r="D740" s="39"/>
       <c r="E740" s="9"/>
       <c r="F740" s="20"/>
-      <c r="G740" s="13"/>
+      <c r="G740" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H740" s="39"/>
       <c r="I740" s="9"/>
       <c r="J740" s="11"/>
@@ -19008,7 +19719,10 @@
       <c r="D741" s="39"/>
       <c r="E741" s="9"/>
       <c r="F741" s="20"/>
-      <c r="G741" s="13"/>
+      <c r="G741" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H741" s="39"/>
       <c r="I741" s="9"/>
       <c r="J741" s="11"/>
@@ -19021,7 +19735,10 @@
       <c r="D742" s="39"/>
       <c r="E742" s="9"/>
       <c r="F742" s="20"/>
-      <c r="G742" s="13"/>
+      <c r="G742" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H742" s="39"/>
       <c r="I742" s="9"/>
       <c r="J742" s="11"/>
@@ -19034,7 +19751,10 @@
       <c r="D743" s="39"/>
       <c r="E743" s="9"/>
       <c r="F743" s="20"/>
-      <c r="G743" s="13"/>
+      <c r="G743" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H743" s="39"/>
       <c r="I743" s="9"/>
       <c r="J743" s="11"/>
@@ -19047,7 +19767,10 @@
       <c r="D744" s="39"/>
       <c r="E744" s="9"/>
       <c r="F744" s="20"/>
-      <c r="G744" s="13"/>
+      <c r="G744" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H744" s="39"/>
       <c r="I744" s="9"/>
       <c r="J744" s="11"/>
@@ -19060,7 +19783,10 @@
       <c r="D745" s="39"/>
       <c r="E745" s="9"/>
       <c r="F745" s="20"/>
-      <c r="G745" s="13"/>
+      <c r="G745" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H745" s="39"/>
       <c r="I745" s="9"/>
       <c r="J745" s="11"/>
@@ -19073,7 +19799,10 @@
       <c r="D746" s="39"/>
       <c r="E746" s="9"/>
       <c r="F746" s="20"/>
-      <c r="G746" s="13"/>
+      <c r="G746" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H746" s="39"/>
       <c r="I746" s="9"/>
       <c r="J746" s="11"/>
@@ -19086,7 +19815,10 @@
       <c r="D747" s="39"/>
       <c r="E747" s="9"/>
       <c r="F747" s="20"/>
-      <c r="G747" s="13"/>
+      <c r="G747" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H747" s="39"/>
       <c r="I747" s="9"/>
       <c r="J747" s="11"/>
@@ -19099,7 +19831,10 @@
       <c r="D748" s="39"/>
       <c r="E748" s="9"/>
       <c r="F748" s="20"/>
-      <c r="G748" s="13"/>
+      <c r="G748" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H748" s="39"/>
       <c r="I748" s="9"/>
       <c r="J748" s="11"/>
@@ -19112,7 +19847,10 @@
       <c r="D749" s="39"/>
       <c r="E749" s="9"/>
       <c r="F749" s="20"/>
-      <c r="G749" s="13"/>
+      <c r="G749" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H749" s="39"/>
       <c r="I749" s="9"/>
       <c r="J749" s="11"/>
@@ -19125,7 +19863,10 @@
       <c r="D750" s="39"/>
       <c r="E750" s="9"/>
       <c r="F750" s="20"/>
-      <c r="G750" s="13"/>
+      <c r="G750" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H750" s="39"/>
       <c r="I750" s="9"/>
       <c r="J750" s="11"/>
@@ -19138,7 +19879,10 @@
       <c r="D751" s="39"/>
       <c r="E751" s="9"/>
       <c r="F751" s="20"/>
-      <c r="G751" s="13"/>
+      <c r="G751" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H751" s="39"/>
       <c r="I751" s="9"/>
       <c r="J751" s="11"/>
@@ -19151,7 +19895,10 @@
       <c r="D752" s="39"/>
       <c r="E752" s="9"/>
       <c r="F752" s="20"/>
-      <c r="G752" s="13"/>
+      <c r="G752" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H752" s="39"/>
       <c r="I752" s="9"/>
       <c r="J752" s="11"/>
@@ -19164,7 +19911,10 @@
       <c r="D753" s="39"/>
       <c r="E753" s="9"/>
       <c r="F753" s="20"/>
-      <c r="G753" s="13"/>
+      <c r="G753" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H753" s="39"/>
       <c r="I753" s="9"/>
       <c r="J753" s="11"/>
@@ -19177,7 +19927,10 @@
       <c r="D754" s="39"/>
       <c r="E754" s="9"/>
       <c r="F754" s="20"/>
-      <c r="G754" s="13"/>
+      <c r="G754" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H754" s="39"/>
       <c r="I754" s="9"/>
       <c r="J754" s="11"/>
@@ -19190,7 +19943,10 @@
       <c r="D755" s="39"/>
       <c r="E755" s="9"/>
       <c r="F755" s="20"/>
-      <c r="G755" s="13"/>
+      <c r="G755" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H755" s="39"/>
       <c r="I755" s="9"/>
       <c r="J755" s="11"/>
@@ -19203,7 +19959,10 @@
       <c r="D756" s="39"/>
       <c r="E756" s="9"/>
       <c r="F756" s="20"/>
-      <c r="G756" s="13"/>
+      <c r="G756" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H756" s="39"/>
       <c r="I756" s="9"/>
       <c r="J756" s="11"/>
@@ -19216,7 +19975,10 @@
       <c r="D757" s="39"/>
       <c r="E757" s="9"/>
       <c r="F757" s="20"/>
-      <c r="G757" s="13"/>
+      <c r="G757" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H757" s="39"/>
       <c r="I757" s="9"/>
       <c r="J757" s="11"/>
@@ -19229,7 +19991,10 @@
       <c r="D758" s="39"/>
       <c r="E758" s="9"/>
       <c r="F758" s="20"/>
-      <c r="G758" s="13"/>
+      <c r="G758" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H758" s="39"/>
       <c r="I758" s="9"/>
       <c r="J758" s="11"/>
@@ -19242,7 +20007,10 @@
       <c r="D759" s="39"/>
       <c r="E759" s="9"/>
       <c r="F759" s="20"/>
-      <c r="G759" s="13"/>
+      <c r="G759" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H759" s="39"/>
       <c r="I759" s="9"/>
       <c r="J759" s="11"/>
@@ -19255,7 +20023,10 @@
       <c r="D760" s="39"/>
       <c r="E760" s="9"/>
       <c r="F760" s="20"/>
-      <c r="G760" s="13"/>
+      <c r="G760" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H760" s="39"/>
       <c r="I760" s="9"/>
       <c r="J760" s="11"/>
@@ -19268,7 +20039,10 @@
       <c r="D761" s="39"/>
       <c r="E761" s="9"/>
       <c r="F761" s="20"/>
-      <c r="G761" s="13"/>
+      <c r="G761" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H761" s="39"/>
       <c r="I761" s="9"/>
       <c r="J761" s="11"/>
@@ -19281,7 +20055,10 @@
       <c r="D762" s="39"/>
       <c r="E762" s="9"/>
       <c r="F762" s="20"/>
-      <c r="G762" s="13"/>
+      <c r="G762" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H762" s="39"/>
       <c r="I762" s="9"/>
       <c r="J762" s="11"/>
@@ -19294,7 +20071,10 @@
       <c r="D763" s="39"/>
       <c r="E763" s="9"/>
       <c r="F763" s="20"/>
-      <c r="G763" s="13"/>
+      <c r="G763" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H763" s="39"/>
       <c r="I763" s="9"/>
       <c r="J763" s="11"/>
@@ -19307,7 +20087,10 @@
       <c r="D764" s="39"/>
       <c r="E764" s="9"/>
       <c r="F764" s="20"/>
-      <c r="G764" s="13"/>
+      <c r="G764" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H764" s="39"/>
       <c r="I764" s="9"/>
       <c r="J764" s="11"/>
@@ -19320,7 +20103,10 @@
       <c r="D765" s="39"/>
       <c r="E765" s="9"/>
       <c r="F765" s="20"/>
-      <c r="G765" s="13"/>
+      <c r="G765" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H765" s="39"/>
       <c r="I765" s="9"/>
       <c r="J765" s="11"/>
@@ -19333,7 +20119,10 @@
       <c r="D766" s="39"/>
       <c r="E766" s="9"/>
       <c r="F766" s="20"/>
-      <c r="G766" s="13"/>
+      <c r="G766" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H766" s="39"/>
       <c r="I766" s="9"/>
       <c r="J766" s="11"/>
@@ -19346,7 +20135,10 @@
       <c r="D767" s="39"/>
       <c r="E767" s="9"/>
       <c r="F767" s="20"/>
-      <c r="G767" s="13"/>
+      <c r="G767" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H767" s="39"/>
       <c r="I767" s="9"/>
       <c r="J767" s="11"/>
@@ -19359,7 +20151,10 @@
       <c r="D768" s="39"/>
       <c r="E768" s="9"/>
       <c r="F768" s="20"/>
-      <c r="G768" s="13"/>
+      <c r="G768" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H768" s="39"/>
       <c r="I768" s="9"/>
       <c r="J768" s="11"/>
@@ -19372,7 +20167,10 @@
       <c r="D769" s="39"/>
       <c r="E769" s="9"/>
       <c r="F769" s="20"/>
-      <c r="G769" s="13"/>
+      <c r="G769" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H769" s="39"/>
       <c r="I769" s="9"/>
       <c r="J769" s="11"/>
@@ -19385,7 +20183,10 @@
       <c r="D770" s="39"/>
       <c r="E770" s="9"/>
       <c r="F770" s="20"/>
-      <c r="G770" s="13"/>
+      <c r="G770" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H770" s="39"/>
       <c r="I770" s="9"/>
       <c r="J770" s="11"/>
@@ -19398,7 +20199,10 @@
       <c r="D771" s="39"/>
       <c r="E771" s="9"/>
       <c r="F771" s="20"/>
-      <c r="G771" s="13"/>
+      <c r="G771" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H771" s="39"/>
       <c r="I771" s="9"/>
       <c r="J771" s="11"/>
@@ -19411,7 +20215,10 @@
       <c r="D772" s="39"/>
       <c r="E772" s="9"/>
       <c r="F772" s="20"/>
-      <c r="G772" s="13"/>
+      <c r="G772" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H772" s="39"/>
       <c r="I772" s="9"/>
       <c r="J772" s="11"/>
@@ -19424,7 +20231,10 @@
       <c r="D773" s="39"/>
       <c r="E773" s="9"/>
       <c r="F773" s="20"/>
-      <c r="G773" s="13"/>
+      <c r="G773" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H773" s="39"/>
       <c r="I773" s="9"/>
       <c r="J773" s="11"/>
@@ -19437,7 +20247,10 @@
       <c r="D774" s="39"/>
       <c r="E774" s="9"/>
       <c r="F774" s="20"/>
-      <c r="G774" s="13"/>
+      <c r="G774" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H774" s="39"/>
       <c r="I774" s="9"/>
       <c r="J774" s="11"/>
@@ -19450,7 +20263,10 @@
       <c r="D775" s="39"/>
       <c r="E775" s="9"/>
       <c r="F775" s="20"/>
-      <c r="G775" s="13"/>
+      <c r="G775" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H775" s="39"/>
       <c r="I775" s="9"/>
       <c r="J775" s="11"/>
@@ -19463,7 +20279,10 @@
       <c r="D776" s="39"/>
       <c r="E776" s="9"/>
       <c r="F776" s="20"/>
-      <c r="G776" s="13"/>
+      <c r="G776" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H776" s="39"/>
       <c r="I776" s="9"/>
       <c r="J776" s="11"/>
@@ -19476,7 +20295,10 @@
       <c r="D777" s="39"/>
       <c r="E777" s="9"/>
       <c r="F777" s="20"/>
-      <c r="G777" s="13"/>
+      <c r="G777" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H777" s="39"/>
       <c r="I777" s="9"/>
       <c r="J777" s="11"/>
@@ -19489,7 +20311,10 @@
       <c r="D778" s="39"/>
       <c r="E778" s="9"/>
       <c r="F778" s="20"/>
-      <c r="G778" s="13"/>
+      <c r="G778" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H778" s="39"/>
       <c r="I778" s="9"/>
       <c r="J778" s="11"/>
@@ -19502,7 +20327,10 @@
       <c r="D779" s="39"/>
       <c r="E779" s="9"/>
       <c r="F779" s="20"/>
-      <c r="G779" s="13"/>
+      <c r="G779" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H779" s="39"/>
       <c r="I779" s="9"/>
       <c r="J779" s="11"/>
@@ -19515,7 +20343,10 @@
       <c r="D780" s="39"/>
       <c r="E780" s="9"/>
       <c r="F780" s="20"/>
-      <c r="G780" s="13"/>
+      <c r="G780" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H780" s="39"/>
       <c r="I780" s="9"/>
       <c r="J780" s="11"/>
@@ -19528,7 +20359,10 @@
       <c r="D781" s="39"/>
       <c r="E781" s="9"/>
       <c r="F781" s="20"/>
-      <c r="G781" s="13"/>
+      <c r="G781" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H781" s="39"/>
       <c r="I781" s="9"/>
       <c r="J781" s="11"/>
@@ -19541,7 +20375,10 @@
       <c r="D782" s="39"/>
       <c r="E782" s="9"/>
       <c r="F782" s="20"/>
-      <c r="G782" s="13"/>
+      <c r="G782" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H782" s="39"/>
       <c r="I782" s="9"/>
       <c r="J782" s="11"/>
@@ -19554,7 +20391,10 @@
       <c r="D783" s="39"/>
       <c r="E783" s="9"/>
       <c r="F783" s="20"/>
-      <c r="G783" s="13"/>
+      <c r="G783" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H783" s="39"/>
       <c r="I783" s="9"/>
       <c r="J783" s="11"/>
@@ -19567,7 +20407,10 @@
       <c r="D784" s="39"/>
       <c r="E784" s="9"/>
       <c r="F784" s="20"/>
-      <c r="G784" s="13"/>
+      <c r="G784" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H784" s="39"/>
       <c r="I784" s="9"/>
       <c r="J784" s="11"/>
@@ -19580,7 +20423,10 @@
       <c r="D785" s="39"/>
       <c r="E785" s="9"/>
       <c r="F785" s="20"/>
-      <c r="G785" s="13"/>
+      <c r="G785" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H785" s="39"/>
       <c r="I785" s="9"/>
       <c r="J785" s="11"/>
@@ -19593,7 +20439,10 @@
       <c r="D786" s="39"/>
       <c r="E786" s="9"/>
       <c r="F786" s="20"/>
-      <c r="G786" s="13"/>
+      <c r="G786" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H786" s="39"/>
       <c r="I786" s="9"/>
       <c r="J786" s="11"/>
@@ -19606,7 +20455,10 @@
       <c r="D787" s="39"/>
       <c r="E787" s="9"/>
       <c r="F787" s="20"/>
-      <c r="G787" s="13"/>
+      <c r="G787" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H787" s="39"/>
       <c r="I787" s="9"/>
       <c r="J787" s="11"/>
@@ -19619,7 +20471,10 @@
       <c r="D788" s="39"/>
       <c r="E788" s="9"/>
       <c r="F788" s="20"/>
-      <c r="G788" s="13"/>
+      <c r="G788" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H788" s="39"/>
       <c r="I788" s="9"/>
       <c r="J788" s="11"/>
@@ -19632,7 +20487,10 @@
       <c r="D789" s="39"/>
       <c r="E789" s="9"/>
       <c r="F789" s="20"/>
-      <c r="G789" s="13"/>
+      <c r="G789" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H789" s="39"/>
       <c r="I789" s="9"/>
       <c r="J789" s="11"/>
@@ -19645,7 +20503,10 @@
       <c r="D790" s="39"/>
       <c r="E790" s="9"/>
       <c r="F790" s="20"/>
-      <c r="G790" s="13"/>
+      <c r="G790" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H790" s="39"/>
       <c r="I790" s="9"/>
       <c r="J790" s="11"/>
@@ -19658,7 +20519,10 @@
       <c r="D791" s="39"/>
       <c r="E791" s="9"/>
       <c r="F791" s="20"/>
-      <c r="G791" s="13"/>
+      <c r="G791" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H791" s="39"/>
       <c r="I791" s="9"/>
       <c r="J791" s="11"/>
@@ -19671,7 +20535,10 @@
       <c r="D792" s="39"/>
       <c r="E792" s="9"/>
       <c r="F792" s="20"/>
-      <c r="G792" s="13"/>
+      <c r="G792" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H792" s="39"/>
       <c r="I792" s="9"/>
       <c r="J792" s="11"/>
@@ -19684,7 +20551,10 @@
       <c r="D793" s="39"/>
       <c r="E793" s="9"/>
       <c r="F793" s="20"/>
-      <c r="G793" s="13"/>
+      <c r="G793" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H793" s="39"/>
       <c r="I793" s="9"/>
       <c r="J793" s="11"/>
@@ -19697,7 +20567,10 @@
       <c r="D794" s="39"/>
       <c r="E794" s="9"/>
       <c r="F794" s="20"/>
-      <c r="G794" s="13"/>
+      <c r="G794" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H794" s="39"/>
       <c r="I794" s="9"/>
       <c r="J794" s="11"/>
@@ -19710,7 +20583,10 @@
       <c r="D795" s="39"/>
       <c r="E795" s="9"/>
       <c r="F795" s="20"/>
-      <c r="G795" s="13"/>
+      <c r="G795" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H795" s="39"/>
       <c r="I795" s="9"/>
       <c r="J795" s="11"/>
@@ -19723,7 +20599,10 @@
       <c r="D796" s="39"/>
       <c r="E796" s="9"/>
       <c r="F796" s="20"/>
-      <c r="G796" s="13"/>
+      <c r="G796" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H796" s="39"/>
       <c r="I796" s="9"/>
       <c r="J796" s="11"/>
@@ -19736,7 +20615,10 @@
       <c r="D797" s="39"/>
       <c r="E797" s="9"/>
       <c r="F797" s="20"/>
-      <c r="G797" s="13"/>
+      <c r="G797" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H797" s="39"/>
       <c r="I797" s="9"/>
       <c r="J797" s="11"/>
@@ -19749,7 +20631,10 @@
       <c r="D798" s="39"/>
       <c r="E798" s="9"/>
       <c r="F798" s="20"/>
-      <c r="G798" s="13"/>
+      <c r="G798" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H798" s="39"/>
       <c r="I798" s="9"/>
       <c r="J798" s="11"/>
@@ -19762,7 +20647,10 @@
       <c r="D799" s="39"/>
       <c r="E799" s="9"/>
       <c r="F799" s="20"/>
-      <c r="G799" s="13"/>
+      <c r="G799" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H799" s="39"/>
       <c r="I799" s="9"/>
       <c r="J799" s="11"/>
@@ -19775,7 +20663,10 @@
       <c r="D800" s="39"/>
       <c r="E800" s="9"/>
       <c r="F800" s="20"/>
-      <c r="G800" s="13"/>
+      <c r="G800" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H800" s="39"/>
       <c r="I800" s="9"/>
       <c r="J800" s="11"/>
@@ -19788,7 +20679,10 @@
       <c r="D801" s="39"/>
       <c r="E801" s="9"/>
       <c r="F801" s="20"/>
-      <c r="G801" s="13"/>
+      <c r="G801" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H801" s="39"/>
       <c r="I801" s="9"/>
       <c r="J801" s="11"/>
@@ -19801,7 +20695,10 @@
       <c r="D802" s="39"/>
       <c r="E802" s="9"/>
       <c r="F802" s="20"/>
-      <c r="G802" s="13"/>
+      <c r="G802" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H802" s="39"/>
       <c r="I802" s="9"/>
       <c r="J802" s="11"/>
@@ -19814,7 +20711,10 @@
       <c r="D803" s="39"/>
       <c r="E803" s="9"/>
       <c r="F803" s="20"/>
-      <c r="G803" s="13"/>
+      <c r="G803" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H803" s="39"/>
       <c r="I803" s="9"/>
       <c r="J803" s="11"/>
@@ -19827,7 +20727,10 @@
       <c r="D804" s="39"/>
       <c r="E804" s="9"/>
       <c r="F804" s="20"/>
-      <c r="G804" s="13"/>
+      <c r="G804" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H804" s="39"/>
       <c r="I804" s="9"/>
       <c r="J804" s="11"/>
@@ -19840,7 +20743,10 @@
       <c r="D805" s="39"/>
       <c r="E805" s="9"/>
       <c r="F805" s="20"/>
-      <c r="G805" s="13"/>
+      <c r="G805" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H805" s="39"/>
       <c r="I805" s="9"/>
       <c r="J805" s="11"/>
@@ -19853,7 +20759,10 @@
       <c r="D806" s="39"/>
       <c r="E806" s="9"/>
       <c r="F806" s="20"/>
-      <c r="G806" s="13"/>
+      <c r="G806" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H806" s="39"/>
       <c r="I806" s="9"/>
       <c r="J806" s="11"/>
@@ -19866,7 +20775,10 @@
       <c r="D807" s="39"/>
       <c r="E807" s="9"/>
       <c r="F807" s="20"/>
-      <c r="G807" s="13"/>
+      <c r="G807" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H807" s="39"/>
       <c r="I807" s="9"/>
       <c r="J807" s="11"/>
@@ -19879,7 +20791,10 @@
       <c r="D808" s="39"/>
       <c r="E808" s="9"/>
       <c r="F808" s="20"/>
-      <c r="G808" s="13"/>
+      <c r="G808" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H808" s="39"/>
       <c r="I808" s="9"/>
       <c r="J808" s="11"/>
@@ -19892,7 +20807,10 @@
       <c r="D809" s="39"/>
       <c r="E809" s="9"/>
       <c r="F809" s="20"/>
-      <c r="G809" s="13"/>
+      <c r="G809" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H809" s="39"/>
       <c r="I809" s="9"/>
       <c r="J809" s="11"/>
@@ -19905,7 +20823,10 @@
       <c r="D810" s="39"/>
       <c r="E810" s="9"/>
       <c r="F810" s="20"/>
-      <c r="G810" s="13"/>
+      <c r="G810" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H810" s="39"/>
       <c r="I810" s="9"/>
       <c r="J810" s="11"/>
@@ -19918,7 +20839,10 @@
       <c r="D811" s="39"/>
       <c r="E811" s="9"/>
       <c r="F811" s="20"/>
-      <c r="G811" s="13"/>
+      <c r="G811" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H811" s="39"/>
       <c r="I811" s="9"/>
       <c r="J811" s="11"/>
@@ -19931,7 +20855,10 @@
       <c r="D812" s="39"/>
       <c r="E812" s="9"/>
       <c r="F812" s="20"/>
-      <c r="G812" s="13"/>
+      <c r="G812" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H812" s="39"/>
       <c r="I812" s="9"/>
       <c r="J812" s="11"/>
@@ -19944,7 +20871,10 @@
       <c r="D813" s="39"/>
       <c r="E813" s="9"/>
       <c r="F813" s="20"/>
-      <c r="G813" s="13"/>
+      <c r="G813" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H813" s="39"/>
       <c r="I813" s="9"/>
       <c r="J813" s="11"/>
@@ -19957,7 +20887,10 @@
       <c r="D814" s="39"/>
       <c r="E814" s="9"/>
       <c r="F814" s="20"/>
-      <c r="G814" s="13"/>
+      <c r="G814" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H814" s="39"/>
       <c r="I814" s="9"/>
       <c r="J814" s="11"/>
@@ -19970,7 +20903,10 @@
       <c r="D815" s="39"/>
       <c r="E815" s="9"/>
       <c r="F815" s="20"/>
-      <c r="G815" s="13"/>
+      <c r="G815" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H815" s="39"/>
       <c r="I815" s="9"/>
       <c r="J815" s="11"/>
@@ -19983,7 +20919,10 @@
       <c r="D816" s="39"/>
       <c r="E816" s="9"/>
       <c r="F816" s="20"/>
-      <c r="G816" s="13"/>
+      <c r="G816" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H816" s="39"/>
       <c r="I816" s="9"/>
       <c r="J816" s="11"/>
@@ -19996,7 +20935,10 @@
       <c r="D817" s="39"/>
       <c r="E817" s="9"/>
       <c r="F817" s="20"/>
-      <c r="G817" s="13"/>
+      <c r="G817" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H817" s="39"/>
       <c r="I817" s="9"/>
       <c r="J817" s="11"/>
@@ -20009,7 +20951,10 @@
       <c r="D818" s="39"/>
       <c r="E818" s="9"/>
       <c r="F818" s="20"/>
-      <c r="G818" s="13"/>
+      <c r="G818" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H818" s="39"/>
       <c r="I818" s="9"/>
       <c r="J818" s="11"/>
@@ -20022,7 +20967,10 @@
       <c r="D819" s="39"/>
       <c r="E819" s="9"/>
       <c r="F819" s="20"/>
-      <c r="G819" s="13"/>
+      <c r="G819" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H819" s="39"/>
       <c r="I819" s="9"/>
       <c r="J819" s="11"/>
@@ -20035,7 +20983,10 @@
       <c r="D820" s="39"/>
       <c r="E820" s="9"/>
       <c r="F820" s="20"/>
-      <c r="G820" s="13"/>
+      <c r="G820" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H820" s="39"/>
       <c r="I820" s="9"/>
       <c r="J820" s="11"/>
@@ -20048,7 +20999,10 @@
       <c r="D821" s="39"/>
       <c r="E821" s="9"/>
       <c r="F821" s="20"/>
-      <c r="G821" s="13"/>
+      <c r="G821" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H821" s="39"/>
       <c r="I821" s="9"/>
       <c r="J821" s="11"/>
@@ -20061,7 +21015,10 @@
       <c r="D822" s="39"/>
       <c r="E822" s="9"/>
       <c r="F822" s="20"/>
-      <c r="G822" s="13"/>
+      <c r="G822" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H822" s="39"/>
       <c r="I822" s="9"/>
       <c r="J822" s="11"/>
@@ -20074,7 +21031,10 @@
       <c r="D823" s="39"/>
       <c r="E823" s="9"/>
       <c r="F823" s="20"/>
-      <c r="G823" s="13"/>
+      <c r="G823" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H823" s="39"/>
       <c r="I823" s="9"/>
       <c r="J823" s="11"/>
@@ -20087,7 +21047,10 @@
       <c r="D824" s="39"/>
       <c r="E824" s="9"/>
       <c r="F824" s="20"/>
-      <c r="G824" s="13"/>
+      <c r="G824" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H824" s="39"/>
       <c r="I824" s="9"/>
       <c r="J824" s="11"/>
@@ -20100,7 +21063,10 @@
       <c r="D825" s="39"/>
       <c r="E825" s="9"/>
       <c r="F825" s="20"/>
-      <c r="G825" s="13"/>
+      <c r="G825" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H825" s="39"/>
       <c r="I825" s="9"/>
       <c r="J825" s="11"/>
@@ -20113,7 +21079,10 @@
       <c r="D826" s="39"/>
       <c r="E826" s="9"/>
       <c r="F826" s="20"/>
-      <c r="G826" s="13"/>
+      <c r="G826" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H826" s="39"/>
       <c r="I826" s="9"/>
       <c r="J826" s="11"/>
@@ -20126,7 +21095,10 @@
       <c r="D827" s="39"/>
       <c r="E827" s="9"/>
       <c r="F827" s="20"/>
-      <c r="G827" s="13"/>
+      <c r="G827" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H827" s="39"/>
       <c r="I827" s="9"/>
       <c r="J827" s="11"/>
@@ -20139,7 +21111,10 @@
       <c r="D828" s="39"/>
       <c r="E828" s="9"/>
       <c r="F828" s="20"/>
-      <c r="G828" s="13"/>
+      <c r="G828" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H828" s="39"/>
       <c r="I828" s="9"/>
       <c r="J828" s="11"/>
@@ -20152,7 +21127,10 @@
       <c r="D829" s="39"/>
       <c r="E829" s="9"/>
       <c r="F829" s="20"/>
-      <c r="G829" s="13"/>
+      <c r="G829" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H829" s="39"/>
       <c r="I829" s="9"/>
       <c r="J829" s="11"/>
@@ -20165,7 +21143,10 @@
       <c r="D830" s="39"/>
       <c r="E830" s="9"/>
       <c r="F830" s="20"/>
-      <c r="G830" s="13"/>
+      <c r="G830" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H830" s="39"/>
       <c r="I830" s="9"/>
       <c r="J830" s="11"/>
@@ -20178,7 +21159,10 @@
       <c r="D831" s="39"/>
       <c r="E831" s="9"/>
       <c r="F831" s="20"/>
-      <c r="G831" s="13"/>
+      <c r="G831" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H831" s="39"/>
       <c r="I831" s="9"/>
       <c r="J831" s="11"/>
@@ -20191,7 +21175,10 @@
       <c r="D832" s="39"/>
       <c r="E832" s="9"/>
       <c r="F832" s="20"/>
-      <c r="G832" s="13"/>
+      <c r="G832" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H832" s="39"/>
       <c r="I832" s="9"/>
       <c r="J832" s="11"/>
@@ -20204,7 +21191,10 @@
       <c r="D833" s="39"/>
       <c r="E833" s="9"/>
       <c r="F833" s="20"/>
-      <c r="G833" s="13"/>
+      <c r="G833" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H833" s="39"/>
       <c r="I833" s="9"/>
       <c r="J833" s="11"/>
@@ -20217,7 +21207,10 @@
       <c r="D834" s="39"/>
       <c r="E834" s="9"/>
       <c r="F834" s="20"/>
-      <c r="G834" s="13"/>
+      <c r="G834" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H834" s="39"/>
       <c r="I834" s="9"/>
       <c r="J834" s="11"/>
@@ -20230,7 +21223,10 @@
       <c r="D835" s="39"/>
       <c r="E835" s="9"/>
       <c r="F835" s="20"/>
-      <c r="G835" s="13"/>
+      <c r="G835" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H835" s="39"/>
       <c r="I835" s="9"/>
       <c r="J835" s="11"/>
@@ -20243,7 +21239,10 @@
       <c r="D836" s="39"/>
       <c r="E836" s="9"/>
       <c r="F836" s="20"/>
-      <c r="G836" s="13"/>
+      <c r="G836" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H836" s="39"/>
       <c r="I836" s="9"/>
       <c r="J836" s="11"/>
@@ -20256,7 +21255,10 @@
       <c r="D837" s="39"/>
       <c r="E837" s="9"/>
       <c r="F837" s="20"/>
-      <c r="G837" s="13"/>
+      <c r="G837" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H837" s="39"/>
       <c r="I837" s="9"/>
       <c r="J837" s="11"/>
@@ -20269,7 +21271,10 @@
       <c r="D838" s="39"/>
       <c r="E838" s="9"/>
       <c r="F838" s="20"/>
-      <c r="G838" s="13"/>
+      <c r="G838" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H838" s="39"/>
       <c r="I838" s="9"/>
       <c r="J838" s="11"/>
@@ -20282,7 +21287,10 @@
       <c r="D839" s="39"/>
       <c r="E839" s="9"/>
       <c r="F839" s="20"/>
-      <c r="G839" s="13"/>
+      <c r="G839" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H839" s="39"/>
       <c r="I839" s="9"/>
       <c r="J839" s="11"/>
@@ -20295,7 +21303,10 @@
       <c r="D840" s="39"/>
       <c r="E840" s="9"/>
       <c r="F840" s="20"/>
-      <c r="G840" s="13"/>
+      <c r="G840" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H840" s="39"/>
       <c r="I840" s="9"/>
       <c r="J840" s="11"/>
@@ -20308,7 +21319,10 @@
       <c r="D841" s="39"/>
       <c r="E841" s="9"/>
       <c r="F841" s="20"/>
-      <c r="G841" s="13"/>
+      <c r="G841" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H841" s="39"/>
       <c r="I841" s="9"/>
       <c r="J841" s="11"/>
@@ -20321,7 +21335,10 @@
       <c r="D842" s="39"/>
       <c r="E842" s="9"/>
       <c r="F842" s="20"/>
-      <c r="G842" s="13"/>
+      <c r="G842" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H842" s="39"/>
       <c r="I842" s="9"/>
       <c r="J842" s="11"/>
@@ -20334,7 +21351,10 @@
       <c r="D843" s="39"/>
       <c r="E843" s="9"/>
       <c r="F843" s="20"/>
-      <c r="G843" s="13"/>
+      <c r="G843" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H843" s="39"/>
       <c r="I843" s="9"/>
       <c r="J843" s="11"/>
@@ -20347,7 +21367,10 @@
       <c r="D844" s="39"/>
       <c r="E844" s="9"/>
       <c r="F844" s="20"/>
-      <c r="G844" s="13"/>
+      <c r="G844" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H844" s="39"/>
       <c r="I844" s="9"/>
       <c r="J844" s="11"/>
@@ -20360,7 +21383,10 @@
       <c r="D845" s="39"/>
       <c r="E845" s="9"/>
       <c r="F845" s="20"/>
-      <c r="G845" s="13"/>
+      <c r="G845" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H845" s="39"/>
       <c r="I845" s="9"/>
       <c r="J845" s="11"/>
@@ -20373,7 +21399,10 @@
       <c r="D846" s="39"/>
       <c r="E846" s="9"/>
       <c r="F846" s="20"/>
-      <c r="G846" s="13"/>
+      <c r="G846" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H846" s="39"/>
       <c r="I846" s="9"/>
       <c r="J846" s="11"/>
@@ -20386,7 +21415,10 @@
       <c r="D847" s="39"/>
       <c r="E847" s="9"/>
       <c r="F847" s="20"/>
-      <c r="G847" s="13"/>
+      <c r="G847" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H847" s="39"/>
       <c r="I847" s="9"/>
       <c r="J847" s="11"/>
@@ -20399,7 +21431,10 @@
       <c r="D848" s="39"/>
       <c r="E848" s="9"/>
       <c r="F848" s="20"/>
-      <c r="G848" s="13"/>
+      <c r="G848" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H848" s="39"/>
       <c r="I848" s="9"/>
       <c r="J848" s="11"/>
@@ -20412,7 +21447,10 @@
       <c r="D849" s="39"/>
       <c r="E849" s="9"/>
       <c r="F849" s="20"/>
-      <c r="G849" s="13"/>
+      <c r="G849" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H849" s="39"/>
       <c r="I849" s="9"/>
       <c r="J849" s="11"/>
@@ -20425,7 +21463,10 @@
       <c r="D850" s="39"/>
       <c r="E850" s="9"/>
       <c r="F850" s="20"/>
-      <c r="G850" s="13"/>
+      <c r="G850" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H850" s="39"/>
       <c r="I850" s="9"/>
       <c r="J850" s="11"/>
@@ -20438,7 +21479,10 @@
       <c r="D851" s="39"/>
       <c r="E851" s="9"/>
       <c r="F851" s="20"/>
-      <c r="G851" s="13"/>
+      <c r="G851" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H851" s="39"/>
       <c r="I851" s="9"/>
       <c r="J851" s="11"/>
@@ -20451,7 +21495,10 @@
       <c r="D852" s="39"/>
       <c r="E852" s="9"/>
       <c r="F852" s="20"/>
-      <c r="G852" s="13"/>
+      <c r="G852" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H852" s="39"/>
       <c r="I852" s="9"/>
       <c r="J852" s="11"/>
@@ -20464,7 +21511,10 @@
       <c r="D853" s="39"/>
       <c r="E853" s="9"/>
       <c r="F853" s="20"/>
-      <c r="G853" s="13"/>
+      <c r="G853" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H853" s="39"/>
       <c r="I853" s="9"/>
       <c r="J853" s="11"/>
@@ -20477,7 +21527,10 @@
       <c r="D854" s="39"/>
       <c r="E854" s="9"/>
       <c r="F854" s="20"/>
-      <c r="G854" s="13"/>
+      <c r="G854" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H854" s="39"/>
       <c r="I854" s="9"/>
       <c r="J854" s="11"/>
@@ -20490,7 +21543,10 @@
       <c r="D855" s="39"/>
       <c r="E855" s="9"/>
       <c r="F855" s="20"/>
-      <c r="G855" s="13"/>
+      <c r="G855" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H855" s="39"/>
       <c r="I855" s="9"/>
       <c r="J855" s="11"/>
@@ -20503,7 +21559,10 @@
       <c r="D856" s="39"/>
       <c r="E856" s="9"/>
       <c r="F856" s="20"/>
-      <c r="G856" s="13"/>
+      <c r="G856" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H856" s="39"/>
       <c r="I856" s="9"/>
       <c r="J856" s="11"/>
@@ -20516,7 +21575,10 @@
       <c r="D857" s="39"/>
       <c r="E857" s="9"/>
       <c r="F857" s="20"/>
-      <c r="G857" s="13"/>
+      <c r="G857" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H857" s="39"/>
       <c r="I857" s="9"/>
       <c r="J857" s="11"/>
@@ -20529,7 +21591,10 @@
       <c r="D858" s="39"/>
       <c r="E858" s="9"/>
       <c r="F858" s="20"/>
-      <c r="G858" s="13"/>
+      <c r="G858" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H858" s="39"/>
       <c r="I858" s="9"/>
       <c r="J858" s="11"/>
@@ -20542,7 +21607,10 @@
       <c r="D859" s="39"/>
       <c r="E859" s="9"/>
       <c r="F859" s="20"/>
-      <c r="G859" s="13"/>
+      <c r="G859" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H859" s="39"/>
       <c r="I859" s="9"/>
       <c r="J859" s="11"/>
@@ -20555,7 +21623,10 @@
       <c r="D860" s="39"/>
       <c r="E860" s="9"/>
       <c r="F860" s="20"/>
-      <c r="G860" s="13"/>
+      <c r="G860" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H860" s="39"/>
       <c r="I860" s="9"/>
       <c r="J860" s="11"/>
@@ -20568,7 +21639,10 @@
       <c r="D861" s="39"/>
       <c r="E861" s="9"/>
       <c r="F861" s="20"/>
-      <c r="G861" s="13"/>
+      <c r="G861" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H861" s="39"/>
       <c r="I861" s="9"/>
       <c r="J861" s="11"/>
@@ -20581,7 +21655,10 @@
       <c r="D862" s="39"/>
       <c r="E862" s="9"/>
       <c r="F862" s="20"/>
-      <c r="G862" s="13"/>
+      <c r="G862" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H862" s="39"/>
       <c r="I862" s="9"/>
       <c r="J862" s="11"/>
@@ -20594,7 +21671,10 @@
       <c r="D863" s="39"/>
       <c r="E863" s="9"/>
       <c r="F863" s="20"/>
-      <c r="G863" s="13"/>
+      <c r="G863" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H863" s="39"/>
       <c r="I863" s="9"/>
       <c r="J863" s="11"/>
@@ -20607,7 +21687,10 @@
       <c r="D864" s="39"/>
       <c r="E864" s="9"/>
       <c r="F864" s="20"/>
-      <c r="G864" s="13"/>
+      <c r="G864" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H864" s="39"/>
       <c r="I864" s="9"/>
       <c r="J864" s="11"/>
@@ -20620,7 +21703,10 @@
       <c r="D865" s="39"/>
       <c r="E865" s="9"/>
       <c r="F865" s="20"/>
-      <c r="G865" s="13"/>
+      <c r="G865" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H865" s="39"/>
       <c r="I865" s="9"/>
       <c r="J865" s="11"/>
@@ -20633,7 +21719,10 @@
       <c r="D866" s="39"/>
       <c r="E866" s="9"/>
       <c r="F866" s="20"/>
-      <c r="G866" s="13"/>
+      <c r="G866" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H866" s="39"/>
       <c r="I866" s="9"/>
       <c r="J866" s="11"/>
@@ -20646,7 +21735,10 @@
       <c r="D867" s="39"/>
       <c r="E867" s="9"/>
       <c r="F867" s="20"/>
-      <c r="G867" s="13"/>
+      <c r="G867" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H867" s="39"/>
       <c r="I867" s="9"/>
       <c r="J867" s="11"/>
@@ -20659,7 +21751,10 @@
       <c r="D868" s="39"/>
       <c r="E868" s="9"/>
       <c r="F868" s="20"/>
-      <c r="G868" s="13"/>
+      <c r="G868" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H868" s="39"/>
       <c r="I868" s="9"/>
       <c r="J868" s="11"/>
@@ -20672,7 +21767,10 @@
       <c r="D869" s="39"/>
       <c r="E869" s="9"/>
       <c r="F869" s="20"/>
-      <c r="G869" s="13"/>
+      <c r="G869" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H869" s="39"/>
       <c r="I869" s="9"/>
       <c r="J869" s="11"/>
@@ -20685,7 +21783,10 @@
       <c r="D870" s="39"/>
       <c r="E870" s="9"/>
       <c r="F870" s="20"/>
-      <c r="G870" s="13"/>
+      <c r="G870" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H870" s="39"/>
       <c r="I870" s="9"/>
       <c r="J870" s="11"/>
@@ -20698,7 +21799,10 @@
       <c r="D871" s="39"/>
       <c r="E871" s="9"/>
       <c r="F871" s="20"/>
-      <c r="G871" s="13"/>
+      <c r="G871" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H871" s="39"/>
       <c r="I871" s="9"/>
       <c r="J871" s="11"/>
@@ -20711,7 +21815,10 @@
       <c r="D872" s="39"/>
       <c r="E872" s="9"/>
       <c r="F872" s="20"/>
-      <c r="G872" s="13"/>
+      <c r="G872" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H872" s="39"/>
       <c r="I872" s="9"/>
       <c r="J872" s="11"/>
@@ -20724,7 +21831,10 @@
       <c r="D873" s="39"/>
       <c r="E873" s="9"/>
       <c r="F873" s="20"/>
-      <c r="G873" s="13"/>
+      <c r="G873" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H873" s="39"/>
       <c r="I873" s="9"/>
       <c r="J873" s="11"/>
@@ -20737,7 +21847,10 @@
       <c r="D874" s="39"/>
       <c r="E874" s="9"/>
       <c r="F874" s="20"/>
-      <c r="G874" s="13"/>
+      <c r="G874" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H874" s="39"/>
       <c r="I874" s="9"/>
       <c r="J874" s="11"/>
@@ -20750,7 +21863,10 @@
       <c r="D875" s="39"/>
       <c r="E875" s="9"/>
       <c r="F875" s="20"/>
-      <c r="G875" s="13"/>
+      <c r="G875" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H875" s="39"/>
       <c r="I875" s="9"/>
       <c r="J875" s="11"/>
@@ -20763,7 +21879,10 @@
       <c r="D876" s="39"/>
       <c r="E876" s="9"/>
       <c r="F876" s="20"/>
-      <c r="G876" s="13"/>
+      <c r="G876" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H876" s="39"/>
       <c r="I876" s="9"/>
       <c r="J876" s="11"/>
@@ -20776,7 +21895,10 @@
       <c r="D877" s="39"/>
       <c r="E877" s="9"/>
       <c r="F877" s="20"/>
-      <c r="G877" s="13"/>
+      <c r="G877" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H877" s="39"/>
       <c r="I877" s="9"/>
       <c r="J877" s="11"/>
@@ -20789,7 +21911,10 @@
       <c r="D878" s="39"/>
       <c r="E878" s="9"/>
       <c r="F878" s="20"/>
-      <c r="G878" s="13"/>
+      <c r="G878" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H878" s="39"/>
       <c r="I878" s="9"/>
       <c r="J878" s="11"/>
@@ -20802,7 +21927,10 @@
       <c r="D879" s="39"/>
       <c r="E879" s="9"/>
       <c r="F879" s="20"/>
-      <c r="G879" s="13"/>
+      <c r="G879" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H879" s="39"/>
       <c r="I879" s="9"/>
       <c r="J879" s="11"/>
@@ -20815,7 +21943,10 @@
       <c r="D880" s="39"/>
       <c r="E880" s="9"/>
       <c r="F880" s="20"/>
-      <c r="G880" s="13"/>
+      <c r="G880" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H880" s="39"/>
       <c r="I880" s="9"/>
       <c r="J880" s="11"/>
@@ -20828,7 +21959,10 @@
       <c r="D881" s="39"/>
       <c r="E881" s="9"/>
       <c r="F881" s="20"/>
-      <c r="G881" s="13"/>
+      <c r="G881" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H881" s="39"/>
       <c r="I881" s="9"/>
       <c r="J881" s="11"/>
@@ -20841,7 +21975,10 @@
       <c r="D882" s="39"/>
       <c r="E882" s="9"/>
       <c r="F882" s="20"/>
-      <c r="G882" s="13"/>
+      <c r="G882" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H882" s="39"/>
       <c r="I882" s="9"/>
       <c r="J882" s="11"/>
@@ -20854,7 +21991,10 @@
       <c r="D883" s="39"/>
       <c r="E883" s="9"/>
       <c r="F883" s="20"/>
-      <c r="G883" s="13"/>
+      <c r="G883" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H883" s="39"/>
       <c r="I883" s="9"/>
       <c r="J883" s="11"/>
@@ -20867,7 +22007,10 @@
       <c r="D884" s="39"/>
       <c r="E884" s="9"/>
       <c r="F884" s="20"/>
-      <c r="G884" s="13"/>
+      <c r="G884" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H884" s="39"/>
       <c r="I884" s="9"/>
       <c r="J884" s="11"/>
@@ -20880,7 +22023,10 @@
       <c r="D885" s="39"/>
       <c r="E885" s="9"/>
       <c r="F885" s="20"/>
-      <c r="G885" s="13"/>
+      <c r="G885" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H885" s="39"/>
       <c r="I885" s="9"/>
       <c r="J885" s="11"/>
@@ -20893,7 +22039,10 @@
       <c r="D886" s="39"/>
       <c r="E886" s="9"/>
       <c r="F886" s="20"/>
-      <c r="G886" s="13"/>
+      <c r="G886" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H886" s="39"/>
       <c r="I886" s="9"/>
       <c r="J886" s="11"/>
@@ -20906,7 +22055,10 @@
       <c r="D887" s="39"/>
       <c r="E887" s="9"/>
       <c r="F887" s="20"/>
-      <c r="G887" s="13"/>
+      <c r="G887" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H887" s="39"/>
       <c r="I887" s="9"/>
       <c r="J887" s="11"/>
@@ -20919,7 +22071,10 @@
       <c r="D888" s="39"/>
       <c r="E888" s="9"/>
       <c r="F888" s="20"/>
-      <c r="G888" s="13"/>
+      <c r="G888" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H888" s="39"/>
       <c r="I888" s="9"/>
       <c r="J888" s="11"/>
@@ -20932,7 +22087,10 @@
       <c r="D889" s="39"/>
       <c r="E889" s="9"/>
       <c r="F889" s="20"/>
-      <c r="G889" s="13"/>
+      <c r="G889" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H889" s="39"/>
       <c r="I889" s="9"/>
       <c r="J889" s="11"/>
@@ -20945,7 +22103,10 @@
       <c r="D890" s="39"/>
       <c r="E890" s="9"/>
       <c r="F890" s="20"/>
-      <c r="G890" s="13"/>
+      <c r="G890" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H890" s="39"/>
       <c r="I890" s="9"/>
       <c r="J890" s="11"/>
@@ -20958,7 +22119,10 @@
       <c r="D891" s="39"/>
       <c r="E891" s="9"/>
       <c r="F891" s="20"/>
-      <c r="G891" s="13"/>
+      <c r="G891" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H891" s="39"/>
       <c r="I891" s="9"/>
       <c r="J891" s="11"/>
@@ -20971,7 +22135,10 @@
       <c r="D892" s="39"/>
       <c r="E892" s="9"/>
       <c r="F892" s="20"/>
-      <c r="G892" s="13"/>
+      <c r="G892" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H892" s="39"/>
       <c r="I892" s="9"/>
       <c r="J892" s="11"/>
@@ -20984,7 +22151,10 @@
       <c r="D893" s="39"/>
       <c r="E893" s="9"/>
       <c r="F893" s="20"/>
-      <c r="G893" s="13"/>
+      <c r="G893" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H893" s="39"/>
       <c r="I893" s="9"/>
       <c r="J893" s="11"/>
@@ -20997,7 +22167,10 @@
       <c r="D894" s="39"/>
       <c r="E894" s="9"/>
       <c r="F894" s="20"/>
-      <c r="G894" s="13"/>
+      <c r="G894" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H894" s="39"/>
       <c r="I894" s="9"/>
       <c r="J894" s="11"/>
@@ -21010,7 +22183,10 @@
       <c r="D895" s="39"/>
       <c r="E895" s="9"/>
       <c r="F895" s="20"/>
-      <c r="G895" s="13"/>
+      <c r="G895" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H895" s="39"/>
       <c r="I895" s="9"/>
       <c r="J895" s="11"/>
@@ -21023,7 +22199,10 @@
       <c r="D896" s="39"/>
       <c r="E896" s="9"/>
       <c r="F896" s="20"/>
-      <c r="G896" s="13"/>
+      <c r="G896" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H896" s="39"/>
       <c r="I896" s="9"/>
       <c r="J896" s="11"/>
@@ -21036,7 +22215,10 @@
       <c r="D897" s="39"/>
       <c r="E897" s="9"/>
       <c r="F897" s="20"/>
-      <c r="G897" s="13"/>
+      <c r="G897" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H897" s="39"/>
       <c r="I897" s="9"/>
       <c r="J897" s="11"/>
@@ -21049,7 +22231,10 @@
       <c r="D898" s="39"/>
       <c r="E898" s="9"/>
       <c r="F898" s="20"/>
-      <c r="G898" s="13"/>
+      <c r="G898" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H898" s="39"/>
       <c r="I898" s="9"/>
       <c r="J898" s="11"/>
@@ -21062,7 +22247,10 @@
       <c r="D899" s="39"/>
       <c r="E899" s="9"/>
       <c r="F899" s="20"/>
-      <c r="G899" s="13"/>
+      <c r="G899" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H899" s="39"/>
       <c r="I899" s="9"/>
       <c r="J899" s="11"/>
@@ -21075,7 +22263,10 @@
       <c r="D900" s="39"/>
       <c r="E900" s="9"/>
       <c r="F900" s="20"/>
-      <c r="G900" s="13"/>
+      <c r="G900" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H900" s="39"/>
       <c r="I900" s="9"/>
       <c r="J900" s="11"/>
@@ -21088,7 +22279,10 @@
       <c r="D901" s="39"/>
       <c r="E901" s="9"/>
       <c r="F901" s="20"/>
-      <c r="G901" s="13"/>
+      <c r="G901" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H901" s="39"/>
       <c r="I901" s="9"/>
       <c r="J901" s="11"/>
@@ -21101,7 +22295,10 @@
       <c r="D902" s="39"/>
       <c r="E902" s="9"/>
       <c r="F902" s="20"/>
-      <c r="G902" s="13"/>
+      <c r="G902" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H902" s="39"/>
       <c r="I902" s="9"/>
       <c r="J902" s="11"/>
@@ -21114,7 +22311,10 @@
       <c r="D903" s="39"/>
       <c r="E903" s="9"/>
       <c r="F903" s="20"/>
-      <c r="G903" s="13"/>
+      <c r="G903" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H903" s="39"/>
       <c r="I903" s="9"/>
       <c r="J903" s="11"/>
@@ -21127,7 +22327,10 @@
       <c r="D904" s="39"/>
       <c r="E904" s="9"/>
       <c r="F904" s="20"/>
-      <c r="G904" s="13"/>
+      <c r="G904" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H904" s="39"/>
       <c r="I904" s="9"/>
       <c r="J904" s="11"/>
@@ -21140,7 +22343,10 @@
       <c r="D905" s="39"/>
       <c r="E905" s="9"/>
       <c r="F905" s="20"/>
-      <c r="G905" s="13"/>
+      <c r="G905" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H905" s="39"/>
       <c r="I905" s="9"/>
       <c r="J905" s="11"/>
@@ -21153,7 +22359,10 @@
       <c r="D906" s="39"/>
       <c r="E906" s="9"/>
       <c r="F906" s="20"/>
-      <c r="G906" s="13"/>
+      <c r="G906" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H906" s="39"/>
       <c r="I906" s="9"/>
       <c r="J906" s="11"/>
@@ -21166,7 +22375,10 @@
       <c r="D907" s="39"/>
       <c r="E907" s="9"/>
       <c r="F907" s="20"/>
-      <c r="G907" s="13"/>
+      <c r="G907" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H907" s="39"/>
       <c r="I907" s="9"/>
       <c r="J907" s="11"/>
@@ -21179,7 +22391,10 @@
       <c r="D908" s="39"/>
       <c r="E908" s="9"/>
       <c r="F908" s="20"/>
-      <c r="G908" s="13"/>
+      <c r="G908" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H908" s="39"/>
       <c r="I908" s="9"/>
       <c r="J908" s="11"/>
@@ -21192,7 +22407,10 @@
       <c r="D909" s="39"/>
       <c r="E909" s="9"/>
       <c r="F909" s="20"/>
-      <c r="G909" s="13"/>
+      <c r="G909" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H909" s="39"/>
       <c r="I909" s="9"/>
       <c r="J909" s="11"/>
@@ -21205,7 +22423,10 @@
       <c r="D910" s="39"/>
       <c r="E910" s="9"/>
       <c r="F910" s="20"/>
-      <c r="G910" s="13"/>
+      <c r="G910" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H910" s="39"/>
       <c r="I910" s="9"/>
       <c r="J910" s="11"/>
@@ -21218,7 +22439,10 @@
       <c r="D911" s="39"/>
       <c r="E911" s="9"/>
       <c r="F911" s="20"/>
-      <c r="G911" s="13"/>
+      <c r="G911" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H911" s="39"/>
       <c r="I911" s="9"/>
       <c r="J911" s="11"/>
@@ -21231,7 +22455,10 @@
       <c r="D912" s="39"/>
       <c r="E912" s="9"/>
       <c r="F912" s="20"/>
-      <c r="G912" s="13"/>
+      <c r="G912" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H912" s="39"/>
       <c r="I912" s="9"/>
       <c r="J912" s="11"/>
@@ -21244,7 +22471,10 @@
       <c r="D913" s="39"/>
       <c r="E913" s="9"/>
       <c r="F913" s="20"/>
-      <c r="G913" s="13"/>
+      <c r="G913" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H913" s="39"/>
       <c r="I913" s="9"/>
       <c r="J913" s="11"/>
@@ -21257,7 +22487,10 @@
       <c r="D914" s="39"/>
       <c r="E914" s="9"/>
       <c r="F914" s="20"/>
-      <c r="G914" s="13"/>
+      <c r="G914" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H914" s="39"/>
       <c r="I914" s="9"/>
       <c r="J914" s="11"/>
@@ -21270,7 +22503,10 @@
       <c r="D915" s="39"/>
       <c r="E915" s="9"/>
       <c r="F915" s="20"/>
-      <c r="G915" s="13"/>
+      <c r="G915" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H915" s="39"/>
       <c r="I915" s="9"/>
       <c r="J915" s="11"/>
@@ -21283,7 +22519,10 @@
       <c r="D916" s="39"/>
       <c r="E916" s="9"/>
       <c r="F916" s="20"/>
-      <c r="G916" s="13"/>
+      <c r="G916" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H916" s="39"/>
       <c r="I916" s="9"/>
       <c r="J916" s="11"/>
@@ -21296,7 +22535,10 @@
       <c r="D917" s="39"/>
       <c r="E917" s="9"/>
       <c r="F917" s="20"/>
-      <c r="G917" s="13"/>
+      <c r="G917" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H917" s="39"/>
       <c r="I917" s="9"/>
       <c r="J917" s="11"/>
@@ -21309,7 +22551,10 @@
       <c r="D918" s="39"/>
       <c r="E918" s="9"/>
       <c r="F918" s="20"/>
-      <c r="G918" s="13"/>
+      <c r="G918" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H918" s="39"/>
       <c r="I918" s="9"/>
       <c r="J918" s="11"/>
@@ -21322,7 +22567,10 @@
       <c r="D919" s="39"/>
       <c r="E919" s="9"/>
       <c r="F919" s="20"/>
-      <c r="G919" s="13"/>
+      <c r="G919" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H919" s="39"/>
       <c r="I919" s="9"/>
       <c r="J919" s="11"/>
@@ -21335,7 +22583,10 @@
       <c r="D920" s="39"/>
       <c r="E920" s="9"/>
       <c r="F920" s="20"/>
-      <c r="G920" s="13"/>
+      <c r="G920" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H920" s="39"/>
       <c r="I920" s="9"/>
       <c r="J920" s="11"/>
@@ -21348,7 +22599,10 @@
       <c r="D921" s="39"/>
       <c r="E921" s="9"/>
       <c r="F921" s="20"/>
-      <c r="G921" s="13"/>
+      <c r="G921" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H921" s="39"/>
       <c r="I921" s="9"/>
       <c r="J921" s="11"/>
@@ -21361,7 +22615,10 @@
       <c r="D922" s="39"/>
       <c r="E922" s="9"/>
       <c r="F922" s="20"/>
-      <c r="G922" s="13"/>
+      <c r="G922" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H922" s="39"/>
       <c r="I922" s="9"/>
       <c r="J922" s="11"/>
@@ -21374,7 +22631,10 @@
       <c r="D923" s="39"/>
       <c r="E923" s="9"/>
       <c r="F923" s="20"/>
-      <c r="G923" s="13"/>
+      <c r="G923" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H923" s="39"/>
       <c r="I923" s="9"/>
       <c r="J923" s="11"/>
@@ -21387,7 +22647,10 @@
       <c r="D924" s="39"/>
       <c r="E924" s="9"/>
       <c r="F924" s="20"/>
-      <c r="G924" s="13"/>
+      <c r="G924" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H924" s="39"/>
       <c r="I924" s="9"/>
       <c r="J924" s="11"/>
@@ -21400,7 +22663,10 @@
       <c r="D925" s="39"/>
       <c r="E925" s="9"/>
       <c r="F925" s="20"/>
-      <c r="G925" s="13"/>
+      <c r="G925" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H925" s="39"/>
       <c r="I925" s="9"/>
       <c r="J925" s="11"/>
@@ -21413,7 +22679,10 @@
       <c r="D926" s="39"/>
       <c r="E926" s="9"/>
       <c r="F926" s="20"/>
-      <c r="G926" s="13"/>
+      <c r="G926" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H926" s="39"/>
       <c r="I926" s="9"/>
       <c r="J926" s="11"/>
@@ -21426,7 +22695,10 @@
       <c r="D927" s="39"/>
       <c r="E927" s="9"/>
       <c r="F927" s="20"/>
-      <c r="G927" s="13"/>
+      <c r="G927" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H927" s="39"/>
       <c r="I927" s="9"/>
       <c r="J927" s="11"/>
@@ -21439,7 +22711,10 @@
       <c r="D928" s="39"/>
       <c r="E928" s="9"/>
       <c r="F928" s="20"/>
-      <c r="G928" s="13"/>
+      <c r="G928" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H928" s="39"/>
       <c r="I928" s="9"/>
       <c r="J928" s="11"/>
@@ -21452,7 +22727,10 @@
       <c r="D929" s="39"/>
       <c r="E929" s="9"/>
       <c r="F929" s="20"/>
-      <c r="G929" s="13"/>
+      <c r="G929" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H929" s="39"/>
       <c r="I929" s="9"/>
       <c r="J929" s="11"/>
@@ -21465,7 +22743,10 @@
       <c r="D930" s="39"/>
       <c r="E930" s="9"/>
       <c r="F930" s="20"/>
-      <c r="G930" s="13"/>
+      <c r="G930" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H930" s="39"/>
       <c r="I930" s="9"/>
       <c r="J930" s="11"/>
@@ -21478,7 +22759,10 @@
       <c r="D931" s="39"/>
       <c r="E931" s="9"/>
       <c r="F931" s="20"/>
-      <c r="G931" s="13"/>
+      <c r="G931" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H931" s="39"/>
       <c r="I931" s="9"/>
       <c r="J931" s="11"/>
@@ -21491,7 +22775,10 @@
       <c r="D932" s="39"/>
       <c r="E932" s="9"/>
       <c r="F932" s="20"/>
-      <c r="G932" s="13"/>
+      <c r="G932" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H932" s="39"/>
       <c r="I932" s="9"/>
       <c r="J932" s="11"/>
@@ -21504,7 +22791,10 @@
       <c r="D933" s="39"/>
       <c r="E933" s="9"/>
       <c r="F933" s="20"/>
-      <c r="G933" s="13"/>
+      <c r="G933" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H933" s="39"/>
       <c r="I933" s="9"/>
       <c r="J933" s="11"/>
@@ -21517,7 +22807,10 @@
       <c r="D934" s="39"/>
       <c r="E934" s="9"/>
       <c r="F934" s="20"/>
-      <c r="G934" s="13"/>
+      <c r="G934" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H934" s="39"/>
       <c r="I934" s="9"/>
       <c r="J934" s="11"/>
@@ -21530,7 +22823,10 @@
       <c r="D935" s="39"/>
       <c r="E935" s="9"/>
       <c r="F935" s="20"/>
-      <c r="G935" s="13"/>
+      <c r="G935" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H935" s="39"/>
       <c r="I935" s="9"/>
       <c r="J935" s="11"/>
@@ -21543,7 +22839,10 @@
       <c r="D936" s="39"/>
       <c r="E936" s="9"/>
       <c r="F936" s="20"/>
-      <c r="G936" s="13"/>
+      <c r="G936" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H936" s="39"/>
       <c r="I936" s="9"/>
       <c r="J936" s="11"/>
@@ -21556,7 +22855,10 @@
       <c r="D937" s="39"/>
       <c r="E937" s="9"/>
       <c r="F937" s="20"/>
-      <c r="G937" s="13"/>
+      <c r="G937" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H937" s="39"/>
       <c r="I937" s="9"/>
       <c r="J937" s="11"/>
@@ -21569,7 +22871,10 @@
       <c r="D938" s="39"/>
       <c r="E938" s="9"/>
       <c r="F938" s="20"/>
-      <c r="G938" s="13"/>
+      <c r="G938" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H938" s="39"/>
       <c r="I938" s="9"/>
       <c r="J938" s="11"/>
@@ -21582,7 +22887,10 @@
       <c r="D939" s="39"/>
       <c r="E939" s="9"/>
       <c r="F939" s="20"/>
-      <c r="G939" s="13"/>
+      <c r="G939" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H939" s="39"/>
       <c r="I939" s="9"/>
       <c r="J939" s="11"/>
@@ -21595,7 +22903,10 @@
       <c r="D940" s="39"/>
       <c r="E940" s="9"/>
       <c r="F940" s="20"/>
-      <c r="G940" s="13"/>
+      <c r="G940" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H940" s="39"/>
       <c r="I940" s="9"/>
       <c r="J940" s="11"/>
@@ -21608,7 +22919,10 @@
       <c r="D941" s="39"/>
       <c r="E941" s="9"/>
       <c r="F941" s="20"/>
-      <c r="G941" s="13"/>
+      <c r="G941" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H941" s="39"/>
       <c r="I941" s="9"/>
       <c r="J941" s="11"/>
@@ -21621,7 +22935,10 @@
       <c r="D942" s="39"/>
       <c r="E942" s="9"/>
       <c r="F942" s="20"/>
-      <c r="G942" s="13"/>
+      <c r="G942" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H942" s="39"/>
       <c r="I942" s="9"/>
       <c r="J942" s="11"/>
@@ -21634,7 +22951,10 @@
       <c r="D943" s="39"/>
       <c r="E943" s="9"/>
       <c r="F943" s="20"/>
-      <c r="G943" s="13"/>
+      <c r="G943" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H943" s="39"/>
       <c r="I943" s="9"/>
       <c r="J943" s="11"/>
@@ -21647,7 +22967,10 @@
       <c r="D944" s="39"/>
       <c r="E944" s="9"/>
       <c r="F944" s="20"/>
-      <c r="G944" s="13"/>
+      <c r="G944" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H944" s="39"/>
       <c r="I944" s="9"/>
       <c r="J944" s="11"/>
@@ -21660,7 +22983,10 @@
       <c r="D945" s="39"/>
       <c r="E945" s="9"/>
       <c r="F945" s="20"/>
-      <c r="G945" s="13"/>
+      <c r="G945" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H945" s="39"/>
       <c r="I945" s="9"/>
       <c r="J945" s="11"/>
@@ -21673,7 +22999,10 @@
       <c r="D946" s="39"/>
       <c r="E946" s="9"/>
       <c r="F946" s="20"/>
-      <c r="G946" s="13"/>
+      <c r="G946" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H946" s="39"/>
       <c r="I946" s="9"/>
       <c r="J946" s="11"/>
@@ -21686,7 +23015,10 @@
       <c r="D947" s="39"/>
       <c r="E947" s="9"/>
       <c r="F947" s="20"/>
-      <c r="G947" s="13"/>
+      <c r="G947" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H947" s="39"/>
       <c r="I947" s="9"/>
       <c r="J947" s="11"/>
@@ -21699,7 +23031,10 @@
       <c r="D948" s="39"/>
       <c r="E948" s="9"/>
       <c r="F948" s="20"/>
-      <c r="G948" s="13"/>
+      <c r="G948" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H948" s="39"/>
       <c r="I948" s="9"/>
       <c r="J948" s="11"/>
@@ -21712,7 +23047,10 @@
       <c r="D949" s="39"/>
       <c r="E949" s="9"/>
       <c r="F949" s="20"/>
-      <c r="G949" s="13"/>
+      <c r="G949" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H949" s="39"/>
       <c r="I949" s="9"/>
       <c r="J949" s="11"/>
@@ -21725,7 +23063,10 @@
       <c r="D950" s="39"/>
       <c r="E950" s="9"/>
       <c r="F950" s="20"/>
-      <c r="G950" s="13"/>
+      <c r="G950" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H950" s="39"/>
       <c r="I950" s="9"/>
       <c r="J950" s="11"/>
@@ -21738,7 +23079,10 @@
       <c r="D951" s="39"/>
       <c r="E951" s="9"/>
       <c r="F951" s="20"/>
-      <c r="G951" s="13"/>
+      <c r="G951" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H951" s="39"/>
       <c r="I951" s="9"/>
       <c r="J951" s="11"/>
@@ -21751,7 +23095,10 @@
       <c r="D952" s="39"/>
       <c r="E952" s="9"/>
       <c r="F952" s="20"/>
-      <c r="G952" s="13"/>
+      <c r="G952" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H952" s="39"/>
       <c r="I952" s="9"/>
       <c r="J952" s="11"/>
@@ -21764,7 +23111,10 @@
       <c r="D953" s="39"/>
       <c r="E953" s="9"/>
       <c r="F953" s="20"/>
-      <c r="G953" s="13"/>
+      <c r="G953" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H953" s="39"/>
       <c r="I953" s="9"/>
       <c r="J953" s="11"/>
@@ -21777,7 +23127,10 @@
       <c r="D954" s="39"/>
       <c r="E954" s="9"/>
       <c r="F954" s="20"/>
-      <c r="G954" s="13"/>
+      <c r="G954" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H954" s="39"/>
       <c r="I954" s="9"/>
       <c r="J954" s="11"/>
@@ -21790,7 +23143,10 @@
       <c r="D955" s="39"/>
       <c r="E955" s="9"/>
       <c r="F955" s="20"/>
-      <c r="G955" s="13"/>
+      <c r="G955" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H955" s="39"/>
       <c r="I955" s="9"/>
       <c r="J955" s="11"/>
@@ -21803,7 +23159,10 @@
       <c r="D956" s="39"/>
       <c r="E956" s="9"/>
       <c r="F956" s="20"/>
-      <c r="G956" s="13"/>
+      <c r="G956" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H956" s="39"/>
       <c r="I956" s="9"/>
       <c r="J956" s="11"/>
@@ -21816,7 +23175,10 @@
       <c r="D957" s="39"/>
       <c r="E957" s="9"/>
       <c r="F957" s="20"/>
-      <c r="G957" s="13"/>
+      <c r="G957" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H957" s="39"/>
       <c r="I957" s="9"/>
       <c r="J957" s="11"/>
@@ -21829,7 +23191,10 @@
       <c r="D958" s="39"/>
       <c r="E958" s="9"/>
       <c r="F958" s="20"/>
-      <c r="G958" s="13"/>
+      <c r="G958" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H958" s="39"/>
       <c r="I958" s="9"/>
       <c r="J958" s="11"/>
@@ -21842,7 +23207,10 @@
       <c r="D959" s="39"/>
       <c r="E959" s="9"/>
       <c r="F959" s="20"/>
-      <c r="G959" s="13"/>
+      <c r="G959" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H959" s="39"/>
       <c r="I959" s="9"/>
       <c r="J959" s="11"/>
@@ -21855,7 +23223,10 @@
       <c r="D960" s="39"/>
       <c r="E960" s="9"/>
       <c r="F960" s="20"/>
-      <c r="G960" s="13"/>
+      <c r="G960" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H960" s="39"/>
       <c r="I960" s="9"/>
       <c r="J960" s="11"/>
@@ -21868,7 +23239,10 @@
       <c r="D961" s="39"/>
       <c r="E961" s="9"/>
       <c r="F961" s="20"/>
-      <c r="G961" s="13"/>
+      <c r="G961" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H961" s="39"/>
       <c r="I961" s="9"/>
       <c r="J961" s="11"/>
@@ -21881,7 +23255,10 @@
       <c r="D962" s="39"/>
       <c r="E962" s="9"/>
       <c r="F962" s="20"/>
-      <c r="G962" s="13"/>
+      <c r="G962" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H962" s="39"/>
       <c r="I962" s="9"/>
       <c r="J962" s="11"/>
@@ -21894,7 +23271,10 @@
       <c r="D963" s="39"/>
       <c r="E963" s="9"/>
       <c r="F963" s="20"/>
-      <c r="G963" s="13"/>
+      <c r="G963" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H963" s="39"/>
       <c r="I963" s="9"/>
       <c r="J963" s="11"/>
@@ -21907,7 +23287,10 @@
       <c r="D964" s="39"/>
       <c r="E964" s="9"/>
       <c r="F964" s="20"/>
-      <c r="G964" s="13"/>
+      <c r="G964" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H964" s="39"/>
       <c r="I964" s="9"/>
       <c r="J964" s="11"/>
@@ -21920,7 +23303,10 @@
       <c r="D965" s="39"/>
       <c r="E965" s="9"/>
       <c r="F965" s="20"/>
-      <c r="G965" s="13"/>
+      <c r="G965" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H965" s="39"/>
       <c r="I965" s="9"/>
       <c r="J965" s="11"/>
@@ -21933,7 +23319,10 @@
       <c r="D966" s="39"/>
       <c r="E966" s="9"/>
       <c r="F966" s="20"/>
-      <c r="G966" s="13"/>
+      <c r="G966" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H966" s="39"/>
       <c r="I966" s="9"/>
       <c r="J966" s="11"/>
@@ -21946,7 +23335,10 @@
       <c r="D967" s="39"/>
       <c r="E967" s="9"/>
       <c r="F967" s="20"/>
-      <c r="G967" s="13"/>
+      <c r="G967" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H967" s="39"/>
       <c r="I967" s="9"/>
       <c r="J967" s="11"/>
@@ -21959,7 +23351,10 @@
       <c r="D968" s="39"/>
       <c r="E968" s="9"/>
       <c r="F968" s="20"/>
-      <c r="G968" s="13"/>
+      <c r="G968" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H968" s="39"/>
       <c r="I968" s="9"/>
       <c r="J968" s="11"/>
@@ -21972,7 +23367,10 @@
       <c r="D969" s="39"/>
       <c r="E969" s="9"/>
       <c r="F969" s="20"/>
-      <c r="G969" s="13"/>
+      <c r="G969" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H969" s="39"/>
       <c r="I969" s="9"/>
       <c r="J969" s="11"/>
@@ -21985,7 +23383,10 @@
       <c r="D970" s="39"/>
       <c r="E970" s="9"/>
       <c r="F970" s="20"/>
-      <c r="G970" s="13"/>
+      <c r="G970" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H970" s="39"/>
       <c r="I970" s="9"/>
       <c r="J970" s="11"/>
@@ -21998,7 +23399,10 @@
       <c r="D971" s="39"/>
       <c r="E971" s="9"/>
       <c r="F971" s="20"/>
-      <c r="G971" s="13"/>
+      <c r="G971" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H971" s="39"/>
       <c r="I971" s="9"/>
       <c r="J971" s="11"/>
@@ -22011,7 +23415,10 @@
       <c r="D972" s="39"/>
       <c r="E972" s="9"/>
       <c r="F972" s="20"/>
-      <c r="G972" s="13"/>
+      <c r="G972" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H972" s="39"/>
       <c r="I972" s="9"/>
       <c r="J972" s="11"/>
@@ -22024,7 +23431,10 @@
       <c r="D973" s="39"/>
       <c r="E973" s="9"/>
       <c r="F973" s="20"/>
-      <c r="G973" s="13"/>
+      <c r="G973" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H973" s="39"/>
       <c r="I973" s="9"/>
       <c r="J973" s="11"/>
@@ -22037,7 +23447,10 @@
       <c r="D974" s="39"/>
       <c r="E974" s="9"/>
       <c r="F974" s="20"/>
-      <c r="G974" s="13"/>
+      <c r="G974" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H974" s="39"/>
       <c r="I974" s="9"/>
       <c r="J974" s="11"/>
@@ -22050,7 +23463,10 @@
       <c r="D975" s="39"/>
       <c r="E975" s="9"/>
       <c r="F975" s="20"/>
-      <c r="G975" s="13"/>
+      <c r="G975" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H975" s="39"/>
       <c r="I975" s="9"/>
       <c r="J975" s="11"/>
@@ -22063,7 +23479,10 @@
       <c r="D976" s="39"/>
       <c r="E976" s="9"/>
       <c r="F976" s="20"/>
-      <c r="G976" s="13"/>
+      <c r="G976" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H976" s="39"/>
       <c r="I976" s="9"/>
       <c r="J976" s="11"/>
@@ -22076,7 +23495,10 @@
       <c r="D977" s="39"/>
       <c r="E977" s="9"/>
       <c r="F977" s="20"/>
-      <c r="G977" s="13"/>
+      <c r="G977" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H977" s="39"/>
       <c r="I977" s="9"/>
       <c r="J977" s="11"/>
@@ -22089,7 +23511,10 @@
       <c r="D978" s="39"/>
       <c r="E978" s="9"/>
       <c r="F978" s="20"/>
-      <c r="G978" s="13"/>
+      <c r="G978" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H978" s="39"/>
       <c r="I978" s="9"/>
       <c r="J978" s="11"/>
@@ -22102,7 +23527,10 @@
       <c r="D979" s="39"/>
       <c r="E979" s="9"/>
       <c r="F979" s="20"/>
-      <c r="G979" s="13"/>
+      <c r="G979" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H979" s="39"/>
       <c r="I979" s="9"/>
       <c r="J979" s="11"/>
@@ -22115,7 +23543,10 @@
       <c r="D980" s="39"/>
       <c r="E980" s="9"/>
       <c r="F980" s="20"/>
-      <c r="G980" s="13"/>
+      <c r="G980" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H980" s="39"/>
       <c r="I980" s="9"/>
       <c r="J980" s="11"/>
@@ -22128,7 +23559,10 @@
       <c r="D981" s="39"/>
       <c r="E981" s="9"/>
       <c r="F981" s="20"/>
-      <c r="G981" s="13"/>
+      <c r="G981" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H981" s="39"/>
       <c r="I981" s="9"/>
       <c r="J981" s="11"/>
@@ -22141,7 +23575,10 @@
       <c r="D982" s="39"/>
       <c r="E982" s="9"/>
       <c r="F982" s="20"/>
-      <c r="G982" s="13"/>
+      <c r="G982" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H982" s="39"/>
       <c r="I982" s="9"/>
       <c r="J982" s="11"/>
@@ -22154,7 +23591,10 @@
       <c r="D983" s="39"/>
       <c r="E983" s="9"/>
       <c r="F983" s="20"/>
-      <c r="G983" s="13"/>
+      <c r="G983" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H983" s="39"/>
       <c r="I983" s="9"/>
       <c r="J983" s="11"/>
@@ -22167,7 +23607,10 @@
       <c r="D984" s="39"/>
       <c r="E984" s="9"/>
       <c r="F984" s="20"/>
-      <c r="G984" s="13"/>
+      <c r="G984" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H984" s="39"/>
       <c r="I984" s="9"/>
       <c r="J984" s="11"/>
@@ -22180,7 +23623,10 @@
       <c r="D985" s="39"/>
       <c r="E985" s="9"/>
       <c r="F985" s="20"/>
-      <c r="G985" s="13"/>
+      <c r="G985" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H985" s="39"/>
       <c r="I985" s="9"/>
       <c r="J985" s="11"/>
@@ -22193,7 +23639,10 @@
       <c r="D986" s="39"/>
       <c r="E986" s="9"/>
       <c r="F986" s="20"/>
-      <c r="G986" s="13"/>
+      <c r="G986" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H986" s="39"/>
       <c r="I986" s="9"/>
       <c r="J986" s="11"/>
@@ -22206,7 +23655,10 @@
       <c r="D987" s="39"/>
       <c r="E987" s="9"/>
       <c r="F987" s="20"/>
-      <c r="G987" s="13"/>
+      <c r="G987" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H987" s="39"/>
       <c r="I987" s="9"/>
       <c r="J987" s="11"/>
@@ -22219,7 +23671,10 @@
       <c r="D988" s="39"/>
       <c r="E988" s="9"/>
       <c r="F988" s="20"/>
-      <c r="G988" s="13"/>
+      <c r="G988" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H988" s="39"/>
       <c r="I988" s="9"/>
       <c r="J988" s="11"/>
@@ -22232,7 +23687,10 @@
       <c r="D989" s="39"/>
       <c r="E989" s="9"/>
       <c r="F989" s="20"/>
-      <c r="G989" s="13"/>
+      <c r="G989" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H989" s="39"/>
       <c r="I989" s="9"/>
       <c r="J989" s="11"/>
@@ -22245,7 +23703,10 @@
       <c r="D990" s="39"/>
       <c r="E990" s="9"/>
       <c r="F990" s="20"/>
-      <c r="G990" s="13"/>
+      <c r="G990" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H990" s="39"/>
       <c r="I990" s="9"/>
       <c r="J990" s="11"/>
@@ -22258,7 +23719,10 @@
       <c r="D991" s="39"/>
       <c r="E991" s="9"/>
       <c r="F991" s="20"/>
-      <c r="G991" s="13"/>
+      <c r="G991" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H991" s="39"/>
       <c r="I991" s="9"/>
       <c r="J991" s="11"/>
@@ -22271,7 +23735,10 @@
       <c r="D992" s="39"/>
       <c r="E992" s="9"/>
       <c r="F992" s="20"/>
-      <c r="G992" s="13"/>
+      <c r="G992" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H992" s="39"/>
       <c r="I992" s="9"/>
       <c r="J992" s="11"/>
@@ -22284,7 +23751,10 @@
       <c r="D993" s="39"/>
       <c r="E993" s="9"/>
       <c r="F993" s="20"/>
-      <c r="G993" s="13"/>
+      <c r="G993" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H993" s="39"/>
       <c r="I993" s="9"/>
       <c r="J993" s="11"/>
@@ -22297,7 +23767,10 @@
       <c r="D994" s="39"/>
       <c r="E994" s="9"/>
       <c r="F994" s="20"/>
-      <c r="G994" s="13"/>
+      <c r="G994" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H994" s="39"/>
       <c r="I994" s="9"/>
       <c r="J994" s="11"/>
@@ -22310,7 +23783,10 @@
       <c r="D995" s="39"/>
       <c r="E995" s="9"/>
       <c r="F995" s="20"/>
-      <c r="G995" s="13"/>
+      <c r="G995" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H995" s="39"/>
       <c r="I995" s="9"/>
       <c r="J995" s="11"/>
@@ -22323,7 +23799,10 @@
       <c r="D996" s="39"/>
       <c r="E996" s="9"/>
       <c r="F996" s="20"/>
-      <c r="G996" s="13"/>
+      <c r="G996" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H996" s="39"/>
       <c r="I996" s="9"/>
       <c r="J996" s="11"/>
@@ -22336,7 +23815,10 @@
       <c r="D997" s="39"/>
       <c r="E997" s="9"/>
       <c r="F997" s="20"/>
-      <c r="G997" s="13"/>
+      <c r="G997" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H997" s="39"/>
       <c r="I997" s="9"/>
       <c r="J997" s="11"/>
@@ -22349,7 +23831,10 @@
       <c r="D998" s="39"/>
       <c r="E998" s="9"/>
       <c r="F998" s="20"/>
-      <c r="G998" s="13"/>
+      <c r="G998" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H998" s="39"/>
       <c r="I998" s="9"/>
       <c r="J998" s="11"/>
@@ -22362,7 +23847,10 @@
       <c r="D999" s="39"/>
       <c r="E999" s="9"/>
       <c r="F999" s="20"/>
-      <c r="G999" s="13"/>
+      <c r="G999" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H999" s="39"/>
       <c r="I999" s="9"/>
       <c r="J999" s="11"/>
@@ -22375,7 +23863,10 @@
       <c r="D1000" s="39"/>
       <c r="E1000" s="9"/>
       <c r="F1000" s="20"/>
-      <c r="G1000" s="13"/>
+      <c r="G1000" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1000" s="39"/>
       <c r="I1000" s="9"/>
       <c r="J1000" s="11"/>
@@ -22388,7 +23879,10 @@
       <c r="D1001" s="39"/>
       <c r="E1001" s="9"/>
       <c r="F1001" s="20"/>
-      <c r="G1001" s="13"/>
+      <c r="G1001" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1001" s="39"/>
       <c r="I1001" s="9"/>
       <c r="J1001" s="11"/>
@@ -22401,7 +23895,10 @@
       <c r="D1002" s="39"/>
       <c r="E1002" s="9"/>
       <c r="F1002" s="20"/>
-      <c r="G1002" s="13"/>
+      <c r="G1002" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1002" s="39"/>
       <c r="I1002" s="9"/>
       <c r="J1002" s="11"/>
@@ -22414,7 +23911,10 @@
       <c r="D1003" s="39"/>
       <c r="E1003" s="9"/>
       <c r="F1003" s="20"/>
-      <c r="G1003" s="13"/>
+      <c r="G1003" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1003" s="39"/>
       <c r="I1003" s="9"/>
       <c r="J1003" s="11"/>
@@ -22427,7 +23927,10 @@
       <c r="D1004" s="39"/>
       <c r="E1004" s="9"/>
       <c r="F1004" s="20"/>
-      <c r="G1004" s="13"/>
+      <c r="G1004" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1004" s="39"/>
       <c r="I1004" s="9"/>
       <c r="J1004" s="11"/>
@@ -22440,7 +23943,10 @@
       <c r="D1005" s="39"/>
       <c r="E1005" s="9"/>
       <c r="F1005" s="20"/>
-      <c r="G1005" s="13"/>
+      <c r="G1005" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1005" s="39"/>
       <c r="I1005" s="9"/>
       <c r="J1005" s="11"/>
@@ -22453,7 +23959,10 @@
       <c r="D1006" s="39"/>
       <c r="E1006" s="9"/>
       <c r="F1006" s="20"/>
-      <c r="G1006" s="13"/>
+      <c r="G1006" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1006" s="39"/>
       <c r="I1006" s="9"/>
       <c r="J1006" s="11"/>
@@ -22466,7 +23975,10 @@
       <c r="D1007" s="39"/>
       <c r="E1007" s="9"/>
       <c r="F1007" s="20"/>
-      <c r="G1007" s="13"/>
+      <c r="G1007" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1007" s="39"/>
       <c r="I1007" s="9"/>
       <c r="J1007" s="11"/>
@@ -22479,7 +23991,10 @@
       <c r="D1008" s="39"/>
       <c r="E1008" s="9"/>
       <c r="F1008" s="20"/>
-      <c r="G1008" s="13"/>
+      <c r="G1008" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1008" s="39"/>
       <c r="I1008" s="9"/>
       <c r="J1008" s="11"/>
@@ -22492,7 +24007,10 @@
       <c r="D1009" s="39"/>
       <c r="E1009" s="9"/>
       <c r="F1009" s="20"/>
-      <c r="G1009" s="13"/>
+      <c r="G1009" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1009" s="39"/>
       <c r="I1009" s="9"/>
       <c r="J1009" s="11"/>
@@ -22505,7 +24023,10 @@
       <c r="D1010" s="39"/>
       <c r="E1010" s="9"/>
       <c r="F1010" s="20"/>
-      <c r="G1010" s="13"/>
+      <c r="G1010" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1010" s="39"/>
       <c r="I1010" s="9"/>
       <c r="J1010" s="11"/>
@@ -22518,7 +24039,10 @@
       <c r="D1011" s="39"/>
       <c r="E1011" s="9"/>
       <c r="F1011" s="20"/>
-      <c r="G1011" s="13"/>
+      <c r="G1011" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1011" s="39"/>
       <c r="I1011" s="9"/>
       <c r="J1011" s="11"/>
@@ -22531,7 +24055,10 @@
       <c r="D1012" s="39"/>
       <c r="E1012" s="9"/>
       <c r="F1012" s="20"/>
-      <c r="G1012" s="13"/>
+      <c r="G1012" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1012" s="39"/>
       <c r="I1012" s="9"/>
       <c r="J1012" s="11"/>
@@ -22544,7 +24071,10 @@
       <c r="D1013" s="39"/>
       <c r="E1013" s="9"/>
       <c r="F1013" s="20"/>
-      <c r="G1013" s="13"/>
+      <c r="G1013" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1013" s="39"/>
       <c r="I1013" s="9"/>
       <c r="J1013" s="11"/>
@@ -22557,7 +24087,10 @@
       <c r="D1014" s="39"/>
       <c r="E1014" s="9"/>
       <c r="F1014" s="20"/>
-      <c r="G1014" s="13"/>
+      <c r="G1014" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1014" s="39"/>
       <c r="I1014" s="9"/>
       <c r="J1014" s="11"/>
@@ -22570,7 +24103,10 @@
       <c r="D1015" s="39"/>
       <c r="E1015" s="9"/>
       <c r="F1015" s="20"/>
-      <c r="G1015" s="13"/>
+      <c r="G1015" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1015" s="39"/>
       <c r="I1015" s="9"/>
       <c r="J1015" s="11"/>
@@ -22583,7 +24119,10 @@
       <c r="D1016" s="39"/>
       <c r="E1016" s="9"/>
       <c r="F1016" s="20"/>
-      <c r="G1016" s="13"/>
+      <c r="G1016" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1016" s="39"/>
       <c r="I1016" s="9"/>
       <c r="J1016" s="11"/>
@@ -22596,7 +24135,10 @@
       <c r="D1017" s="39"/>
       <c r="E1017" s="9"/>
       <c r="F1017" s="20"/>
-      <c r="G1017" s="13"/>
+      <c r="G1017" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1017" s="39"/>
       <c r="I1017" s="9"/>
       <c r="J1017" s="11"/>
@@ -22609,7 +24151,10 @@
       <c r="D1018" s="39"/>
       <c r="E1018" s="9"/>
       <c r="F1018" s="20"/>
-      <c r="G1018" s="13"/>
+      <c r="G1018" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1018" s="39"/>
       <c r="I1018" s="9"/>
       <c r="J1018" s="11"/>
@@ -22622,7 +24167,10 @@
       <c r="D1019" s="39"/>
       <c r="E1019" s="9"/>
       <c r="F1019" s="20"/>
-      <c r="G1019" s="13"/>
+      <c r="G1019" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1019" s="39"/>
       <c r="I1019" s="9"/>
       <c r="J1019" s="11"/>
@@ -22635,7 +24183,10 @@
       <c r="D1020" s="39"/>
       <c r="E1020" s="9"/>
       <c r="F1020" s="20"/>
-      <c r="G1020" s="13"/>
+      <c r="G1020" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1020" s="39"/>
       <c r="I1020" s="9"/>
       <c r="J1020" s="11"/>
@@ -22648,7 +24199,10 @@
       <c r="D1021" s="39"/>
       <c r="E1021" s="9"/>
       <c r="F1021" s="20"/>
-      <c r="G1021" s="13"/>
+      <c r="G1021" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1021" s="39"/>
       <c r="I1021" s="9"/>
       <c r="J1021" s="11"/>
@@ -22661,7 +24215,10 @@
       <c r="D1022" s="39"/>
       <c r="E1022" s="9"/>
       <c r="F1022" s="20"/>
-      <c r="G1022" s="13"/>
+      <c r="G1022" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1022" s="39"/>
       <c r="I1022" s="9"/>
       <c r="J1022" s="11"/>
@@ -22674,7 +24231,10 @@
       <c r="D1023" s="39"/>
       <c r="E1023" s="9"/>
       <c r="F1023" s="20"/>
-      <c r="G1023" s="13"/>
+      <c r="G1023" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1023" s="39"/>
       <c r="I1023" s="9"/>
       <c r="J1023" s="11"/>
@@ -22687,7 +24247,10 @@
       <c r="D1024" s="39"/>
       <c r="E1024" s="9"/>
       <c r="F1024" s="20"/>
-      <c r="G1024" s="13"/>
+      <c r="G1024" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1024" s="39"/>
       <c r="I1024" s="9"/>
       <c r="J1024" s="11"/>
@@ -22700,7 +24263,10 @@
       <c r="D1025" s="39"/>
       <c r="E1025" s="9"/>
       <c r="F1025" s="20"/>
-      <c r="G1025" s="13"/>
+      <c r="G1025" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1025" s="39"/>
       <c r="I1025" s="9"/>
       <c r="J1025" s="11"/>
@@ -22713,7 +24279,10 @@
       <c r="D1026" s="39"/>
       <c r="E1026" s="9"/>
       <c r="F1026" s="20"/>
-      <c r="G1026" s="13"/>
+      <c r="G1026" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1026" s="39"/>
       <c r="I1026" s="9"/>
       <c r="J1026" s="11"/>
@@ -22726,7 +24295,10 @@
       <c r="D1027" s="39"/>
       <c r="E1027" s="9"/>
       <c r="F1027" s="20"/>
-      <c r="G1027" s="13"/>
+      <c r="G1027" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1027" s="39"/>
       <c r="I1027" s="9"/>
       <c r="J1027" s="11"/>
@@ -22739,7 +24311,10 @@
       <c r="D1028" s="39"/>
       <c r="E1028" s="9"/>
       <c r="F1028" s="20"/>
-      <c r="G1028" s="13"/>
+      <c r="G1028" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1028" s="39"/>
       <c r="I1028" s="9"/>
       <c r="J1028" s="11"/>
@@ -22752,7 +24327,10 @@
       <c r="D1029" s="39"/>
       <c r="E1029" s="9"/>
       <c r="F1029" s="20"/>
-      <c r="G1029" s="13"/>
+      <c r="G1029" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1029" s="39"/>
       <c r="I1029" s="9"/>
       <c r="J1029" s="11"/>
@@ -22765,7 +24343,10 @@
       <c r="D1030" s="39"/>
       <c r="E1030" s="9"/>
       <c r="F1030" s="20"/>
-      <c r="G1030" s="13"/>
+      <c r="G1030" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1030" s="39"/>
       <c r="I1030" s="9"/>
       <c r="J1030" s="11"/>
@@ -22778,7 +24359,10 @@
       <c r="D1031" s="39"/>
       <c r="E1031" s="9"/>
       <c r="F1031" s="20"/>
-      <c r="G1031" s="13"/>
+      <c r="G1031" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1031" s="39"/>
       <c r="I1031" s="9"/>
       <c r="J1031" s="11"/>
@@ -22791,7 +24375,10 @@
       <c r="D1032" s="39"/>
       <c r="E1032" s="9"/>
       <c r="F1032" s="20"/>
-      <c r="G1032" s="13"/>
+      <c r="G1032" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1032" s="39"/>
       <c r="I1032" s="9"/>
       <c r="J1032" s="11"/>
@@ -22804,7 +24391,10 @@
       <c r="D1033" s="39"/>
       <c r="E1033" s="9"/>
       <c r="F1033" s="20"/>
-      <c r="G1033" s="13"/>
+      <c r="G1033" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1033" s="39"/>
       <c r="I1033" s="9"/>
       <c r="J1033" s="11"/>
@@ -22817,7 +24407,10 @@
       <c r="D1034" s="39"/>
       <c r="E1034" s="9"/>
       <c r="F1034" s="20"/>
-      <c r="G1034" s="13"/>
+      <c r="G1034" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1034" s="39"/>
       <c r="I1034" s="9"/>
       <c r="J1034" s="11"/>
@@ -22830,7 +24423,10 @@
       <c r="D1035" s="39"/>
       <c r="E1035" s="9"/>
       <c r="F1035" s="20"/>
-      <c r="G1035" s="13"/>
+      <c r="G1035" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1035" s="39"/>
       <c r="I1035" s="9"/>
       <c r="J1035" s="11"/>
@@ -22843,7 +24439,10 @@
       <c r="D1036" s="39"/>
       <c r="E1036" s="9"/>
       <c r="F1036" s="20"/>
-      <c r="G1036" s="13"/>
+      <c r="G1036" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1036" s="39"/>
       <c r="I1036" s="9"/>
       <c r="J1036" s="11"/>
@@ -22856,7 +24455,10 @@
       <c r="D1037" s="39"/>
       <c r="E1037" s="9"/>
       <c r="F1037" s="20"/>
-      <c r="G1037" s="13"/>
+      <c r="G1037" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1037" s="39"/>
       <c r="I1037" s="9"/>
       <c r="J1037" s="11"/>
@@ -22869,7 +24471,10 @@
       <c r="D1038" s="39"/>
       <c r="E1038" s="9"/>
       <c r="F1038" s="20"/>
-      <c r="G1038" s="13"/>
+      <c r="G1038" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1038" s="39"/>
       <c r="I1038" s="9"/>
       <c r="J1038" s="11"/>
@@ -22882,7 +24487,10 @@
       <c r="D1039" s="39"/>
       <c r="E1039" s="9"/>
       <c r="F1039" s="20"/>
-      <c r="G1039" s="13"/>
+      <c r="G1039" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1039" s="39"/>
       <c r="I1039" s="9"/>
       <c r="J1039" s="11"/>
@@ -22895,7 +24503,10 @@
       <c r="D1040" s="39"/>
       <c r="E1040" s="9"/>
       <c r="F1040" s="20"/>
-      <c r="G1040" s="13"/>
+      <c r="G1040" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1040" s="39"/>
       <c r="I1040" s="9"/>
       <c r="J1040" s="11"/>
@@ -22908,7 +24519,10 @@
       <c r="D1041" s="39"/>
       <c r="E1041" s="9"/>
       <c r="F1041" s="20"/>
-      <c r="G1041" s="13"/>
+      <c r="G1041" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1041" s="39"/>
       <c r="I1041" s="9"/>
       <c r="J1041" s="11"/>
@@ -22921,7 +24535,10 @@
       <c r="D1042" s="39"/>
       <c r="E1042" s="9"/>
       <c r="F1042" s="20"/>
-      <c r="G1042" s="13"/>
+      <c r="G1042" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1042" s="39"/>
       <c r="I1042" s="9"/>
       <c r="J1042" s="11"/>
@@ -22934,7 +24551,10 @@
       <c r="D1043" s="39"/>
       <c r="E1043" s="9"/>
       <c r="F1043" s="20"/>
-      <c r="G1043" s="13"/>
+      <c r="G1043" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1043" s="39"/>
       <c r="I1043" s="9"/>
       <c r="J1043" s="11"/>
@@ -22947,7 +24567,10 @@
       <c r="D1044" s="39"/>
       <c r="E1044" s="9"/>
       <c r="F1044" s="20"/>
-      <c r="G1044" s="13"/>
+      <c r="G1044" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1044" s="39"/>
       <c r="I1044" s="9"/>
       <c r="J1044" s="11"/>
@@ -22960,7 +24583,10 @@
       <c r="D1045" s="39"/>
       <c r="E1045" s="9"/>
       <c r="F1045" s="20"/>
-      <c r="G1045" s="13"/>
+      <c r="G1045" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1045" s="39"/>
       <c r="I1045" s="9"/>
       <c r="J1045" s="11"/>
@@ -22973,7 +24599,10 @@
       <c r="D1046" s="39"/>
       <c r="E1046" s="9"/>
       <c r="F1046" s="20"/>
-      <c r="G1046" s="13"/>
+      <c r="G1046" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1046" s="39"/>
       <c r="I1046" s="9"/>
       <c r="J1046" s="11"/>
@@ -22986,7 +24615,10 @@
       <c r="D1047" s="39"/>
       <c r="E1047" s="9"/>
       <c r="F1047" s="20"/>
-      <c r="G1047" s="13"/>
+      <c r="G1047" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1047" s="39"/>
       <c r="I1047" s="9"/>
       <c r="J1047" s="11"/>
@@ -22999,7 +24631,10 @@
       <c r="D1048" s="39"/>
       <c r="E1048" s="9"/>
       <c r="F1048" s="20"/>
-      <c r="G1048" s="13"/>
+      <c r="G1048" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1048" s="39"/>
       <c r="I1048" s="9"/>
       <c r="J1048" s="11"/>
@@ -23012,7 +24647,10 @@
       <c r="D1049" s="39"/>
       <c r="E1049" s="9"/>
       <c r="F1049" s="20"/>
-      <c r="G1049" s="13"/>
+      <c r="G1049" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1049" s="39"/>
       <c r="I1049" s="9"/>
       <c r="J1049" s="11"/>
@@ -23025,7 +24663,10 @@
       <c r="D1050" s="39"/>
       <c r="E1050" s="9"/>
       <c r="F1050" s="20"/>
-      <c r="G1050" s="13"/>
+      <c r="G1050" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1050" s="39"/>
       <c r="I1050" s="9"/>
       <c r="J1050" s="11"/>
@@ -23038,7 +24679,10 @@
       <c r="D1051" s="39"/>
       <c r="E1051" s="9"/>
       <c r="F1051" s="20"/>
-      <c r="G1051" s="13"/>
+      <c r="G1051" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1051" s="39"/>
       <c r="I1051" s="9"/>
       <c r="J1051" s="11"/>
@@ -23051,7 +24695,10 @@
       <c r="D1052" s="39"/>
       <c r="E1052" s="9"/>
       <c r="F1052" s="20"/>
-      <c r="G1052" s="13"/>
+      <c r="G1052" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1052" s="39"/>
       <c r="I1052" s="9"/>
       <c r="J1052" s="11"/>
@@ -23064,7 +24711,10 @@
       <c r="D1053" s="39"/>
       <c r="E1053" s="9"/>
       <c r="F1053" s="20"/>
-      <c r="G1053" s="13"/>
+      <c r="G1053" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1053" s="39"/>
       <c r="I1053" s="9"/>
       <c r="J1053" s="11"/>
@@ -23077,7 +24727,10 @@
       <c r="D1054" s="39"/>
       <c r="E1054" s="9"/>
       <c r="F1054" s="20"/>
-      <c r="G1054" s="13"/>
+      <c r="G1054" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1054" s="39"/>
       <c r="I1054" s="9"/>
       <c r="J1054" s="11"/>
@@ -23090,7 +24743,10 @@
       <c r="D1055" s="39"/>
       <c r="E1055" s="9"/>
       <c r="F1055" s="20"/>
-      <c r="G1055" s="13"/>
+      <c r="G1055" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1055" s="39"/>
       <c r="I1055" s="9"/>
       <c r="J1055" s="11"/>
@@ -23103,7 +24759,10 @@
       <c r="D1056" s="39"/>
       <c r="E1056" s="9"/>
       <c r="F1056" s="20"/>
-      <c r="G1056" s="13"/>
+      <c r="G1056" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1056" s="39"/>
       <c r="I1056" s="9"/>
       <c r="J1056" s="11"/>
@@ -23116,7 +24775,10 @@
       <c r="D1057" s="39"/>
       <c r="E1057" s="9"/>
       <c r="F1057" s="20"/>
-      <c r="G1057" s="13"/>
+      <c r="G1057" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1057" s="39"/>
       <c r="I1057" s="9"/>
       <c r="J1057" s="11"/>
@@ -23129,7 +24791,10 @@
       <c r="D1058" s="39"/>
       <c r="E1058" s="9"/>
       <c r="F1058" s="20"/>
-      <c r="G1058" s="13"/>
+      <c r="G1058" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1058" s="39"/>
       <c r="I1058" s="9"/>
       <c r="J1058" s="11"/>
@@ -23142,7 +24807,10 @@
       <c r="D1059" s="39"/>
       <c r="E1059" s="9"/>
       <c r="F1059" s="20"/>
-      <c r="G1059" s="13"/>
+      <c r="G1059" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1059" s="39"/>
       <c r="I1059" s="9"/>
       <c r="J1059" s="11"/>
@@ -23155,7 +24823,10 @@
       <c r="D1060" s="39"/>
       <c r="E1060" s="9"/>
       <c r="F1060" s="20"/>
-      <c r="G1060" s="13"/>
+      <c r="G1060" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1060" s="39"/>
       <c r="I1060" s="9"/>
       <c r="J1060" s="11"/>
@@ -23168,7 +24839,10 @@
       <c r="D1061" s="39"/>
       <c r="E1061" s="9"/>
       <c r="F1061" s="20"/>
-      <c r="G1061" s="13"/>
+      <c r="G1061" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1061" s="39"/>
       <c r="I1061" s="9"/>
       <c r="J1061" s="11"/>
@@ -23181,7 +24855,10 @@
       <c r="D1062" s="39"/>
       <c r="E1062" s="9"/>
       <c r="F1062" s="20"/>
-      <c r="G1062" s="13"/>
+      <c r="G1062" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1062" s="39"/>
       <c r="I1062" s="9"/>
       <c r="J1062" s="11"/>
@@ -23194,7 +24871,10 @@
       <c r="D1063" s="39"/>
       <c r="E1063" s="9"/>
       <c r="F1063" s="20"/>
-      <c r="G1063" s="13"/>
+      <c r="G1063" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1063" s="39"/>
       <c r="I1063" s="9"/>
       <c r="J1063" s="11"/>
@@ -23207,7 +24887,10 @@
       <c r="D1064" s="39"/>
       <c r="E1064" s="9"/>
       <c r="F1064" s="20"/>
-      <c r="G1064" s="13"/>
+      <c r="G1064" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1064" s="39"/>
       <c r="I1064" s="9"/>
       <c r="J1064" s="11"/>
@@ -23220,7 +24903,10 @@
       <c r="D1065" s="39"/>
       <c r="E1065" s="9"/>
       <c r="F1065" s="20"/>
-      <c r="G1065" s="13"/>
+      <c r="G1065" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1065" s="39"/>
       <c r="I1065" s="9"/>
       <c r="J1065" s="11"/>
@@ -23233,7 +24919,10 @@
       <c r="D1066" s="39"/>
       <c r="E1066" s="9"/>
       <c r="F1066" s="20"/>
-      <c r="G1066" s="13"/>
+      <c r="G1066" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1066" s="39"/>
       <c r="I1066" s="9"/>
       <c r="J1066" s="11"/>
@@ -23246,7 +24935,10 @@
       <c r="D1067" s="39"/>
       <c r="E1067" s="9"/>
       <c r="F1067" s="20"/>
-      <c r="G1067" s="13"/>
+      <c r="G1067" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1067" s="39"/>
       <c r="I1067" s="9"/>
       <c r="J1067" s="11"/>
@@ -23259,7 +24951,10 @@
       <c r="D1068" s="39"/>
       <c r="E1068" s="9"/>
       <c r="F1068" s="20"/>
-      <c r="G1068" s="13"/>
+      <c r="G1068" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1068" s="39"/>
       <c r="I1068" s="9"/>
       <c r="J1068" s="11"/>
@@ -23272,7 +24967,10 @@
       <c r="D1069" s="39"/>
       <c r="E1069" s="9"/>
       <c r="F1069" s="20"/>
-      <c r="G1069" s="13"/>
+      <c r="G1069" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1069" s="39"/>
       <c r="I1069" s="9"/>
       <c r="J1069" s="11"/>
@@ -23285,7 +24983,10 @@
       <c r="D1070" s="39"/>
       <c r="E1070" s="9"/>
       <c r="F1070" s="20"/>
-      <c r="G1070" s="13"/>
+      <c r="G1070" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1070" s="39"/>
       <c r="I1070" s="9"/>
       <c r="J1070" s="11"/>
@@ -23298,7 +24999,10 @@
       <c r="D1071" s="39"/>
       <c r="E1071" s="9"/>
       <c r="F1071" s="20"/>
-      <c r="G1071" s="13"/>
+      <c r="G1071" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1071" s="39"/>
       <c r="I1071" s="9"/>
       <c r="J1071" s="11"/>
@@ -23311,7 +25015,10 @@
       <c r="D1072" s="39"/>
       <c r="E1072" s="9"/>
       <c r="F1072" s="20"/>
-      <c r="G1072" s="13"/>
+      <c r="G1072" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1072" s="39"/>
       <c r="I1072" s="9"/>
       <c r="J1072" s="11"/>
@@ -23324,7 +25031,10 @@
       <c r="D1073" s="39"/>
       <c r="E1073" s="9"/>
       <c r="F1073" s="20"/>
-      <c r="G1073" s="13"/>
+      <c r="G1073" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1073" s="39"/>
       <c r="I1073" s="9"/>
       <c r="J1073" s="11"/>
@@ -23337,7 +25047,10 @@
       <c r="D1074" s="39"/>
       <c r="E1074" s="9"/>
       <c r="F1074" s="20"/>
-      <c r="G1074" s="13"/>
+      <c r="G1074" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1074" s="39"/>
       <c r="I1074" s="9"/>
       <c r="J1074" s="11"/>
@@ -23350,7 +25063,10 @@
       <c r="D1075" s="39"/>
       <c r="E1075" s="9"/>
       <c r="F1075" s="20"/>
-      <c r="G1075" s="13"/>
+      <c r="G1075" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1075" s="39"/>
       <c r="I1075" s="9"/>
       <c r="J1075" s="11"/>
@@ -23363,7 +25079,10 @@
       <c r="D1076" s="39"/>
       <c r="E1076" s="9"/>
       <c r="F1076" s="20"/>
-      <c r="G1076" s="13"/>
+      <c r="G1076" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1076" s="39"/>
       <c r="I1076" s="9"/>
       <c r="J1076" s="11"/>
@@ -23376,7 +25095,10 @@
       <c r="D1077" s="39"/>
       <c r="E1077" s="9"/>
       <c r="F1077" s="20"/>
-      <c r="G1077" s="13"/>
+      <c r="G1077" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1077" s="39"/>
       <c r="I1077" s="9"/>
       <c r="J1077" s="11"/>
@@ -23389,7 +25111,10 @@
       <c r="D1078" s="39"/>
       <c r="E1078" s="9"/>
       <c r="F1078" s="20"/>
-      <c r="G1078" s="13"/>
+      <c r="G1078" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1078" s="39"/>
       <c r="I1078" s="9"/>
       <c r="J1078" s="11"/>
@@ -23402,7 +25127,10 @@
       <c r="D1079" s="39"/>
       <c r="E1079" s="9"/>
       <c r="F1079" s="20"/>
-      <c r="G1079" s="13"/>
+      <c r="G1079" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1079" s="39"/>
       <c r="I1079" s="9"/>
       <c r="J1079" s="11"/>
@@ -23415,7 +25143,10 @@
       <c r="D1080" s="39"/>
       <c r="E1080" s="9"/>
       <c r="F1080" s="20"/>
-      <c r="G1080" s="13"/>
+      <c r="G1080" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1080" s="39"/>
       <c r="I1080" s="9"/>
       <c r="J1080" s="11"/>
@@ -23428,7 +25159,10 @@
       <c r="D1081" s="39"/>
       <c r="E1081" s="9"/>
       <c r="F1081" s="20"/>
-      <c r="G1081" s="13"/>
+      <c r="G1081" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1081" s="39"/>
       <c r="I1081" s="9"/>
       <c r="J1081" s="11"/>
@@ -23441,7 +25175,10 @@
       <c r="D1082" s="39"/>
       <c r="E1082" s="9"/>
       <c r="F1082" s="20"/>
-      <c r="G1082" s="13"/>
+      <c r="G1082" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1082" s="39"/>
       <c r="I1082" s="9"/>
       <c r="J1082" s="11"/>
@@ -23454,7 +25191,10 @@
       <c r="D1083" s="39"/>
       <c r="E1083" s="9"/>
       <c r="F1083" s="20"/>
-      <c r="G1083" s="13"/>
+      <c r="G1083" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1083" s="39"/>
       <c r="I1083" s="9"/>
       <c r="J1083" s="11"/>
@@ -23467,7 +25207,10 @@
       <c r="D1084" s="39"/>
       <c r="E1084" s="9"/>
       <c r="F1084" s="20"/>
-      <c r="G1084" s="13"/>
+      <c r="G1084" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1084" s="39"/>
       <c r="I1084" s="9"/>
       <c r="J1084" s="11"/>
@@ -23480,7 +25223,10 @@
       <c r="D1085" s="39"/>
       <c r="E1085" s="9"/>
       <c r="F1085" s="20"/>
-      <c r="G1085" s="13"/>
+      <c r="G1085" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1085" s="39"/>
       <c r="I1085" s="9"/>
       <c r="J1085" s="11"/>
@@ -23493,7 +25239,10 @@
       <c r="D1086" s="39"/>
       <c r="E1086" s="9"/>
       <c r="F1086" s="20"/>
-      <c r="G1086" s="13"/>
+      <c r="G1086" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1086" s="39"/>
       <c r="I1086" s="9"/>
       <c r="J1086" s="11"/>
@@ -23506,7 +25255,10 @@
       <c r="D1087" s="39"/>
       <c r="E1087" s="9"/>
       <c r="F1087" s="20"/>
-      <c r="G1087" s="13"/>
+      <c r="G1087" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1087" s="39"/>
       <c r="I1087" s="9"/>
       <c r="J1087" s="11"/>
@@ -23519,7 +25271,10 @@
       <c r="D1088" s="39"/>
       <c r="E1088" s="9"/>
       <c r="F1088" s="20"/>
-      <c r="G1088" s="13"/>
+      <c r="G1088" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1088" s="39"/>
       <c r="I1088" s="9"/>
       <c r="J1088" s="11"/>
@@ -23532,7 +25287,10 @@
       <c r="D1089" s="39"/>
       <c r="E1089" s="9"/>
       <c r="F1089" s="20"/>
-      <c r="G1089" s="13"/>
+      <c r="G1089" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1089" s="39"/>
       <c r="I1089" s="9"/>
       <c r="J1089" s="11"/>
@@ -23545,7 +25303,10 @@
       <c r="D1090" s="39"/>
       <c r="E1090" s="9"/>
       <c r="F1090" s="20"/>
-      <c r="G1090" s="13"/>
+      <c r="G1090" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1090" s="39"/>
       <c r="I1090" s="9"/>
       <c r="J1090" s="11"/>
@@ -23558,7 +25319,10 @@
       <c r="D1091" s="39"/>
       <c r="E1091" s="9"/>
       <c r="F1091" s="20"/>
-      <c r="G1091" s="13"/>
+      <c r="G1091" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1091" s="39"/>
       <c r="I1091" s="9"/>
       <c r="J1091" s="11"/>
@@ -23571,7 +25335,10 @@
       <c r="D1092" s="39"/>
       <c r="E1092" s="9"/>
       <c r="F1092" s="20"/>
-      <c r="G1092" s="13"/>
+      <c r="G1092" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1092" s="39"/>
       <c r="I1092" s="9"/>
       <c r="J1092" s="11"/>
@@ -23584,7 +25351,10 @@
       <c r="D1093" s="39"/>
       <c r="E1093" s="9"/>
       <c r="F1093" s="20"/>
-      <c r="G1093" s="13"/>
+      <c r="G1093" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1093" s="39"/>
       <c r="I1093" s="9"/>
       <c r="J1093" s="11"/>
@@ -23597,7 +25367,10 @@
       <c r="D1094" s="39"/>
       <c r="E1094" s="9"/>
       <c r="F1094" s="20"/>
-      <c r="G1094" s="13"/>
+      <c r="G1094" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1094" s="39"/>
       <c r="I1094" s="9"/>
       <c r="J1094" s="11"/>
@@ -23610,7 +25383,10 @@
       <c r="D1095" s="39"/>
       <c r="E1095" s="9"/>
       <c r="F1095" s="20"/>
-      <c r="G1095" s="13"/>
+      <c r="G1095" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1095" s="39"/>
       <c r="I1095" s="9"/>
       <c r="J1095" s="11"/>
@@ -23623,7 +25399,10 @@
       <c r="D1096" s="39"/>
       <c r="E1096" s="9"/>
       <c r="F1096" s="20"/>
-      <c r="G1096" s="13"/>
+      <c r="G1096" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1096" s="39"/>
       <c r="I1096" s="9"/>
       <c r="J1096" s="11"/>
@@ -23636,7 +25415,10 @@
       <c r="D1097" s="39"/>
       <c r="E1097" s="9"/>
       <c r="F1097" s="20"/>
-      <c r="G1097" s="13"/>
+      <c r="G1097" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1097" s="39"/>
       <c r="I1097" s="9"/>
       <c r="J1097" s="11"/>
@@ -23649,7 +25431,10 @@
       <c r="D1098" s="39"/>
       <c r="E1098" s="9"/>
       <c r="F1098" s="20"/>
-      <c r="G1098" s="13"/>
+      <c r="G1098" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1098" s="39"/>
       <c r="I1098" s="9"/>
       <c r="J1098" s="11"/>
@@ -23662,7 +25447,10 @@
       <c r="D1099" s="39"/>
       <c r="E1099" s="9"/>
       <c r="F1099" s="20"/>
-      <c r="G1099" s="13"/>
+      <c r="G1099" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1099" s="39"/>
       <c r="I1099" s="9"/>
       <c r="J1099" s="11"/>
@@ -23675,7 +25463,10 @@
       <c r="D1100" s="39"/>
       <c r="E1100" s="9"/>
       <c r="F1100" s="20"/>
-      <c r="G1100" s="13"/>
+      <c r="G1100" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1100" s="39"/>
       <c r="I1100" s="9"/>
       <c r="J1100" s="11"/>
@@ -23688,7 +25479,10 @@
       <c r="D1101" s="39"/>
       <c r="E1101" s="9"/>
       <c r="F1101" s="20"/>
-      <c r="G1101" s="13"/>
+      <c r="G1101" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1101" s="39"/>
       <c r="I1101" s="9"/>
       <c r="J1101" s="11"/>
@@ -23701,7 +25495,10 @@
       <c r="D1102" s="39"/>
       <c r="E1102" s="9"/>
       <c r="F1102" s="20"/>
-      <c r="G1102" s="13"/>
+      <c r="G1102" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1102" s="39"/>
       <c r="I1102" s="9"/>
       <c r="J1102" s="11"/>
@@ -23714,7 +25511,10 @@
       <c r="D1103" s="39"/>
       <c r="E1103" s="9"/>
       <c r="F1103" s="20"/>
-      <c r="G1103" s="13"/>
+      <c r="G1103" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1103" s="39"/>
       <c r="I1103" s="9"/>
       <c r="J1103" s="11"/>
@@ -23727,7 +25527,10 @@
       <c r="D1104" s="39"/>
       <c r="E1104" s="9"/>
       <c r="F1104" s="20"/>
-      <c r="G1104" s="13"/>
+      <c r="G1104" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1104" s="39"/>
       <c r="I1104" s="9"/>
       <c r="J1104" s="11"/>
@@ -23740,7 +25543,10 @@
       <c r="D1105" s="39"/>
       <c r="E1105" s="9"/>
       <c r="F1105" s="20"/>
-      <c r="G1105" s="13"/>
+      <c r="G1105" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1105" s="39"/>
       <c r="I1105" s="9"/>
       <c r="J1105" s="11"/>
@@ -23753,7 +25559,10 @@
       <c r="D1106" s="39"/>
       <c r="E1106" s="9"/>
       <c r="F1106" s="20"/>
-      <c r="G1106" s="13"/>
+      <c r="G1106" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1106" s="39"/>
       <c r="I1106" s="9"/>
       <c r="J1106" s="11"/>
@@ -23766,7 +25575,10 @@
       <c r="D1107" s="39"/>
       <c r="E1107" s="9"/>
       <c r="F1107" s="20"/>
-      <c r="G1107" s="13"/>
+      <c r="G1107" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1107" s="39"/>
       <c r="I1107" s="9"/>
       <c r="J1107" s="11"/>
@@ -23779,7 +25591,10 @@
       <c r="D1108" s="39"/>
       <c r="E1108" s="9"/>
       <c r="F1108" s="20"/>
-      <c r="G1108" s="13"/>
+      <c r="G1108" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1108" s="39"/>
       <c r="I1108" s="9"/>
       <c r="J1108" s="11"/>
@@ -23792,7 +25607,10 @@
       <c r="D1109" s="39"/>
       <c r="E1109" s="9"/>
       <c r="F1109" s="20"/>
-      <c r="G1109" s="13"/>
+      <c r="G1109" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1109" s="39"/>
       <c r="I1109" s="9"/>
       <c r="J1109" s="11"/>
@@ -23805,7 +25623,10 @@
       <c r="D1110" s="39"/>
       <c r="E1110" s="9"/>
       <c r="F1110" s="20"/>
-      <c r="G1110" s="13"/>
+      <c r="G1110" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1110" s="39"/>
       <c r="I1110" s="9"/>
       <c r="J1110" s="11"/>
@@ -23818,7 +25639,10 @@
       <c r="D1111" s="39"/>
       <c r="E1111" s="9"/>
       <c r="F1111" s="20"/>
-      <c r="G1111" s="13"/>
+      <c r="G1111" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1111" s="39"/>
       <c r="I1111" s="9"/>
       <c r="J1111" s="11"/>
@@ -23831,7 +25655,10 @@
       <c r="D1112" s="39"/>
       <c r="E1112" s="9"/>
       <c r="F1112" s="20"/>
-      <c r="G1112" s="13"/>
+      <c r="G1112" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1112" s="39"/>
       <c r="I1112" s="9"/>
       <c r="J1112" s="11"/>
@@ -23844,7 +25671,10 @@
       <c r="D1113" s="39"/>
       <c r="E1113" s="9"/>
       <c r="F1113" s="20"/>
-      <c r="G1113" s="13"/>
+      <c r="G1113" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1113" s="39"/>
       <c r="I1113" s="9"/>
       <c r="J1113" s="11"/>
@@ -23857,7 +25687,10 @@
       <c r="D1114" s="39"/>
       <c r="E1114" s="9"/>
       <c r="F1114" s="20"/>
-      <c r="G1114" s="13"/>
+      <c r="G1114" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1114" s="39"/>
       <c r="I1114" s="9"/>
       <c r="J1114" s="11"/>
@@ -23870,7 +25703,10 @@
       <c r="D1115" s="39"/>
       <c r="E1115" s="9"/>
       <c r="F1115" s="20"/>
-      <c r="G1115" s="13"/>
+      <c r="G1115" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1115" s="39"/>
       <c r="I1115" s="9"/>
       <c r="J1115" s="11"/>
@@ -23883,7 +25719,10 @@
       <c r="D1116" s="39"/>
       <c r="E1116" s="9"/>
       <c r="F1116" s="20"/>
-      <c r="G1116" s="13"/>
+      <c r="G1116" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1116" s="39"/>
       <c r="I1116" s="9"/>
       <c r="J1116" s="11"/>
@@ -23896,7 +25735,10 @@
       <c r="D1117" s="39"/>
       <c r="E1117" s="9"/>
       <c r="F1117" s="20"/>
-      <c r="G1117" s="13"/>
+      <c r="G1117" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1117" s="39"/>
       <c r="I1117" s="9"/>
       <c r="J1117" s="11"/>
@@ -23909,7 +25751,10 @@
       <c r="D1118" s="39"/>
       <c r="E1118" s="9"/>
       <c r="F1118" s="20"/>
-      <c r="G1118" s="13"/>
+      <c r="G1118" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1118" s="39"/>
       <c r="I1118" s="9"/>
       <c r="J1118" s="11"/>
@@ -23922,7 +25767,10 @@
       <c r="D1119" s="39"/>
       <c r="E1119" s="9"/>
       <c r="F1119" s="20"/>
-      <c r="G1119" s="13"/>
+      <c r="G1119" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1119" s="39"/>
       <c r="I1119" s="9"/>
       <c r="J1119" s="11"/>
@@ -23935,7 +25783,10 @@
       <c r="D1120" s="39"/>
       <c r="E1120" s="9"/>
       <c r="F1120" s="20"/>
-      <c r="G1120" s="13"/>
+      <c r="G1120" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1120" s="39"/>
       <c r="I1120" s="9"/>
       <c r="J1120" s="11"/>
@@ -23948,7 +25799,10 @@
       <c r="D1121" s="39"/>
       <c r="E1121" s="9"/>
       <c r="F1121" s="20"/>
-      <c r="G1121" s="13"/>
+      <c r="G1121" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1121" s="39"/>
       <c r="I1121" s="9"/>
       <c r="J1121" s="11"/>
@@ -23961,7 +25815,10 @@
       <c r="D1122" s="39"/>
       <c r="E1122" s="9"/>
       <c r="F1122" s="20"/>
-      <c r="G1122" s="13"/>
+      <c r="G1122" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1122" s="39"/>
       <c r="I1122" s="9"/>
       <c r="J1122" s="11"/>
@@ -23974,7 +25831,10 @@
       <c r="D1123" s="39"/>
       <c r="E1123" s="9"/>
       <c r="F1123" s="20"/>
-      <c r="G1123" s="13"/>
+      <c r="G1123" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1123" s="39"/>
       <c r="I1123" s="9"/>
       <c r="J1123" s="11"/>
@@ -23987,7 +25847,10 @@
       <c r="D1124" s="39"/>
       <c r="E1124" s="9"/>
       <c r="F1124" s="20"/>
-      <c r="G1124" s="13"/>
+      <c r="G1124" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1124" s="39"/>
       <c r="I1124" s="9"/>
       <c r="J1124" s="11"/>
@@ -24000,7 +25863,10 @@
       <c r="D1125" s="39"/>
       <c r="E1125" s="9"/>
       <c r="F1125" s="20"/>
-      <c r="G1125" s="13"/>
+      <c r="G1125" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1125" s="39"/>
       <c r="I1125" s="9"/>
       <c r="J1125" s="11"/>
@@ -24013,7 +25879,10 @@
       <c r="D1126" s="39"/>
       <c r="E1126" s="9"/>
       <c r="F1126" s="20"/>
-      <c r="G1126" s="13"/>
+      <c r="G1126" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1126" s="39"/>
       <c r="I1126" s="9"/>
       <c r="J1126" s="11"/>
@@ -24026,7 +25895,10 @@
       <c r="D1127" s="39"/>
       <c r="E1127" s="9"/>
       <c r="F1127" s="20"/>
-      <c r="G1127" s="13"/>
+      <c r="G1127" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1127" s="39"/>
       <c r="I1127" s="9"/>
       <c r="J1127" s="11"/>
@@ -24039,7 +25911,10 @@
       <c r="D1128" s="39"/>
       <c r="E1128" s="9"/>
       <c r="F1128" s="20"/>
-      <c r="G1128" s="13"/>
+      <c r="G1128" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1128" s="39"/>
       <c r="I1128" s="9"/>
       <c r="J1128" s="11"/>
@@ -24052,7 +25927,10 @@
       <c r="D1129" s="39"/>
       <c r="E1129" s="9"/>
       <c r="F1129" s="20"/>
-      <c r="G1129" s="13"/>
+      <c r="G1129" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1129" s="39"/>
       <c r="I1129" s="9"/>
       <c r="J1129" s="11"/>
@@ -24065,7 +25943,10 @@
       <c r="D1130" s="39"/>
       <c r="E1130" s="9"/>
       <c r="F1130" s="20"/>
-      <c r="G1130" s="13"/>
+      <c r="G1130" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1130" s="39"/>
       <c r="I1130" s="9"/>
       <c r="J1130" s="11"/>
@@ -24078,7 +25959,10 @@
       <c r="D1131" s="39"/>
       <c r="E1131" s="9"/>
       <c r="F1131" s="20"/>
-      <c r="G1131" s="13"/>
+      <c r="G1131" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1131" s="39"/>
       <c r="I1131" s="9"/>
       <c r="J1131" s="11"/>
@@ -24091,7 +25975,10 @@
       <c r="D1132" s="39"/>
       <c r="E1132" s="9"/>
       <c r="F1132" s="20"/>
-      <c r="G1132" s="13"/>
+      <c r="G1132" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1132" s="39"/>
       <c r="I1132" s="9"/>
       <c r="J1132" s="11"/>
@@ -24104,7 +25991,10 @@
       <c r="D1133" s="39"/>
       <c r="E1133" s="9"/>
       <c r="F1133" s="20"/>
-      <c r="G1133" s="13"/>
+      <c r="G1133" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1133" s="39"/>
       <c r="I1133" s="9"/>
       <c r="J1133" s="11"/>
@@ -24117,7 +26007,10 @@
       <c r="D1134" s="39"/>
       <c r="E1134" s="9"/>
       <c r="F1134" s="20"/>
-      <c r="G1134" s="13"/>
+      <c r="G1134" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1134" s="39"/>
       <c r="I1134" s="9"/>
       <c r="J1134" s="11"/>
@@ -24130,7 +26023,10 @@
       <c r="D1135" s="39"/>
       <c r="E1135" s="9"/>
       <c r="F1135" s="20"/>
-      <c r="G1135" s="13"/>
+      <c r="G1135" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1135" s="39"/>
       <c r="I1135" s="9"/>
       <c r="J1135" s="11"/>
@@ -24143,7 +26039,10 @@
       <c r="D1136" s="39"/>
       <c r="E1136" s="9"/>
       <c r="F1136" s="20"/>
-      <c r="G1136" s="13"/>
+      <c r="G1136" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1136" s="39"/>
       <c r="I1136" s="9"/>
       <c r="J1136" s="11"/>
@@ -24156,7 +26055,10 @@
       <c r="D1137" s="39"/>
       <c r="E1137" s="9"/>
       <c r="F1137" s="20"/>
-      <c r="G1137" s="13"/>
+      <c r="G1137" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1137" s="39"/>
       <c r="I1137" s="9"/>
       <c r="J1137" s="11"/>
@@ -24169,7 +26071,10 @@
       <c r="D1138" s="39"/>
       <c r="E1138" s="9"/>
       <c r="F1138" s="20"/>
-      <c r="G1138" s="13"/>
+      <c r="G1138" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1138" s="39"/>
       <c r="I1138" s="9"/>
       <c r="J1138" s="11"/>
@@ -24182,7 +26087,10 @@
       <c r="D1139" s="39"/>
       <c r="E1139" s="9"/>
       <c r="F1139" s="20"/>
-      <c r="G1139" s="13"/>
+      <c r="G1139" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1139" s="39"/>
       <c r="I1139" s="9"/>
       <c r="J1139" s="11"/>
@@ -24195,7 +26103,10 @@
       <c r="D1140" s="39"/>
       <c r="E1140" s="9"/>
       <c r="F1140" s="20"/>
-      <c r="G1140" s="13"/>
+      <c r="G1140" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1140" s="39"/>
       <c r="I1140" s="9"/>
       <c r="J1140" s="11"/>
@@ -24208,7 +26119,10 @@
       <c r="D1141" s="39"/>
       <c r="E1141" s="9"/>
       <c r="F1141" s="20"/>
-      <c r="G1141" s="13"/>
+      <c r="G1141" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1141" s="39"/>
       <c r="I1141" s="9"/>
       <c r="J1141" s="11"/>
@@ -24221,7 +26135,10 @@
       <c r="D1142" s="39"/>
       <c r="E1142" s="9"/>
       <c r="F1142" s="20"/>
-      <c r="G1142" s="13"/>
+      <c r="G1142" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1142" s="39"/>
       <c r="I1142" s="9"/>
       <c r="J1142" s="11"/>
@@ -24234,7 +26151,10 @@
       <c r="D1143" s="39"/>
       <c r="E1143" s="9"/>
       <c r="F1143" s="20"/>
-      <c r="G1143" s="13"/>
+      <c r="G1143" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1143" s="39"/>
       <c r="I1143" s="9"/>
       <c r="J1143" s="11"/>
@@ -24247,7 +26167,10 @@
       <c r="D1144" s="39"/>
       <c r="E1144" s="9"/>
       <c r="F1144" s="20"/>
-      <c r="G1144" s="13"/>
+      <c r="G1144" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1144" s="39"/>
       <c r="I1144" s="9"/>
       <c r="J1144" s="11"/>
@@ -24260,7 +26183,10 @@
       <c r="D1145" s="39"/>
       <c r="E1145" s="9"/>
       <c r="F1145" s="20"/>
-      <c r="G1145" s="13"/>
+      <c r="G1145" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1145" s="39"/>
       <c r="I1145" s="9"/>
       <c r="J1145" s="11"/>
@@ -24273,7 +26199,10 @@
       <c r="D1146" s="39"/>
       <c r="E1146" s="9"/>
       <c r="F1146" s="20"/>
-      <c r="G1146" s="13"/>
+      <c r="G1146" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1146" s="39"/>
       <c r="I1146" s="9"/>
       <c r="J1146" s="11"/>
@@ -24286,7 +26215,10 @@
       <c r="D1147" s="39"/>
       <c r="E1147" s="9"/>
       <c r="F1147" s="20"/>
-      <c r="G1147" s="13"/>
+      <c r="G1147" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1147" s="39"/>
       <c r="I1147" s="9"/>
       <c r="J1147" s="11"/>
@@ -24299,7 +26231,10 @@
       <c r="D1148" s="39"/>
       <c r="E1148" s="9"/>
       <c r="F1148" s="20"/>
-      <c r="G1148" s="13"/>
+      <c r="G1148" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1148" s="39"/>
       <c r="I1148" s="9"/>
       <c r="J1148" s="11"/>
@@ -24312,7 +26247,10 @@
       <c r="D1149" s="39"/>
       <c r="E1149" s="9"/>
       <c r="F1149" s="20"/>
-      <c r="G1149" s="13"/>
+      <c r="G1149" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1149" s="39"/>
       <c r="I1149" s="9"/>
       <c r="J1149" s="11"/>
@@ -24325,7 +26263,10 @@
       <c r="D1150" s="39"/>
       <c r="E1150" s="9"/>
       <c r="F1150" s="20"/>
-      <c r="G1150" s="13"/>
+      <c r="G1150" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1150" s="39"/>
       <c r="I1150" s="9"/>
       <c r="J1150" s="11"/>
@@ -24338,7 +26279,10 @@
       <c r="D1151" s="39"/>
       <c r="E1151" s="9"/>
       <c r="F1151" s="20"/>
-      <c r="G1151" s="13"/>
+      <c r="G1151" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1151" s="39"/>
       <c r="I1151" s="9"/>
       <c r="J1151" s="11"/>
@@ -24351,7 +26295,10 @@
       <c r="D1152" s="39"/>
       <c r="E1152" s="9"/>
       <c r="F1152" s="20"/>
-      <c r="G1152" s="13"/>
+      <c r="G1152" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1152" s="39"/>
       <c r="I1152" s="9"/>
       <c r="J1152" s="11"/>
@@ -24364,7 +26311,10 @@
       <c r="D1153" s="39"/>
       <c r="E1153" s="9"/>
       <c r="F1153" s="20"/>
-      <c r="G1153" s="13"/>
+      <c r="G1153" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1153" s="39"/>
       <c r="I1153" s="9"/>
       <c r="J1153" s="11"/>
@@ -24377,7 +26327,10 @@
       <c r="D1154" s="39"/>
       <c r="E1154" s="9"/>
       <c r="F1154" s="20"/>
-      <c r="G1154" s="13"/>
+      <c r="G1154" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1154" s="39"/>
       <c r="I1154" s="9"/>
       <c r="J1154" s="11"/>
@@ -24390,7 +26343,10 @@
       <c r="D1155" s="39"/>
       <c r="E1155" s="9"/>
       <c r="F1155" s="20"/>
-      <c r="G1155" s="13"/>
+      <c r="G1155" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1155" s="39"/>
       <c r="I1155" s="9"/>
       <c r="J1155" s="11"/>
@@ -24403,7 +26359,10 @@
       <c r="D1156" s="39"/>
       <c r="E1156" s="9"/>
       <c r="F1156" s="20"/>
-      <c r="G1156" s="13"/>
+      <c r="G1156" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1156" s="39"/>
       <c r="I1156" s="9"/>
       <c r="J1156" s="11"/>
@@ -24416,7 +26375,10 @@
       <c r="D1157" s="39"/>
       <c r="E1157" s="9"/>
       <c r="F1157" s="20"/>
-      <c r="G1157" s="13"/>
+      <c r="G1157" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1157" s="39"/>
       <c r="I1157" s="9"/>
       <c r="J1157" s="11"/>
@@ -24429,7 +26391,10 @@
       <c r="D1158" s="39"/>
       <c r="E1158" s="9"/>
       <c r="F1158" s="20"/>
-      <c r="G1158" s="13"/>
+      <c r="G1158" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1158" s="39"/>
       <c r="I1158" s="9"/>
       <c r="J1158" s="11"/>
@@ -24442,7 +26407,10 @@
       <c r="D1159" s="39"/>
       <c r="E1159" s="9"/>
       <c r="F1159" s="20"/>
-      <c r="G1159" s="13"/>
+      <c r="G1159" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1159" s="39"/>
       <c r="I1159" s="9"/>
       <c r="J1159" s="11"/>
@@ -24455,7 +26423,10 @@
       <c r="D1160" s="39"/>
       <c r="E1160" s="9"/>
       <c r="F1160" s="20"/>
-      <c r="G1160" s="13"/>
+      <c r="G1160" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1160" s="39"/>
       <c r="I1160" s="9"/>
       <c r="J1160" s="11"/>
@@ -24468,7 +26439,10 @@
       <c r="D1161" s="39"/>
       <c r="E1161" s="9"/>
       <c r="F1161" s="20"/>
-      <c r="G1161" s="13"/>
+      <c r="G1161" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1161" s="39"/>
       <c r="I1161" s="9"/>
       <c r="J1161" s="11"/>
@@ -24481,7 +26455,10 @@
       <c r="D1162" s="39"/>
       <c r="E1162" s="9"/>
       <c r="F1162" s="20"/>
-      <c r="G1162" s="13"/>
+      <c r="G1162" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1162" s="39"/>
       <c r="I1162" s="9"/>
       <c r="J1162" s="11"/>
@@ -24494,7 +26471,10 @@
       <c r="D1163" s="39"/>
       <c r="E1163" s="9"/>
       <c r="F1163" s="20"/>
-      <c r="G1163" s="13"/>
+      <c r="G1163" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1163" s="39"/>
       <c r="I1163" s="9"/>
       <c r="J1163" s="11"/>
@@ -24507,11 +26487,30 @@
       <c r="D1164" s="39"/>
       <c r="E1164" s="9"/>
       <c r="F1164" s="20"/>
-      <c r="G1164" s="13"/>
+      <c r="G1164" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
       <c r="H1164" s="39"/>
       <c r="I1164" s="9"/>
       <c r="J1164" s="11"/>
       <c r="K1164" s="20"/>
+    </row>
+    <row r="1165" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1165" s="40"/>
+      <c r="B1165" s="20"/>
+      <c r="C1165" s="13"/>
+      <c r="D1165" s="39"/>
+      <c r="E1165" s="9"/>
+      <c r="F1165" s="20"/>
+      <c r="G1165" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1165" s="39"/>
+      <c r="I1165" s="9"/>
+      <c r="J1165" s="11"/>
+      <c r="K1165" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -24527,7 +26526,7 @@
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="F4:G4"/>
   </mergeCells>
-  <dataValidations disablePrompts="1" count="2">
+  <dataValidations count="2">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0100-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
@@ -24559,7 +26558,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -24662,6 +26661,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>436</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -24683,6 +26685,10 @@
       <c r="L6" s="76"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="77">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>116.92399999999992</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
+++ b/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVECARD\REGULAR\OJT\NEW DONE\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{782DAA4F-3E56-4DBA-BAF9-3478C09438A2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C221D24D-D8AE-4DEA-A916-8B0C568FE73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="1">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="698" uniqueCount="444">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="447">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1367,6 +1367,15 @@
   </si>
   <si>
     <t>2/2,3/2023</t>
+  </si>
+  <si>
+    <t>ADMIN AIDE III</t>
+  </si>
+  <si>
+    <t>5 - Single (including living common law)</t>
+  </si>
+  <si>
+    <t>3/16,17,24/2023</t>
   </si>
 </sst>
 </file>
@@ -1802,6 +1811,9 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -1837,9 +1849,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -4207,7 +4216,8 @@
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3576" topLeftCell="A601" activePane="bottomLeft"/>
-      <selection pane="bottomLeft" activeCell="F603" sqref="F603"/>
+      <selection activeCell="F2" sqref="F2:G2"/>
+      <selection pane="bottomLeft" activeCell="D606" sqref="D606"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4229,62 +4239,66 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="66" t="s">
+      <c r="B2" s="67" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="66"/>
+      <c r="C2" s="67"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="73"/>
-      <c r="G2" s="73"/>
+      <c r="F2" s="74" t="s">
+        <v>445</v>
+      </c>
+      <c r="G2" s="74"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="69"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
+      <c r="B3" s="67" t="s">
+        <v>444</v>
+      </c>
+      <c r="C3" s="67"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="74"/>
-      <c r="G3" s="71"/>
+      <c r="F3" s="75"/>
+      <c r="G3" s="72"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="69"/>
-      <c r="K3" s="70"/>
+      <c r="J3" s="70"/>
+      <c r="K3" s="71"/>
     </row>
     <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="66" t="s">
+      <c r="B4" s="67" t="s">
         <v>44</v>
       </c>
-      <c r="C4" s="66"/>
+      <c r="C4" s="67"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="71" t="s">
+      <c r="F4" s="72" t="s">
         <v>45</v>
       </c>
-      <c r="G4" s="71"/>
+      <c r="G4" s="72"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="71"/>
-      <c r="K4" s="72"/>
+      <c r="J4" s="72"/>
+      <c r="K4" s="73"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
@@ -4310,18 +4324,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="65" t="s">
+      <c r="C7" s="66" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="65"/>
-      <c r="E7" s="65"/>
-      <c r="F7" s="65"/>
-      <c r="G7" s="65" t="s">
+      <c r="D7" s="66"/>
+      <c r="E7" s="66"/>
+      <c r="F7" s="66"/>
+      <c r="G7" s="66" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="65"/>
-      <c r="I7" s="65"/>
-      <c r="J7" s="65"/>
+      <c r="H7" s="66"/>
+      <c r="I7" s="66"/>
+      <c r="J7" s="66"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
@@ -4368,7 +4382,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>2.7989999999999213</v>
+        <v>4.0489999999999213</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -4378,7 +4392,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>114.125</v>
+        <v>112.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17524,19 +17538,27 @@
       <c r="A606" s="40">
         <v>44986</v>
       </c>
-      <c r="B606" s="20"/>
-      <c r="C606" s="13"/>
+      <c r="B606" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C606" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H606" s="39"/>
+      <c r="G606" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H606" s="39">
+        <v>3</v>
+      </c>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
-      <c r="K606" s="20"/>
+      <c r="K606" s="20" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
@@ -26576,17 +26598,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="D1" s="75" t="s">
+      <c r="D1" s="76" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="75"/>
-      <c r="F1" s="75"/>
-      <c r="G1" s="75"/>
-      <c r="J1" s="76" t="s">
+      <c r="E1" s="76"/>
+      <c r="F1" s="76"/>
+      <c r="G1" s="76"/>
+      <c r="J1" s="77" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="76"/>
-      <c r="L1" s="76"/>
+      <c r="K1" s="77"/>
+      <c r="L1" s="77"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
@@ -26677,17 +26699,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="44"/>
-      <c r="I6" s="76" t="s">
+      <c r="I6" s="77" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="76"/>
-      <c r="K6" s="76"/>
-      <c r="L6" s="76"/>
+      <c r="J6" s="77"/>
+      <c r="K6" s="77"/>
+      <c r="L6" s="77"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A7" s="77">
+      <c r="A7" s="65">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>116.92399999999992</v>
+        <v>116.42399999999992</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
+++ b/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C221D24D-D8AE-4DEA-A916-8B0C568FE73E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E47522F-3DF5-41DF-8C9D-F18D9898628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="702" uniqueCount="447">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="450">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1376,6 +1376,15 @@
   </si>
   <si>
     <t>3/16,17,24/2023</t>
+  </si>
+  <si>
+    <t>3/31, 4/5,13/2023</t>
+  </si>
+  <si>
+    <t>5/7-9/2023</t>
+  </si>
+  <si>
+    <t>2/23,28, 3/1</t>
   </si>
 </sst>
 </file>
@@ -3833,8 +3842,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K1165" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
-  <autoFilter ref="A8:K1165" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K1168" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="19"/>
@@ -4212,12 +4220,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K1165"/>
+  <dimension ref="A2:K1168"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3576" topLeftCell="A601" activePane="bottomLeft"/>
-      <selection activeCell="F2" sqref="F2:G2"/>
-      <selection pane="bottomLeft" activeCell="D606" sqref="D606"/>
+      <pane ySplit="3696" topLeftCell="A601" activePane="bottomLeft"/>
+      <selection activeCell="A8" sqref="A8:K8"/>
+      <selection pane="bottomLeft" activeCell="D611" sqref="D611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4392,7 +4400,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>112.375</v>
+        <v>106.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17535,54 +17543,56 @@
       </c>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A606" s="40">
-        <v>44986</v>
-      </c>
+      <c r="A606" s="40"/>
       <c r="B606" s="20" t="s">
-        <v>122</v>
-      </c>
-      <c r="C606" s="13">
-        <v>1.25</v>
-      </c>
+        <v>430</v>
+      </c>
+      <c r="C606" s="13"/>
       <c r="D606" s="39"/>
       <c r="E606" s="9"/>
       <c r="F606" s="20"/>
-      <c r="G606" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H606" s="39">
-        <v>3</v>
-      </c>
+      <c r="G606" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H606" s="39"/>
       <c r="I606" s="9"/>
       <c r="J606" s="11"/>
       <c r="K606" s="20" t="s">
-        <v>446</v>
+        <v>449</v>
       </c>
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A607" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B607" s="20"/>
-      <c r="C607" s="13"/>
+        <v>44986</v>
+      </c>
+      <c r="B607" s="20" t="s">
+        <v>122</v>
+      </c>
+      <c r="C607" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D607" s="39"/>
       <c r="E607" s="9"/>
       <c r="F607" s="20"/>
-      <c r="G607" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H607" s="39"/>
+      <c r="G607" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H607" s="39">
+        <v>3</v>
+      </c>
       <c r="I607" s="9"/>
       <c r="J607" s="11"/>
-      <c r="K607" s="20"/>
+      <c r="K607" s="20" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A608" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B608" s="20"/>
+      <c r="A608" s="40"/>
+      <c r="B608" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C608" s="13"/>
       <c r="D608" s="39"/>
       <c r="E608" s="9"/>
@@ -17591,16 +17601,20 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H608" s="39"/>
+      <c r="H608" s="39">
+        <v>3</v>
+      </c>
       <c r="I608" s="9"/>
       <c r="J608" s="11"/>
-      <c r="K608" s="20"/>
+      <c r="K608" s="20" t="s">
+        <v>447</v>
+      </c>
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A609" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B609" s="20"/>
+      <c r="A609" s="40"/>
+      <c r="B609" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C609" s="13"/>
       <c r="D609" s="39"/>
       <c r="E609" s="9"/>
@@ -17609,14 +17623,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H609" s="39"/>
+      <c r="H609" s="39">
+        <v>3</v>
+      </c>
       <c r="I609" s="9"/>
       <c r="J609" s="11"/>
-      <c r="K609" s="20"/>
+      <c r="K609" s="20" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A610" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -17634,7 +17652,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
-        <v>45139</v>
+        <v>45047</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -17652,7 +17670,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A612" s="40">
-        <v>45170</v>
+        <v>45078</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -17670,7 +17688,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A613" s="40">
-        <v>45200</v>
+        <v>45108</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -17688,7 +17706,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A614" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -17706,7 +17724,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A615" s="40">
-        <v>45261</v>
+        <v>45170</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -17724,7 +17742,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A616" s="40">
-        <v>45292</v>
+        <v>45200</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -17742,7 +17760,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A617" s="40">
-        <v>45323</v>
+        <v>45231</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -17760,7 +17778,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A618" s="40">
-        <v>45352</v>
+        <v>45261</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -17778,7 +17796,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A619" s="40">
-        <v>45383</v>
+        <v>45292</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -17796,7 +17814,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A620" s="40">
-        <v>45413</v>
+        <v>45323</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -17814,7 +17832,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A621" s="40">
-        <v>45444</v>
+        <v>45352</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -17831,7 +17849,9 @@
       <c r="K621" s="20"/>
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A622" s="40"/>
+      <c r="A622" s="40">
+        <v>45383</v>
+      </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -17847,7 +17867,9 @@
       <c r="K622" s="20"/>
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A623" s="40"/>
+      <c r="A623" s="40">
+        <v>45413</v>
+      </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
@@ -17863,7 +17885,9 @@
       <c r="K623" s="20"/>
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624" s="40"/>
+      <c r="A624" s="40">
+        <v>45444</v>
+      </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
       <c r="D624" s="39"/>
@@ -26533,6 +26557,54 @@
       <c r="I1165" s="9"/>
       <c r="J1165" s="11"/>
       <c r="K1165" s="20"/>
+    </row>
+    <row r="1166" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1166" s="40"/>
+      <c r="B1166" s="20"/>
+      <c r="C1166" s="13"/>
+      <c r="D1166" s="39"/>
+      <c r="E1166" s="9"/>
+      <c r="F1166" s="20"/>
+      <c r="G1166" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1166" s="39"/>
+      <c r="I1166" s="9"/>
+      <c r="J1166" s="11"/>
+      <c r="K1166" s="20"/>
+    </row>
+    <row r="1167" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1167" s="40"/>
+      <c r="B1167" s="20"/>
+      <c r="C1167" s="13"/>
+      <c r="D1167" s="39"/>
+      <c r="E1167" s="9"/>
+      <c r="F1167" s="20"/>
+      <c r="G1167" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1167" s="39"/>
+      <c r="I1167" s="9"/>
+      <c r="J1167" s="11"/>
+      <c r="K1167" s="20"/>
+    </row>
+    <row r="1168" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A1168" s="40"/>
+      <c r="B1168" s="20"/>
+      <c r="C1168" s="13"/>
+      <c r="D1168" s="39"/>
+      <c r="E1168" s="9"/>
+      <c r="F1168" s="20"/>
+      <c r="G1168" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H1168" s="39"/>
+      <c r="I1168" s="9"/>
+      <c r="J1168" s="11"/>
+      <c r="K1168" s="20"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -26709,7 +26781,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="65">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>116.42399999999992</v>
+        <v>110.42399999999992</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
+++ b/REGULAR/OJT/NEW DONE/DOLOT, JESUS JR..xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\OJT\NEW DONE\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E47522F-3DF5-41DF-8C9D-F18D9898628E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AA5758B-6062-419D-8158-2288F184819F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="708" uniqueCount="450">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="710" uniqueCount="451">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1385,6 +1385,9 @@
   </si>
   <si>
     <t>2/23,28, 3/1</t>
+  </si>
+  <si>
+    <t>4/17,20/2023</t>
   </si>
 </sst>
 </file>
@@ -4225,7 +4228,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3696" topLeftCell="A601" activePane="bottomLeft"/>
       <selection activeCell="A8" sqref="A8:K8"/>
-      <selection pane="bottomLeft" activeCell="D611" sqref="D611"/>
+      <selection pane="bottomLeft" activeCell="B611" sqref="B611"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4400,7 +4403,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>106.375</v>
+        <v>104.375</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -17636,7 +17639,9 @@
       <c r="A610" s="40">
         <v>45017</v>
       </c>
-      <c r="B610" s="20"/>
+      <c r="B610" s="20" t="s">
+        <v>82</v>
+      </c>
       <c r="C610" s="13"/>
       <c r="D610" s="39"/>
       <c r="E610" s="9"/>
@@ -17645,10 +17650,14 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H610" s="39"/>
+      <c r="H610" s="39">
+        <v>2</v>
+      </c>
       <c r="I610" s="9"/>
       <c r="J610" s="11"/>
-      <c r="K610" s="20"/>
+      <c r="K610" s="20" t="s">
+        <v>450</v>
+      </c>
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A611" s="40">
@@ -26781,7 +26790,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="65">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>110.42399999999992</v>
+        <v>108.42399999999992</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
